--- a/ES calc/Descriptive coding scheme for group-based interventions (data).xlsx
+++ b/ES calc/Descriptive coding scheme for group-based interventions (data).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\Group-based-interventions\ES calc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\301744\Descriptive coding schemes\Mikkel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="126">
   <si>
     <t>authors</t>
   </si>
@@ -327,53 +327,122 @@
     <t>The Manchester Short Assessment of Quality of Life</t>
   </si>
   <si>
-    <t>Emp/posttest</t>
-  </si>
-  <si>
-    <t>Emp/followup</t>
-  </si>
-  <si>
-    <t>Hop/posttest</t>
-  </si>
-  <si>
-    <t>Hop/followup</t>
-  </si>
-  <si>
-    <t>Lon/posttest</t>
-  </si>
-  <si>
-    <t>Lon/followup</t>
-  </si>
-  <si>
-    <t>Qua/posttest</t>
-  </si>
-  <si>
-    <t>Qua/followup</t>
-  </si>
-  <si>
-    <t>Sel/posttest</t>
-  </si>
-  <si>
-    <t>Sel/followup</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Gestel-Timmermans</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
     <t>Raw means</t>
+  </si>
+  <si>
+    <t>Emp/3 months</t>
+  </si>
+  <si>
+    <t>Hop/3 months</t>
+  </si>
+  <si>
+    <t>Emp/6 months</t>
+  </si>
+  <si>
+    <t>Hop/6 months</t>
+  </si>
+  <si>
+    <t>Lon/3 months</t>
+  </si>
+  <si>
+    <t>Lon/6 months</t>
+  </si>
+  <si>
+    <t>Qual/3 months</t>
+  </si>
+  <si>
+    <t>Qual/6 months</t>
+  </si>
+  <si>
+    <t>Self/3 months</t>
+  </si>
+  <si>
+    <t>Self/6 months</t>
+  </si>
+  <si>
+    <t>Bond et al.</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Hospital-setting (i.e out-patient)</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>Pre-diagnosed</t>
+  </si>
+  <si>
+    <t>Pricipally heterogeneous</t>
+  </si>
+  <si>
+    <t>QES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient </t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>assertive community treatment (ACT)</t>
+  </si>
+  <si>
+    <t>reference groups (RG)</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>Single-therapist</t>
+  </si>
+  <si>
+    <t>Hospital days</t>
+  </si>
+  <si>
+    <t>Hospital data</t>
+  </si>
+  <si>
+    <t>Paired t-tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-treatment number of hospital days </t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>ROBINS-I</t>
+  </si>
+  <si>
+    <t>Bond 1991</t>
+  </si>
+  <si>
+    <t>Gestel-Timmermans 2012</t>
+  </si>
+  <si>
+    <t>Serious</t>
+  </si>
+  <si>
+    <t>Moderate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +482,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -456,23 +531,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -754,10 +835,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ11"/>
+  <dimension ref="A1:AZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO3" sqref="AO3:AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,12 +852,12 @@
     <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
@@ -786,13 +868,13 @@
     <col min="22" max="22" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.85546875" style="1" customWidth="1"/>
     <col min="26" max="26" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="17.85546875" style="1" customWidth="1"/>
     <col min="32" max="32" width="8.7109375" style="1" customWidth="1"/>
     <col min="33" max="33" width="15.42578125" style="1" customWidth="1"/>
     <col min="34" max="34" width="11.85546875" style="1" customWidth="1"/>
@@ -801,11 +883,11 @@
     <col min="37" max="37" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.85546875" style="1" customWidth="1"/>
+    <col min="40" max="40" width="14.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="37.7109375" style="1" customWidth="1"/>
     <col min="42" max="42" width="14.7109375" style="1" customWidth="1"/>
     <col min="43" max="43" width="11.85546875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="20" style="1" customWidth="1"/>
+    <col min="44" max="44" width="28.42578125" style="1" customWidth="1"/>
     <col min="45" max="51" width="13.140625" style="1" customWidth="1"/>
     <col min="52" max="52" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="16384" width="9.140625" style="1"/>
@@ -941,8 +1023,8 @@
       <c r="AQ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AR1" s="6" t="s">
-        <v>99</v>
+      <c r="AR1" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="AS1" s="2" t="s">
         <v>42</v>
@@ -969,7 +1051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>55</v>
       </c>
@@ -1018,116 +1100,116 @@
       <c r="P2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="U2" s="6">
+        <v>1</v>
+      </c>
+      <c r="V2" s="6">
+        <v>1</v>
+      </c>
+      <c r="W2" s="6">
+        <v>1</v>
+      </c>
+      <c r="X2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="6">
         <v>7</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="6">
         <v>12</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="6">
         <v>2</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AC2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AF2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AL2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AN2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AR2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AT2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AU2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AV2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AV2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AX2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AY2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -1176,116 +1258,116 @@
       <c r="P3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="U3" s="6">
+        <v>1</v>
+      </c>
+      <c r="V3" s="6">
+        <v>1</v>
+      </c>
+      <c r="W3" s="6">
+        <v>1</v>
+      </c>
+      <c r="X3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="6">
         <v>7</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3" s="6">
         <v>12</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="6">
         <v>2</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AC3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AF3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AH3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AI3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AK3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AL3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AM3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AM3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AQ3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AW3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AX3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AU3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>55</v>
       </c>
@@ -1334,116 +1416,116 @@
       <c r="P4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1" t="s">
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
+      <c r="V4" s="6">
+        <v>1</v>
+      </c>
+      <c r="W4" s="6">
+        <v>1</v>
+      </c>
+      <c r="X4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="6">
         <v>7</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="6">
         <v>12</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="6">
         <v>2</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AC4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AE4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AF4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AH4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AI4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AJ4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AK4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AL4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AM4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AN4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AN4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AO4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AR4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AR4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AT4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AU4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AV4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AV4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AX4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AY4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="AZ4" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>55</v>
       </c>
@@ -1492,116 +1574,116 @@
       <c r="P5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1" t="s">
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <v>1</v>
+      </c>
+      <c r="W5" s="6">
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="6">
         <v>7</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="6">
         <v>12</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="6">
         <v>2</v>
       </c>
-      <c r="AC5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AC5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AE5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AF5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AH5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AI5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="1" t="s">
+      <c r="AJ5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AK5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AL5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AM5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AM5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AR5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AR5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="AT5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AU5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AV5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AV5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="AX5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="AY5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="AZ5" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
@@ -1650,116 +1732,116 @@
       <c r="P6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1" t="s">
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="6">
         <v>7</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="6">
         <v>12</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="6">
         <v>2</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AC6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AE6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AF6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AH6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI6" s="1" t="s">
+      <c r="AI6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AJ6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AK6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AL6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AM6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AN6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AN6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AR6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AT6" s="1" t="s">
+      <c r="AT6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AU6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AV6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW6" s="1" t="s">
+      <c r="AV6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AX6" s="1" t="s">
+      <c r="AX6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AY6" s="1" t="s">
+      <c r="AY6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AZ6" s="1" t="s">
+      <c r="AZ6" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>55</v>
       </c>
@@ -1808,116 +1890,116 @@
       <c r="P7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1" t="s">
+      <c r="U7" s="6">
+        <v>1</v>
+      </c>
+      <c r="V7" s="6">
+        <v>1</v>
+      </c>
+      <c r="W7" s="6">
+        <v>1</v>
+      </c>
+      <c r="X7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="6">
         <v>7</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="6">
         <v>12</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="6">
         <v>2</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AC7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AE7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AF7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AH7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI7" s="1" t="s">
+      <c r="AI7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AJ7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AK7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AL7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AM7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AM7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AR7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AR7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AT7" s="1" t="s">
+      <c r="AT7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AU7" s="1" t="s">
+      <c r="AU7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AV7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW7" s="1" t="s">
+      <c r="AV7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AX7" s="1" t="s">
+      <c r="AX7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AY7" s="1" t="s">
+      <c r="AY7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AZ7" s="1" t="s">
+      <c r="AZ7" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
@@ -1966,116 +2048,116 @@
       <c r="P8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="1">
-        <v>1</v>
-      </c>
-      <c r="V8" s="1">
-        <v>1</v>
-      </c>
-      <c r="W8" s="1">
-        <v>1</v>
-      </c>
-      <c r="X8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="1" t="s">
+      <c r="U8" s="6">
+        <v>1</v>
+      </c>
+      <c r="V8" s="6">
+        <v>1</v>
+      </c>
+      <c r="W8" s="6">
+        <v>1</v>
+      </c>
+      <c r="X8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="6">
         <v>7</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="6">
         <v>12</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="6">
         <v>2</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AC8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AE8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AF8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AH8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AI8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AJ8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AK8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AL8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AM8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AN8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
+      <c r="AN8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AR8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AR8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AT8" s="1" t="s">
+      <c r="AT8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AU8" s="1" t="s">
+      <c r="AU8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AV8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW8" s="1" t="s">
+      <c r="AV8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AX8" s="1" t="s">
+      <c r="AX8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AY8" s="1" t="s">
+      <c r="AY8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AZ8" s="1" t="s">
+      <c r="AZ8" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>55</v>
       </c>
@@ -2124,116 +2206,116 @@
       <c r="P9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="1">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1">
-        <v>1</v>
-      </c>
-      <c r="W9" s="1">
-        <v>1</v>
-      </c>
-      <c r="X9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="1" t="s">
+      <c r="U9" s="6">
+        <v>1</v>
+      </c>
+      <c r="V9" s="6">
+        <v>1</v>
+      </c>
+      <c r="W9" s="6">
+        <v>1</v>
+      </c>
+      <c r="X9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="6">
         <v>7</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9" s="6">
         <v>12</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="6">
         <v>2</v>
       </c>
-      <c r="AC9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AC9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AE9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="1" t="s">
+      <c r="AF9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AH9" s="1" t="s">
+      <c r="AH9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI9" s="1" t="s">
+      <c r="AI9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ9" s="1" t="s">
+      <c r="AJ9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AK9" s="1" t="s">
+      <c r="AK9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AL9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AM9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AM9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AR9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS9" s="1" t="s">
+      <c r="AR9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AT9" s="1" t="s">
+      <c r="AT9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AU9" s="1" t="s">
+      <c r="AU9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AV9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW9" s="1" t="s">
+      <c r="AV9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AX9" s="1" t="s">
+      <c r="AX9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AY9" s="1" t="s">
+      <c r="AY9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AZ9" s="1" t="s">
+      <c r="AZ9" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
@@ -2282,116 +2364,116 @@
       <c r="P10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="1">
-        <v>1</v>
-      </c>
-      <c r="V10" s="1">
-        <v>1</v>
-      </c>
-      <c r="W10" s="1">
-        <v>1</v>
-      </c>
-      <c r="X10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="1" t="s">
+      <c r="U10" s="6">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6">
+        <v>1</v>
+      </c>
+      <c r="W10" s="6">
+        <v>1</v>
+      </c>
+      <c r="X10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="6">
         <v>7</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10" s="6">
         <v>12</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="6">
         <v>2</v>
       </c>
-      <c r="AC10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AC10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AE10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="1" t="s">
+      <c r="AF10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AH10" s="1" t="s">
+      <c r="AH10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI10" s="1" t="s">
+      <c r="AI10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ10" s="1" t="s">
+      <c r="AJ10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AK10" s="1" t="s">
+      <c r="AK10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AL10" s="1" t="s">
+      <c r="AL10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AM10" s="1" t="s">
+      <c r="AM10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AN10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
+      <c r="AN10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AR10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS10" s="1" t="s">
+      <c r="AR10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AT10" s="1" t="s">
+      <c r="AT10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AU10" s="1" t="s">
+      <c r="AU10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AV10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW10" s="1" t="s">
+      <c r="AV10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AX10" s="1" t="s">
+      <c r="AX10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AY10" s="1" t="s">
+      <c r="AY10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AZ10" s="1" t="s">
+      <c r="AZ10" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
@@ -2440,113 +2522,429 @@
       <c r="P11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="U11" s="1">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1">
-        <v>1</v>
-      </c>
-      <c r="W11" s="1">
-        <v>1</v>
-      </c>
-      <c r="X11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="1" t="s">
+      <c r="U11" s="6">
+        <v>1</v>
+      </c>
+      <c r="V11" s="6">
+        <v>1</v>
+      </c>
+      <c r="W11" s="6">
+        <v>1</v>
+      </c>
+      <c r="X11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="6">
         <v>7</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11" s="6">
         <v>12</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11" s="6">
         <v>2</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AC11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AE11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="1" t="s">
+      <c r="AF11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AH11" s="1" t="s">
+      <c r="AH11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AI11" s="1" t="s">
+      <c r="AI11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ11" s="1" t="s">
+      <c r="AJ11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AK11" s="1" t="s">
+      <c r="AK11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AL11" s="1" t="s">
+      <c r="AL11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AM11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN11" s="1" t="s">
+      <c r="AM11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ11" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AO11" s="1" t="s">
+      <c r="B12" s="4">
+        <v>1991</v>
+      </c>
+      <c r="C12" s="4">
+        <v>73497493</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="4">
+        <v>79</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>2</v>
+      </c>
+      <c r="X12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>52</v>
+      <c r="AN12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ12" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1991</v>
+      </c>
+      <c r="C13" s="4">
+        <v>73497493</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="4">
+        <v>79</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4">
+        <v>2</v>
+      </c>
+      <c r="X13" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ13" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/ES calc/Descriptive coding scheme for group-based interventions (data).xlsx
+++ b/ES calc/Descriptive coding scheme for group-based interventions (data).xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="207">
   <si>
     <t>authors</t>
   </si>
@@ -790,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -847,6 +847,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,13 +1070,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A30" sqref="A30"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="25" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
@@ -1137,7 +1141,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4897,7 +4901,7 @@
       <c r="B21" s="11">
         <v>2022</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="12">
         <v>3</v>
       </c>
       <c r="D21" s="10">
@@ -5085,7 +5089,7 @@
       <c r="B22" s="11">
         <v>2022</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="12">
         <v>3</v>
       </c>
       <c r="D22" s="10">
@@ -5273,7 +5277,7 @@
       <c r="B23" s="11">
         <v>2022</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="12">
         <v>3</v>
       </c>
       <c r="D23" s="10">
@@ -5461,7 +5465,7 @@
       <c r="B24" s="11">
         <v>2022</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="12">
         <v>3</v>
       </c>
       <c r="D24" s="10">
@@ -5649,7 +5653,7 @@
       <c r="B25" s="11">
         <v>2022</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="12">
         <v>3</v>
       </c>
       <c r="D25" s="10">
@@ -5837,7 +5841,7 @@
       <c r="B26" s="11">
         <v>2022</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="12">
         <v>3</v>
       </c>
       <c r="D26" s="10">
@@ -6025,7 +6029,7 @@
       <c r="B27" s="20">
         <v>2009</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="18">
         <v>4</v>
       </c>
       <c r="D27" s="21">
@@ -6052,7 +6056,9 @@
       <c r="K27" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="L27" s="16"/>
+      <c r="L27" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="M27" s="16" t="s">
         <v>186</v>
       </c>
@@ -6211,7 +6217,7 @@
       <c r="B28" s="20">
         <v>2009</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="18">
         <v>4</v>
       </c>
       <c r="D28" s="21">
@@ -6238,7 +6244,9 @@
       <c r="K28" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="16"/>
+      <c r="L28" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="M28" s="16" t="s">
         <v>186</v>
       </c>
@@ -6397,7 +6405,7 @@
       <c r="B29" s="20">
         <v>2009</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="18">
         <v>4</v>
       </c>
       <c r="D29" s="21">
@@ -6424,7 +6432,9 @@
       <c r="K29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="L29" s="16"/>
+      <c r="L29" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="M29" s="16" t="s">
         <v>186</v>
       </c>
@@ -6583,7 +6593,7 @@
       <c r="B30" s="20">
         <v>2009</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="18">
         <v>4</v>
       </c>
       <c r="D30" s="21">
@@ -6610,7 +6620,9 @@
       <c r="K30" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="16"/>
+      <c r="L30" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="M30" s="16" t="s">
         <v>186</v>
       </c>
@@ -6765,7 +6777,7 @@
     <row r="31" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="6"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -6829,7 +6841,7 @@
     <row r="32" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="6"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -6893,7 +6905,7 @@
     <row r="33" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="15"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -6957,7 +6969,7 @@
     <row r="34" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="6"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -7021,7 +7033,7 @@
     <row r="35" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="6"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -7085,7 +7097,7 @@
     <row r="36" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="15"/>
-      <c r="C36" s="6"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -7149,7 +7161,7 @@
     <row r="37" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="15"/>
-      <c r="C37" s="6"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -7213,7 +7225,7 @@
     <row r="38" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="15"/>
-      <c r="C38" s="6"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -7277,7 +7289,7 @@
     <row r="39" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="15"/>
-      <c r="C39" s="6"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -7341,7 +7353,7 @@
     <row r="40" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="15"/>
-      <c r="C40" s="6"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -7405,7 +7417,7 @@
     <row r="41" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="15"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -7469,7 +7481,7 @@
     <row r="42" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="15"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -7533,7 +7545,7 @@
     <row r="43" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="15"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -7597,7 +7609,7 @@
     <row r="44" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="15"/>
-      <c r="C44" s="6"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -7661,7 +7673,7 @@
     <row r="45" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="15"/>
-      <c r="C45" s="6"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -7725,7 +7737,7 @@
     <row r="46" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="15"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -7789,7 +7801,7 @@
     <row r="47" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="15"/>
-      <c r="C47" s="6"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -7853,7 +7865,7 @@
     <row r="48" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="15"/>
-      <c r="C48" s="6"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -7917,7 +7929,7 @@
     <row r="49" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -7981,7 +7993,7 @@
     <row r="50" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="15"/>
-      <c r="C50" s="6"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -8045,7 +8057,7 @@
     <row r="51" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="15"/>
-      <c r="C51" s="6"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -8109,7 +8121,7 @@
     <row r="52" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="15"/>
-      <c r="C52" s="6"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -8173,7 +8185,7 @@
     <row r="53" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="15"/>
-      <c r="C53" s="6"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -8237,7 +8249,7 @@
     <row r="54" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="15"/>
-      <c r="C54" s="6"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -8301,7 +8313,7 @@
     <row r="55" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="15"/>
-      <c r="C55" s="6"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -8365,7 +8377,7 @@
     <row r="56" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="15"/>
-      <c r="C56" s="6"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -8429,7 +8441,7 @@
     <row r="57" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="15"/>
-      <c r="C57" s="6"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -8493,7 +8505,7 @@
     <row r="58" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="15"/>
-      <c r="C58" s="6"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -8557,7 +8569,7 @@
     <row r="59" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="15"/>
-      <c r="C59" s="6"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -8621,7 +8633,7 @@
     <row r="60" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="15"/>
-      <c r="C60" s="6"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -8685,7 +8697,7 @@
     <row r="61" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="15"/>
-      <c r="C61" s="6"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -8749,7 +8761,7 @@
     <row r="62" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="15"/>
-      <c r="C62" s="6"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -8813,7 +8825,7 @@
     <row r="63" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="15"/>
-      <c r="C63" s="6"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -8877,7 +8889,7 @@
     <row r="64" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="15"/>
-      <c r="C64" s="6"/>
+      <c r="C64" s="12"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -8941,7 +8953,7 @@
     <row r="65" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="15"/>
-      <c r="C65" s="6"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -9005,7 +9017,7 @@
     <row r="66" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="15"/>
-      <c r="C66" s="6"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -9069,7 +9081,7 @@
     <row r="67" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="15"/>
-      <c r="C67" s="6"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -9133,7 +9145,7 @@
     <row r="68" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="15"/>
-      <c r="C68" s="6"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -9197,7 +9209,7 @@
     <row r="69" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="15"/>
-      <c r="C69" s="6"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -9261,7 +9273,7 @@
     <row r="70" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="15"/>
-      <c r="C70" s="6"/>
+      <c r="C70" s="12"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -9325,7 +9337,7 @@
     <row r="71" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="15"/>
-      <c r="C71" s="6"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -9389,7 +9401,7 @@
     <row r="72" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="15"/>
-      <c r="C72" s="6"/>
+      <c r="C72" s="12"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -9453,7 +9465,7 @@
     <row r="73" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="15"/>
-      <c r="C73" s="6"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -9517,7 +9529,7 @@
     <row r="74" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="15"/>
-      <c r="C74" s="6"/>
+      <c r="C74" s="12"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -9581,7 +9593,7 @@
     <row r="75" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="15"/>
-      <c r="C75" s="6"/>
+      <c r="C75" s="12"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -9645,7 +9657,7 @@
     <row r="76" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="15"/>
-      <c r="C76" s="6"/>
+      <c r="C76" s="12"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -9709,7 +9721,7 @@
     <row r="77" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="15"/>
-      <c r="C77" s="6"/>
+      <c r="C77" s="12"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -9773,7 +9785,7 @@
     <row r="78" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="15"/>
-      <c r="C78" s="6"/>
+      <c r="C78" s="12"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -9837,7 +9849,7 @@
     <row r="79" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="15"/>
-      <c r="C79" s="6"/>
+      <c r="C79" s="12"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -9901,7 +9913,7 @@
     <row r="80" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="15"/>
-      <c r="C80" s="6"/>
+      <c r="C80" s="12"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -9965,7 +9977,7 @@
     <row r="81" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="15"/>
-      <c r="C81" s="6"/>
+      <c r="C81" s="12"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -10029,7 +10041,7 @@
     <row r="82" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="15"/>
-      <c r="C82" s="6"/>
+      <c r="C82" s="12"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -10093,7 +10105,7 @@
     <row r="83" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="15"/>
-      <c r="C83" s="6"/>
+      <c r="C83" s="12"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -10157,7 +10169,7 @@
     <row r="84" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="15"/>
-      <c r="C84" s="6"/>
+      <c r="C84" s="12"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -10221,7 +10233,7 @@
     <row r="85" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="15"/>
-      <c r="C85" s="6"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -10285,7 +10297,7 @@
     <row r="86" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="15"/>
-      <c r="C86" s="6"/>
+      <c r="C86" s="12"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -10349,7 +10361,7 @@
     <row r="87" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="15"/>
-      <c r="C87" s="6"/>
+      <c r="C87" s="12"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -10413,7 +10425,7 @@
     <row r="88" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="15"/>
-      <c r="C88" s="6"/>
+      <c r="C88" s="12"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -10477,7 +10489,7 @@
     <row r="89" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="15"/>
-      <c r="C89" s="6"/>
+      <c r="C89" s="12"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -10541,7 +10553,7 @@
     <row r="90" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="15"/>
-      <c r="C90" s="6"/>
+      <c r="C90" s="12"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -10605,7 +10617,7 @@
     <row r="91" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="15"/>
-      <c r="C91" s="6"/>
+      <c r="C91" s="12"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -10669,7 +10681,7 @@
     <row r="92" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="15"/>
-      <c r="C92" s="6"/>
+      <c r="C92" s="12"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -10733,7 +10745,7 @@
     <row r="93" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="15"/>
-      <c r="C93" s="6"/>
+      <c r="C93" s="12"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -10797,7 +10809,7 @@
     <row r="94" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="15"/>
-      <c r="C94" s="6"/>
+      <c r="C94" s="12"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -10861,7 +10873,7 @@
     <row r="95" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="15"/>
-      <c r="C95" s="6"/>
+      <c r="C95" s="12"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -10925,7 +10937,7 @@
     <row r="96" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="15"/>
-      <c r="C96" s="6"/>
+      <c r="C96" s="12"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -10989,7 +11001,7 @@
     <row r="97" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="15"/>
-      <c r="C97" s="6"/>
+      <c r="C97" s="12"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -11053,7 +11065,7 @@
     <row r="98" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="15"/>
-      <c r="C98" s="6"/>
+      <c r="C98" s="12"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -11117,7 +11129,7 @@
     <row r="99" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="15"/>
-      <c r="C99" s="6"/>
+      <c r="C99" s="12"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -11181,7 +11193,7 @@
     <row r="100" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="15"/>
-      <c r="C100" s="6"/>
+      <c r="C100" s="12"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -11245,7 +11257,7 @@
     <row r="101" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="15"/>
-      <c r="C101" s="6"/>
+      <c r="C101" s="12"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -11309,7 +11321,7 @@
     <row r="102" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="15"/>
-      <c r="C102" s="6"/>
+      <c r="C102" s="12"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -11373,7 +11385,7 @@
     <row r="103" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="15"/>
-      <c r="C103" s="6"/>
+      <c r="C103" s="12"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -11437,7 +11449,7 @@
     <row r="104" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="15"/>
-      <c r="C104" s="6"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -11501,7 +11513,7 @@
     <row r="105" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="15"/>
-      <c r="C105" s="6"/>
+      <c r="C105" s="12"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -11565,7 +11577,7 @@
     <row r="106" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="15"/>
-      <c r="C106" s="6"/>
+      <c r="C106" s="12"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -11629,7 +11641,7 @@
     <row r="107" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="15"/>
-      <c r="C107" s="6"/>
+      <c r="C107" s="12"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -11693,7 +11705,7 @@
     <row r="108" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="15"/>
-      <c r="C108" s="6"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -11757,7 +11769,7 @@
     <row r="109" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="15"/>
-      <c r="C109" s="6"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -11821,7 +11833,7 @@
     <row r="110" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="15"/>
-      <c r="C110" s="6"/>
+      <c r="C110" s="12"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -11885,7 +11897,7 @@
     <row r="111" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="15"/>
-      <c r="C111" s="6"/>
+      <c r="C111" s="12"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
@@ -11949,7 +11961,7 @@
     <row r="112" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="15"/>
-      <c r="C112" s="6"/>
+      <c r="C112" s="12"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -12013,7 +12025,7 @@
     <row r="113" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="15"/>
-      <c r="C113" s="6"/>
+      <c r="C113" s="12"/>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -12077,7 +12089,7 @@
     <row r="114" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="15"/>
-      <c r="C114" s="6"/>
+      <c r="C114" s="12"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -12141,7 +12153,7 @@
     <row r="115" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="15"/>
-      <c r="C115" s="6"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
@@ -12205,7 +12217,7 @@
     <row r="116" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="15"/>
-      <c r="C116" s="6"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -12269,7 +12281,7 @@
     <row r="117" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="15"/>
-      <c r="C117" s="6"/>
+      <c r="C117" s="12"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -12333,7 +12345,7 @@
     <row r="118" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="15"/>
-      <c r="C118" s="6"/>
+      <c r="C118" s="12"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -12397,7 +12409,7 @@
     <row r="119" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="15"/>
-      <c r="C119" s="6"/>
+      <c r="C119" s="12"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -12461,7 +12473,7 @@
     <row r="120" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="15"/>
-      <c r="C120" s="6"/>
+      <c r="C120" s="12"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -12525,7 +12537,7 @@
     <row r="121" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="15"/>
-      <c r="C121" s="6"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -12589,7 +12601,7 @@
     <row r="122" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="15"/>
-      <c r="C122" s="6"/>
+      <c r="C122" s="12"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -12653,7 +12665,7 @@
     <row r="123" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="15"/>
-      <c r="C123" s="6"/>
+      <c r="C123" s="12"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -12717,7 +12729,7 @@
     <row r="124" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="15"/>
-      <c r="C124" s="6"/>
+      <c r="C124" s="12"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -12781,7 +12793,7 @@
     <row r="125" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="15"/>
-      <c r="C125" s="6"/>
+      <c r="C125" s="12"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
@@ -12845,7 +12857,7 @@
     <row r="126" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="15"/>
-      <c r="C126" s="6"/>
+      <c r="C126" s="12"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
@@ -12909,7 +12921,7 @@
     <row r="127" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="15"/>
-      <c r="C127" s="6"/>
+      <c r="C127" s="12"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -12973,7 +12985,7 @@
     <row r="128" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="15"/>
-      <c r="C128" s="6"/>
+      <c r="C128" s="12"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -13037,7 +13049,7 @@
     <row r="129" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="15"/>
-      <c r="C129" s="6"/>
+      <c r="C129" s="12"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -13101,7 +13113,7 @@
     <row r="130" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="15"/>
-      <c r="C130" s="6"/>
+      <c r="C130" s="12"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -13165,7 +13177,7 @@
     <row r="131" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="15"/>
-      <c r="C131" s="6"/>
+      <c r="C131" s="12"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -13229,7 +13241,7 @@
     <row r="132" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="15"/>
-      <c r="C132" s="6"/>
+      <c r="C132" s="12"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -13293,7 +13305,7 @@
     <row r="133" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="15"/>
-      <c r="C133" s="6"/>
+      <c r="C133" s="12"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
@@ -13357,7 +13369,7 @@
     <row r="134" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="15"/>
-      <c r="C134" s="6"/>
+      <c r="C134" s="12"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -13421,7 +13433,7 @@
     <row r="135" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="15"/>
-      <c r="C135" s="6"/>
+      <c r="C135" s="12"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -13485,7 +13497,7 @@
     <row r="136" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="15"/>
-      <c r="C136" s="6"/>
+      <c r="C136" s="12"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -13549,7 +13561,7 @@
     <row r="137" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="15"/>
-      <c r="C137" s="6"/>
+      <c r="C137" s="12"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
@@ -13613,7 +13625,7 @@
     <row r="138" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="15"/>
-      <c r="C138" s="6"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -13677,7 +13689,7 @@
     <row r="139" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="15"/>
-      <c r="C139" s="6"/>
+      <c r="C139" s="12"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
@@ -13741,7 +13753,7 @@
     <row r="140" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="15"/>
-      <c r="C140" s="6"/>
+      <c r="C140" s="12"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
@@ -13805,7 +13817,7 @@
     <row r="141" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="15"/>
-      <c r="C141" s="6"/>
+      <c r="C141" s="12"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -13869,7 +13881,7 @@
     <row r="142" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="15"/>
-      <c r="C142" s="6"/>
+      <c r="C142" s="12"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -13933,7 +13945,7 @@
     <row r="143" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="15"/>
-      <c r="C143" s="6"/>
+      <c r="C143" s="12"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
@@ -13997,7 +14009,7 @@
     <row r="144" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="15"/>
-      <c r="C144" s="6"/>
+      <c r="C144" s="12"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
@@ -14061,7 +14073,7 @@
     <row r="145" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="15"/>
-      <c r="C145" s="6"/>
+      <c r="C145" s="12"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -14125,7 +14137,7 @@
     <row r="146" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="15"/>
-      <c r="C146" s="6"/>
+      <c r="C146" s="12"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
@@ -14189,7 +14201,7 @@
     <row r="147" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="15"/>
-      <c r="C147" s="6"/>
+      <c r="C147" s="12"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
@@ -14253,7 +14265,7 @@
     <row r="148" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="15"/>
-      <c r="C148" s="6"/>
+      <c r="C148" s="12"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
@@ -14317,7 +14329,7 @@
     <row r="149" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="15"/>
-      <c r="C149" s="6"/>
+      <c r="C149" s="12"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
@@ -14381,7 +14393,7 @@
     <row r="150" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="15"/>
-      <c r="C150" s="6"/>
+      <c r="C150" s="12"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
@@ -14445,7 +14457,7 @@
     <row r="151" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="15"/>
-      <c r="C151" s="6"/>
+      <c r="C151" s="12"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -14509,7 +14521,7 @@
     <row r="152" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="15"/>
-      <c r="C152" s="6"/>
+      <c r="C152" s="12"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
@@ -14573,7 +14585,7 @@
     <row r="153" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="15"/>
-      <c r="C153" s="6"/>
+      <c r="C153" s="12"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -14637,7 +14649,7 @@
     <row r="154" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="15"/>
-      <c r="C154" s="6"/>
+      <c r="C154" s="12"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -14701,7 +14713,7 @@
     <row r="155" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="15"/>
-      <c r="C155" s="6"/>
+      <c r="C155" s="12"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -14765,7 +14777,7 @@
     <row r="156" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="15"/>
-      <c r="C156" s="6"/>
+      <c r="C156" s="12"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -14829,7 +14841,7 @@
     <row r="157" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="15"/>
-      <c r="C157" s="6"/>
+      <c r="C157" s="12"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
@@ -14893,7 +14905,7 @@
     <row r="158" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="15"/>
-      <c r="C158" s="6"/>
+      <c r="C158" s="12"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
@@ -14957,7 +14969,7 @@
     <row r="159" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="15"/>
-      <c r="C159" s="6"/>
+      <c r="C159" s="12"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
@@ -15021,7 +15033,7 @@
     <row r="160" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="15"/>
-      <c r="C160" s="6"/>
+      <c r="C160" s="12"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
@@ -15085,7 +15097,7 @@
     <row r="161" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="15"/>
-      <c r="C161" s="6"/>
+      <c r="C161" s="12"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
@@ -15149,7 +15161,7 @@
     <row r="162" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="15"/>
-      <c r="C162" s="6"/>
+      <c r="C162" s="12"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
@@ -15213,7 +15225,7 @@
     <row r="163" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="15"/>
-      <c r="C163" s="6"/>
+      <c r="C163" s="12"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
@@ -15277,7 +15289,7 @@
     <row r="164" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="15"/>
-      <c r="C164" s="6"/>
+      <c r="C164" s="12"/>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
@@ -15341,7 +15353,7 @@
     <row r="165" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="15"/>
-      <c r="C165" s="6"/>
+      <c r="C165" s="12"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -15405,7 +15417,7 @@
     <row r="166" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="15"/>
-      <c r="C166" s="6"/>
+      <c r="C166" s="12"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -15469,7 +15481,7 @@
     <row r="167" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="15"/>
-      <c r="C167" s="6"/>
+      <c r="C167" s="12"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
@@ -15533,7 +15545,7 @@
     <row r="168" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="15"/>
-      <c r="C168" s="6"/>
+      <c r="C168" s="12"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -15597,7 +15609,7 @@
     <row r="169" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="15"/>
-      <c r="C169" s="6"/>
+      <c r="C169" s="12"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -15661,7 +15673,7 @@
     <row r="170" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="15"/>
-      <c r="C170" s="6"/>
+      <c r="C170" s="12"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -15725,7 +15737,7 @@
     <row r="171" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="15"/>
-      <c r="C171" s="6"/>
+      <c r="C171" s="12"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -15789,7 +15801,7 @@
     <row r="172" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="15"/>
-      <c r="C172" s="6"/>
+      <c r="C172" s="12"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -15853,7 +15865,7 @@
     <row r="173" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="15"/>
-      <c r="C173" s="6"/>
+      <c r="C173" s="12"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -15917,7 +15929,7 @@
     <row r="174" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="15"/>
-      <c r="C174" s="6"/>
+      <c r="C174" s="12"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -15981,7 +15993,7 @@
     <row r="175" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="15"/>
-      <c r="C175" s="6"/>
+      <c r="C175" s="12"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -16045,7 +16057,7 @@
     <row r="176" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="15"/>
-      <c r="C176" s="6"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -16109,7 +16121,7 @@
     <row r="177" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="15"/>
-      <c r="C177" s="6"/>
+      <c r="C177" s="12"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
@@ -16173,7 +16185,7 @@
     <row r="178" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="15"/>
-      <c r="C178" s="6"/>
+      <c r="C178" s="12"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
@@ -16237,7 +16249,7 @@
     <row r="179" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="15"/>
-      <c r="C179" s="6"/>
+      <c r="C179" s="12"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
@@ -16301,7 +16313,7 @@
     <row r="180" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="15"/>
-      <c r="C180" s="6"/>
+      <c r="C180" s="12"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
@@ -16365,7 +16377,7 @@
     <row r="181" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="15"/>
-      <c r="C181" s="6"/>
+      <c r="C181" s="12"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
@@ -16429,7 +16441,7 @@
     <row r="182" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="15"/>
-      <c r="C182" s="6"/>
+      <c r="C182" s="12"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
@@ -16493,7 +16505,7 @@
     <row r="183" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="15"/>
-      <c r="C183" s="6"/>
+      <c r="C183" s="12"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
@@ -16557,7 +16569,7 @@
     <row r="184" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="15"/>
-      <c r="C184" s="6"/>
+      <c r="C184" s="12"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
@@ -16621,7 +16633,7 @@
     <row r="185" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="15"/>
-      <c r="C185" s="6"/>
+      <c r="C185" s="12"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
@@ -16685,7 +16697,7 @@
     <row r="186" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="15"/>
-      <c r="C186" s="6"/>
+      <c r="C186" s="12"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
@@ -16749,7 +16761,7 @@
     <row r="187" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="15"/>
-      <c r="C187" s="6"/>
+      <c r="C187" s="12"/>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
@@ -16813,7 +16825,7 @@
     <row r="188" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="15"/>
-      <c r="C188" s="6"/>
+      <c r="C188" s="12"/>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
@@ -16877,7 +16889,7 @@
     <row r="189" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="15"/>
-      <c r="C189" s="6"/>
+      <c r="C189" s="12"/>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
@@ -16941,7 +16953,7 @@
     <row r="190" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="15"/>
-      <c r="C190" s="6"/>
+      <c r="C190" s="12"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
@@ -17005,7 +17017,7 @@
     <row r="191" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="15"/>
-      <c r="C191" s="6"/>
+      <c r="C191" s="12"/>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
@@ -17069,7 +17081,7 @@
     <row r="192" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="15"/>
-      <c r="C192" s="6"/>
+      <c r="C192" s="12"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
@@ -17133,7 +17145,7 @@
     <row r="193" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="15"/>
-      <c r="C193" s="6"/>
+      <c r="C193" s="12"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
@@ -17197,7 +17209,7 @@
     <row r="194" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="15"/>
-      <c r="C194" s="6"/>
+      <c r="C194" s="12"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
@@ -17261,7 +17273,7 @@
     <row r="195" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="15"/>
-      <c r="C195" s="6"/>
+      <c r="C195" s="12"/>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
@@ -17325,7 +17337,7 @@
     <row r="196" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="15"/>
-      <c r="C196" s="6"/>
+      <c r="C196" s="12"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
@@ -17389,7 +17401,7 @@
     <row r="197" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="15"/>
-      <c r="C197" s="6"/>
+      <c r="C197" s="12"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
@@ -17453,7 +17465,7 @@
     <row r="198" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="15"/>
-      <c r="C198" s="6"/>
+      <c r="C198" s="12"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -17517,7 +17529,7 @@
     <row r="199" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="15"/>
-      <c r="C199" s="6"/>
+      <c r="C199" s="12"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
@@ -17581,7 +17593,7 @@
     <row r="200" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="15"/>
-      <c r="C200" s="6"/>
+      <c r="C200" s="12"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -17645,7 +17657,7 @@
     <row r="201" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="15"/>
-      <c r="C201" s="6"/>
+      <c r="C201" s="12"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
@@ -17709,7 +17721,7 @@
     <row r="202" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="15"/>
-      <c r="C202" s="6"/>
+      <c r="C202" s="12"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
@@ -17773,7 +17785,7 @@
     <row r="203" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="15"/>
-      <c r="C203" s="6"/>
+      <c r="C203" s="12"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -17837,7 +17849,7 @@
     <row r="204" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="15"/>
-      <c r="C204" s="6"/>
+      <c r="C204" s="12"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
@@ -17901,7 +17913,7 @@
     <row r="205" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="15"/>
-      <c r="C205" s="6"/>
+      <c r="C205" s="12"/>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
@@ -17965,7 +17977,7 @@
     <row r="206" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="15"/>
-      <c r="C206" s="6"/>
+      <c r="C206" s="12"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
@@ -18029,7 +18041,7 @@
     <row r="207" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="15"/>
-      <c r="C207" s="6"/>
+      <c r="C207" s="12"/>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -18093,7 +18105,7 @@
     <row r="208" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="15"/>
-      <c r="C208" s="6"/>
+      <c r="C208" s="12"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
@@ -18157,7 +18169,7 @@
     <row r="209" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="15"/>
-      <c r="C209" s="6"/>
+      <c r="C209" s="12"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -18221,7 +18233,7 @@
     <row r="210" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="15"/>
-      <c r="C210" s="6"/>
+      <c r="C210" s="12"/>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -18285,7 +18297,7 @@
     <row r="211" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="15"/>
-      <c r="C211" s="6"/>
+      <c r="C211" s="12"/>
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
@@ -18349,7 +18361,7 @@
     <row r="212" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="15"/>
-      <c r="C212" s="6"/>
+      <c r="C212" s="12"/>
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
@@ -18413,7 +18425,7 @@
     <row r="213" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="15"/>
-      <c r="C213" s="6"/>
+      <c r="C213" s="12"/>
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
@@ -18477,7 +18489,7 @@
     <row r="214" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="15"/>
-      <c r="C214" s="6"/>
+      <c r="C214" s="12"/>
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
@@ -18541,7 +18553,7 @@
     <row r="215" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="15"/>
-      <c r="C215" s="6"/>
+      <c r="C215" s="12"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
@@ -18605,7 +18617,7 @@
     <row r="216" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="15"/>
-      <c r="C216" s="6"/>
+      <c r="C216" s="12"/>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
@@ -18669,7 +18681,7 @@
     <row r="217" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="15"/>
-      <c r="C217" s="6"/>
+      <c r="C217" s="12"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
@@ -18733,7 +18745,7 @@
     <row r="218" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="15"/>
-      <c r="C218" s="6"/>
+      <c r="C218" s="12"/>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
@@ -18797,7 +18809,7 @@
     <row r="219" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="15"/>
-      <c r="C219" s="6"/>
+      <c r="C219" s="12"/>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -18861,7 +18873,7 @@
     <row r="220" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="15"/>
-      <c r="C220" s="6"/>
+      <c r="C220" s="12"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
@@ -18925,7 +18937,7 @@
     <row r="221" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="15"/>
-      <c r="C221" s="6"/>
+      <c r="C221" s="12"/>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
@@ -18989,7 +19001,7 @@
     <row r="222" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="15"/>
-      <c r="C222" s="6"/>
+      <c r="C222" s="12"/>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
@@ -19053,7 +19065,7 @@
     <row r="223" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="15"/>
-      <c r="C223" s="6"/>
+      <c r="C223" s="12"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
@@ -19117,7 +19129,7 @@
     <row r="224" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="15"/>
-      <c r="C224" s="6"/>
+      <c r="C224" s="12"/>
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
@@ -19181,7 +19193,7 @@
     <row r="225" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="15"/>
-      <c r="C225" s="6"/>
+      <c r="C225" s="12"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
@@ -19245,7 +19257,7 @@
     <row r="226" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="15"/>
-      <c r="C226" s="6"/>
+      <c r="C226" s="12"/>
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
@@ -19309,7 +19321,7 @@
     <row r="227" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="15"/>
-      <c r="C227" s="6"/>
+      <c r="C227" s="12"/>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
@@ -19373,7 +19385,7 @@
     <row r="228" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="15"/>
-      <c r="C228" s="6"/>
+      <c r="C228" s="12"/>
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
@@ -19437,7 +19449,7 @@
     <row r="229" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="15"/>
-      <c r="C229" s="6"/>
+      <c r="C229" s="12"/>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
@@ -19501,7 +19513,7 @@
     <row r="230" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="15"/>
-      <c r="C230" s="6"/>
+      <c r="C230" s="12"/>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
@@ -19565,7 +19577,7 @@
     <row r="231" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="15"/>
-      <c r="C231" s="6"/>
+      <c r="C231" s="12"/>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
@@ -19629,7 +19641,7 @@
     <row r="232" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="15"/>
-      <c r="C232" s="6"/>
+      <c r="C232" s="12"/>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
@@ -19693,7 +19705,7 @@
     <row r="233" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="15"/>
-      <c r="C233" s="6"/>
+      <c r="C233" s="12"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
@@ -19757,7 +19769,7 @@
     <row r="234" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="15"/>
-      <c r="C234" s="6"/>
+      <c r="C234" s="12"/>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
@@ -19821,7 +19833,7 @@
     <row r="235" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="15"/>
-      <c r="C235" s="6"/>
+      <c r="C235" s="12"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
@@ -19885,7 +19897,7 @@
     <row r="236" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="15"/>
-      <c r="C236" s="6"/>
+      <c r="C236" s="12"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
@@ -19949,7 +19961,7 @@
     <row r="237" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="15"/>
-      <c r="C237" s="6"/>
+      <c r="C237" s="12"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
@@ -20013,7 +20025,7 @@
     <row r="238" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="15"/>
-      <c r="C238" s="6"/>
+      <c r="C238" s="12"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
@@ -20077,7 +20089,7 @@
     <row r="239" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="15"/>
-      <c r="C239" s="6"/>
+      <c r="C239" s="12"/>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
@@ -20141,7 +20153,7 @@
     <row r="240" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="15"/>
-      <c r="C240" s="6"/>
+      <c r="C240" s="12"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
@@ -20205,7 +20217,7 @@
     <row r="241" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="15"/>
-      <c r="C241" s="6"/>
+      <c r="C241" s="12"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
@@ -20269,7 +20281,7 @@
     <row r="242" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="15"/>
-      <c r="C242" s="6"/>
+      <c r="C242" s="12"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
@@ -20333,7 +20345,7 @@
     <row r="243" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="15"/>
-      <c r="C243" s="6"/>
+      <c r="C243" s="12"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
@@ -20397,7 +20409,7 @@
     <row r="244" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="15"/>
-      <c r="C244" s="6"/>
+      <c r="C244" s="12"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
@@ -20461,7 +20473,7 @@
     <row r="245" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="15"/>
-      <c r="C245" s="6"/>
+      <c r="C245" s="12"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
@@ -20525,7 +20537,7 @@
     <row r="246" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="15"/>
-      <c r="C246" s="6"/>
+      <c r="C246" s="12"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
@@ -20589,7 +20601,7 @@
     <row r="247" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="15"/>
-      <c r="C247" s="6"/>
+      <c r="C247" s="12"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
@@ -20653,7 +20665,7 @@
     <row r="248" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="15"/>
-      <c r="C248" s="6"/>
+      <c r="C248" s="12"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
@@ -20717,7 +20729,7 @@
     <row r="249" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="15"/>
-      <c r="C249" s="6"/>
+      <c r="C249" s="12"/>
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
@@ -20781,7 +20793,7 @@
     <row r="250" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="15"/>
-      <c r="C250" s="6"/>
+      <c r="C250" s="12"/>
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
@@ -20845,7 +20857,7 @@
     <row r="251" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="15"/>
-      <c r="C251" s="6"/>
+      <c r="C251" s="12"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
@@ -20909,7 +20921,7 @@
     <row r="252" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="15"/>
-      <c r="C252" s="6"/>
+      <c r="C252" s="12"/>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
@@ -20973,7 +20985,7 @@
     <row r="253" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="15"/>
-      <c r="C253" s="6"/>
+      <c r="C253" s="12"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
@@ -21037,7 +21049,7 @@
     <row r="254" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="15"/>
-      <c r="C254" s="6"/>
+      <c r="C254" s="12"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
@@ -21101,7 +21113,7 @@
     <row r="255" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="15"/>
-      <c r="C255" s="6"/>
+      <c r="C255" s="12"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
@@ -21165,7 +21177,7 @@
     <row r="256" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="15"/>
-      <c r="C256" s="6"/>
+      <c r="C256" s="12"/>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
@@ -21229,7 +21241,7 @@
     <row r="257" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="15"/>
-      <c r="C257" s="6"/>
+      <c r="C257" s="12"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
@@ -21293,7 +21305,7 @@
     <row r="258" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="15"/>
-      <c r="C258" s="6"/>
+      <c r="C258" s="12"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
@@ -21357,7 +21369,7 @@
     <row r="259" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="15"/>
-      <c r="C259" s="6"/>
+      <c r="C259" s="12"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
@@ -21421,7 +21433,7 @@
     <row r="260" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="15"/>
-      <c r="C260" s="6"/>
+      <c r="C260" s="12"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
@@ -21485,7 +21497,7 @@
     <row r="261" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="15"/>
-      <c r="C261" s="6"/>
+      <c r="C261" s="12"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
@@ -21549,7 +21561,7 @@
     <row r="262" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="15"/>
-      <c r="C262" s="6"/>
+      <c r="C262" s="12"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
@@ -21613,7 +21625,7 @@
     <row r="263" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="15"/>
-      <c r="C263" s="6"/>
+      <c r="C263" s="12"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
@@ -21677,7 +21689,7 @@
     <row r="264" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="15"/>
-      <c r="C264" s="6"/>
+      <c r="C264" s="12"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
@@ -21741,7 +21753,7 @@
     <row r="265" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="15"/>
-      <c r="C265" s="6"/>
+      <c r="C265" s="12"/>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
@@ -21805,7 +21817,7 @@
     <row r="266" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="15"/>
-      <c r="C266" s="6"/>
+      <c r="C266" s="12"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
@@ -21869,7 +21881,7 @@
     <row r="267" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="15"/>
-      <c r="C267" s="6"/>
+      <c r="C267" s="12"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
@@ -21933,7 +21945,7 @@
     <row r="268" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="15"/>
-      <c r="C268" s="6"/>
+      <c r="C268" s="12"/>
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
@@ -21997,7 +22009,7 @@
     <row r="269" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="15"/>
-      <c r="C269" s="6"/>
+      <c r="C269" s="12"/>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
@@ -22061,7 +22073,7 @@
     <row r="270" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="15"/>
-      <c r="C270" s="6"/>
+      <c r="C270" s="12"/>
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
@@ -22125,7 +22137,7 @@
     <row r="271" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="15"/>
-      <c r="C271" s="6"/>
+      <c r="C271" s="12"/>
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
@@ -22189,7 +22201,7 @@
     <row r="272" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="15"/>
-      <c r="C272" s="6"/>
+      <c r="C272" s="12"/>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
@@ -22253,7 +22265,7 @@
     <row r="273" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="15"/>
-      <c r="C273" s="6"/>
+      <c r="C273" s="12"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
@@ -22317,7 +22329,7 @@
     <row r="274" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="15"/>
-      <c r="C274" s="6"/>
+      <c r="C274" s="12"/>
       <c r="D274" s="6"/>
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
@@ -22381,7 +22393,7 @@
     <row r="275" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="15"/>
-      <c r="C275" s="6"/>
+      <c r="C275" s="12"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
@@ -22445,7 +22457,7 @@
     <row r="276" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="15"/>
-      <c r="C276" s="6"/>
+      <c r="C276" s="12"/>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
@@ -22509,7 +22521,7 @@
     <row r="277" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="15"/>
-      <c r="C277" s="6"/>
+      <c r="C277" s="12"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
@@ -22573,7 +22585,7 @@
     <row r="278" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="15"/>
-      <c r="C278" s="6"/>
+      <c r="C278" s="12"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
@@ -22637,7 +22649,7 @@
     <row r="279" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="15"/>
-      <c r="C279" s="6"/>
+      <c r="C279" s="12"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
@@ -22701,7 +22713,7 @@
     <row r="280" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="15"/>
-      <c r="C280" s="6"/>
+      <c r="C280" s="12"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
@@ -22765,7 +22777,7 @@
     <row r="281" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="15"/>
-      <c r="C281" s="6"/>
+      <c r="C281" s="12"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
@@ -22829,7 +22841,7 @@
     <row r="282" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="15"/>
-      <c r="C282" s="6"/>
+      <c r="C282" s="12"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
@@ -22893,7 +22905,7 @@
     <row r="283" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="15"/>
-      <c r="C283" s="6"/>
+      <c r="C283" s="12"/>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
@@ -22957,7 +22969,7 @@
     <row r="284" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="15"/>
-      <c r="C284" s="6"/>
+      <c r="C284" s="12"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
@@ -23021,7 +23033,7 @@
     <row r="285" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="15"/>
-      <c r="C285" s="6"/>
+      <c r="C285" s="12"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
@@ -23085,7 +23097,7 @@
     <row r="286" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="15"/>
-      <c r="C286" s="6"/>
+      <c r="C286" s="12"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
@@ -23149,7 +23161,7 @@
     <row r="287" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="15"/>
-      <c r="C287" s="6"/>
+      <c r="C287" s="12"/>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
@@ -23213,7 +23225,7 @@
     <row r="288" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="15"/>
-      <c r="C288" s="6"/>
+      <c r="C288" s="12"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
@@ -23277,7 +23289,7 @@
     <row r="289" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="15"/>
-      <c r="C289" s="6"/>
+      <c r="C289" s="12"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
@@ -23341,7 +23353,7 @@
     <row r="290" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="15"/>
-      <c r="C290" s="6"/>
+      <c r="C290" s="12"/>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
@@ -23405,7 +23417,7 @@
     <row r="291" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="15"/>
-      <c r="C291" s="6"/>
+      <c r="C291" s="12"/>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
@@ -23469,7 +23481,7 @@
     <row r="292" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="15"/>
-      <c r="C292" s="6"/>
+      <c r="C292" s="12"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
@@ -23533,7 +23545,7 @@
     <row r="293" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="15"/>
-      <c r="C293" s="6"/>
+      <c r="C293" s="12"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
@@ -23597,7 +23609,7 @@
     <row r="294" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="15"/>
-      <c r="C294" s="6"/>
+      <c r="C294" s="12"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
@@ -23661,7 +23673,7 @@
     <row r="295" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="15"/>
-      <c r="C295" s="6"/>
+      <c r="C295" s="12"/>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
@@ -23725,7 +23737,7 @@
     <row r="296" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="15"/>
-      <c r="C296" s="6"/>
+      <c r="C296" s="12"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
@@ -23789,7 +23801,7 @@
     <row r="297" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="15"/>
-      <c r="C297" s="6"/>
+      <c r="C297" s="12"/>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
@@ -23853,7 +23865,7 @@
     <row r="298" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="15"/>
-      <c r="C298" s="6"/>
+      <c r="C298" s="12"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
@@ -23917,7 +23929,7 @@
     <row r="299" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="15"/>
-      <c r="C299" s="6"/>
+      <c r="C299" s="12"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
@@ -23981,7 +23993,7 @@
     <row r="300" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="15"/>
-      <c r="C300" s="6"/>
+      <c r="C300" s="12"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
@@ -24045,7 +24057,7 @@
     <row r="301" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="15"/>
-      <c r="C301" s="6"/>
+      <c r="C301" s="12"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
@@ -24109,7 +24121,7 @@
     <row r="302" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="15"/>
-      <c r="C302" s="6"/>
+      <c r="C302" s="12"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
@@ -24173,7 +24185,7 @@
     <row r="303" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="15"/>
-      <c r="C303" s="6"/>
+      <c r="C303" s="12"/>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
@@ -24237,7 +24249,7 @@
     <row r="304" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="15"/>
-      <c r="C304" s="6"/>
+      <c r="C304" s="12"/>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
@@ -24301,7 +24313,7 @@
     <row r="305" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="15"/>
-      <c r="C305" s="6"/>
+      <c r="C305" s="12"/>
       <c r="D305" s="6"/>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
@@ -24365,7 +24377,7 @@
     <row r="306" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="15"/>
-      <c r="C306" s="6"/>
+      <c r="C306" s="12"/>
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
@@ -24429,7 +24441,7 @@
     <row r="307" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="15"/>
-      <c r="C307" s="6"/>
+      <c r="C307" s="12"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
@@ -24493,7 +24505,7 @@
     <row r="308" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="15"/>
-      <c r="C308" s="6"/>
+      <c r="C308" s="12"/>
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
@@ -24557,7 +24569,7 @@
     <row r="309" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="15"/>
-      <c r="C309" s="6"/>
+      <c r="C309" s="12"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
@@ -24621,7 +24633,7 @@
     <row r="310" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="15"/>
-      <c r="C310" s="6"/>
+      <c r="C310" s="12"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
@@ -24685,7 +24697,7 @@
     <row r="311" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="15"/>
-      <c r="C311" s="6"/>
+      <c r="C311" s="12"/>
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
@@ -24749,7 +24761,7 @@
     <row r="312" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="15"/>
-      <c r="C312" s="6"/>
+      <c r="C312" s="12"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
@@ -24813,7 +24825,7 @@
     <row r="313" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="15"/>
-      <c r="C313" s="6"/>
+      <c r="C313" s="12"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
@@ -24877,7 +24889,7 @@
     <row r="314" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="15"/>
-      <c r="C314" s="6"/>
+      <c r="C314" s="12"/>
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
@@ -24941,7 +24953,7 @@
     <row r="315" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="15"/>
-      <c r="C315" s="6"/>
+      <c r="C315" s="12"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
@@ -25005,7 +25017,7 @@
     <row r="316" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="15"/>
-      <c r="C316" s="6"/>
+      <c r="C316" s="12"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
@@ -25069,7 +25081,7 @@
     <row r="317" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="15"/>
-      <c r="C317" s="6"/>
+      <c r="C317" s="12"/>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
@@ -25133,7 +25145,7 @@
     <row r="318" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="15"/>
-      <c r="C318" s="6"/>
+      <c r="C318" s="12"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
@@ -25197,7 +25209,7 @@
     <row r="319" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="15"/>
-      <c r="C319" s="6"/>
+      <c r="C319" s="12"/>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
@@ -25261,7 +25273,7 @@
     <row r="320" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="15"/>
-      <c r="C320" s="6"/>
+      <c r="C320" s="12"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
@@ -25325,7 +25337,7 @@
     <row r="321" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="15"/>
-      <c r="C321" s="6"/>
+      <c r="C321" s="12"/>
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
@@ -25389,7 +25401,7 @@
     <row r="322" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="15"/>
-      <c r="C322" s="6"/>
+      <c r="C322" s="12"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
@@ -25453,7 +25465,7 @@
     <row r="323" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="15"/>
-      <c r="C323" s="6"/>
+      <c r="C323" s="12"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
@@ -25517,7 +25529,7 @@
     <row r="324" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="15"/>
-      <c r="C324" s="6"/>
+      <c r="C324" s="12"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
@@ -25581,7 +25593,7 @@
     <row r="325" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="15"/>
-      <c r="C325" s="6"/>
+      <c r="C325" s="12"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
@@ -25645,7 +25657,7 @@
     <row r="326" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="15"/>
-      <c r="C326" s="6"/>
+      <c r="C326" s="12"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
@@ -25709,7 +25721,7 @@
     <row r="327" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="15"/>
-      <c r="C327" s="6"/>
+      <c r="C327" s="12"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
@@ -25773,7 +25785,7 @@
     <row r="328" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="15"/>
-      <c r="C328" s="6"/>
+      <c r="C328" s="12"/>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
@@ -25837,7 +25849,7 @@
     <row r="329" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="15"/>
-      <c r="C329" s="6"/>
+      <c r="C329" s="12"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
@@ -25901,7 +25913,7 @@
     <row r="330" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="15"/>
-      <c r="C330" s="6"/>
+      <c r="C330" s="12"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
@@ -25965,7 +25977,7 @@
     <row r="331" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="15"/>
-      <c r="C331" s="6"/>
+      <c r="C331" s="12"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
@@ -26029,7 +26041,7 @@
     <row r="332" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="15"/>
-      <c r="C332" s="6"/>
+      <c r="C332" s="12"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
@@ -26093,7 +26105,7 @@
     <row r="333" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="15"/>
-      <c r="C333" s="6"/>
+      <c r="C333" s="12"/>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
@@ -26157,7 +26169,7 @@
     <row r="334" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="15"/>
-      <c r="C334" s="6"/>
+      <c r="C334" s="12"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
@@ -26221,7 +26233,7 @@
     <row r="335" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="15"/>
-      <c r="C335" s="6"/>
+      <c r="C335" s="12"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
@@ -26285,7 +26297,7 @@
     <row r="336" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="15"/>
-      <c r="C336" s="6"/>
+      <c r="C336" s="12"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
@@ -26349,7 +26361,7 @@
     <row r="337" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="15"/>
-      <c r="C337" s="6"/>
+      <c r="C337" s="12"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
@@ -26413,7 +26425,7 @@
     <row r="338" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="15"/>
-      <c r="C338" s="6"/>
+      <c r="C338" s="12"/>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
@@ -26477,7 +26489,7 @@
     <row r="339" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="15"/>
-      <c r="C339" s="6"/>
+      <c r="C339" s="12"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
@@ -26541,7 +26553,7 @@
     <row r="340" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="15"/>
-      <c r="C340" s="6"/>
+      <c r="C340" s="12"/>
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
@@ -26605,7 +26617,7 @@
     <row r="341" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="15"/>
-      <c r="C341" s="6"/>
+      <c r="C341" s="12"/>
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
@@ -26669,7 +26681,7 @@
     <row r="342" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="15"/>
-      <c r="C342" s="6"/>
+      <c r="C342" s="12"/>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
@@ -26733,7 +26745,7 @@
     <row r="343" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="15"/>
-      <c r="C343" s="6"/>
+      <c r="C343" s="12"/>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
@@ -26797,7 +26809,7 @@
     <row r="344" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="15"/>
-      <c r="C344" s="6"/>
+      <c r="C344" s="12"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
@@ -26861,7 +26873,7 @@
     <row r="345" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="15"/>
-      <c r="C345" s="6"/>
+      <c r="C345" s="12"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
@@ -26925,7 +26937,7 @@
     <row r="346" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="15"/>
-      <c r="C346" s="6"/>
+      <c r="C346" s="12"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
@@ -26989,7 +27001,7 @@
     <row r="347" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="15"/>
-      <c r="C347" s="6"/>
+      <c r="C347" s="12"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
@@ -27053,7 +27065,7 @@
     <row r="348" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="15"/>
-      <c r="C348" s="6"/>
+      <c r="C348" s="12"/>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
@@ -27117,7 +27129,7 @@
     <row r="349" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="15"/>
-      <c r="C349" s="6"/>
+      <c r="C349" s="12"/>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
@@ -27181,7 +27193,7 @@
     <row r="350" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="15"/>
-      <c r="C350" s="6"/>
+      <c r="C350" s="12"/>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
@@ -27245,7 +27257,7 @@
     <row r="351" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="15"/>
-      <c r="C351" s="6"/>
+      <c r="C351" s="12"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
@@ -27309,7 +27321,7 @@
     <row r="352" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="15"/>
-      <c r="C352" s="6"/>
+      <c r="C352" s="12"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
@@ -27373,7 +27385,7 @@
     <row r="353" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="15"/>
-      <c r="C353" s="6"/>
+      <c r="C353" s="12"/>
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
@@ -27437,7 +27449,7 @@
     <row r="354" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="15"/>
-      <c r="C354" s="6"/>
+      <c r="C354" s="12"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
@@ -27501,7 +27513,7 @@
     <row r="355" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="15"/>
-      <c r="C355" s="6"/>
+      <c r="C355" s="12"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
@@ -27565,7 +27577,7 @@
     <row r="356" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="15"/>
-      <c r="C356" s="6"/>
+      <c r="C356" s="12"/>
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
@@ -27629,7 +27641,7 @@
     <row r="357" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="15"/>
-      <c r="C357" s="6"/>
+      <c r="C357" s="12"/>
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
@@ -27693,7 +27705,7 @@
     <row r="358" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="15"/>
-      <c r="C358" s="6"/>
+      <c r="C358" s="12"/>
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
@@ -27757,7 +27769,7 @@
     <row r="359" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="15"/>
-      <c r="C359" s="6"/>
+      <c r="C359" s="12"/>
       <c r="D359" s="6"/>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
@@ -27821,7 +27833,7 @@
     <row r="360" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="15"/>
-      <c r="C360" s="6"/>
+      <c r="C360" s="12"/>
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
@@ -27885,7 +27897,7 @@
     <row r="361" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="15"/>
-      <c r="C361" s="6"/>
+      <c r="C361" s="12"/>
       <c r="D361" s="6"/>
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
@@ -27949,7 +27961,7 @@
     <row r="362" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="15"/>
-      <c r="C362" s="6"/>
+      <c r="C362" s="12"/>
       <c r="D362" s="6"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
@@ -28013,7 +28025,7 @@
     <row r="363" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="15"/>
-      <c r="C363" s="6"/>
+      <c r="C363" s="12"/>
       <c r="D363" s="6"/>
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
@@ -28077,7 +28089,7 @@
     <row r="364" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="15"/>
-      <c r="C364" s="6"/>
+      <c r="C364" s="12"/>
       <c r="D364" s="6"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
@@ -28141,7 +28153,7 @@
     <row r="365" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="15"/>
-      <c r="C365" s="6"/>
+      <c r="C365" s="12"/>
       <c r="D365" s="6"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
@@ -28205,7 +28217,7 @@
     <row r="366" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="15"/>
-      <c r="C366" s="6"/>
+      <c r="C366" s="12"/>
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
@@ -28269,7 +28281,7 @@
     <row r="367" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="15"/>
-      <c r="C367" s="6"/>
+      <c r="C367" s="12"/>
       <c r="D367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
@@ -28333,7 +28345,7 @@
     <row r="368" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="15"/>
-      <c r="C368" s="6"/>
+      <c r="C368" s="12"/>
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
@@ -28397,7 +28409,7 @@
     <row r="369" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="15"/>
-      <c r="C369" s="6"/>
+      <c r="C369" s="12"/>
       <c r="D369" s="6"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
@@ -28461,7 +28473,7 @@
     <row r="370" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="15"/>
-      <c r="C370" s="6"/>
+      <c r="C370" s="12"/>
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
@@ -28525,7 +28537,7 @@
     <row r="371" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="15"/>
-      <c r="C371" s="6"/>
+      <c r="C371" s="12"/>
       <c r="D371" s="6"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
@@ -28589,7 +28601,7 @@
     <row r="372" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="15"/>
-      <c r="C372" s="6"/>
+      <c r="C372" s="12"/>
       <c r="D372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
@@ -28653,7 +28665,7 @@
     <row r="373" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="15"/>
-      <c r="C373" s="6"/>
+      <c r="C373" s="12"/>
       <c r="D373" s="6"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
@@ -28717,7 +28729,7 @@
     <row r="374" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="15"/>
-      <c r="C374" s="6"/>
+      <c r="C374" s="12"/>
       <c r="D374" s="6"/>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
@@ -28781,7 +28793,7 @@
     <row r="375" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="15"/>
-      <c r="C375" s="6"/>
+      <c r="C375" s="12"/>
       <c r="D375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
@@ -28845,7 +28857,7 @@
     <row r="376" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="15"/>
-      <c r="C376" s="6"/>
+      <c r="C376" s="12"/>
       <c r="D376" s="6"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
@@ -28909,7 +28921,7 @@
     <row r="377" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="15"/>
-      <c r="C377" s="6"/>
+      <c r="C377" s="12"/>
       <c r="D377" s="6"/>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
@@ -28973,7 +28985,7 @@
     <row r="378" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="15"/>
-      <c r="C378" s="6"/>
+      <c r="C378" s="12"/>
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
@@ -29037,7 +29049,7 @@
     <row r="379" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="15"/>
-      <c r="C379" s="6"/>
+      <c r="C379" s="12"/>
       <c r="D379" s="6"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
@@ -29101,7 +29113,7 @@
     <row r="380" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="15"/>
-      <c r="C380" s="6"/>
+      <c r="C380" s="12"/>
       <c r="D380" s="6"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
@@ -29165,7 +29177,7 @@
     <row r="381" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="15"/>
-      <c r="C381" s="6"/>
+      <c r="C381" s="12"/>
       <c r="D381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
@@ -29229,7 +29241,7 @@
     <row r="382" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="15"/>
-      <c r="C382" s="6"/>
+      <c r="C382" s="12"/>
       <c r="D382" s="6"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
@@ -29293,7 +29305,7 @@
     <row r="383" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="15"/>
-      <c r="C383" s="6"/>
+      <c r="C383" s="12"/>
       <c r="D383" s="6"/>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
@@ -29357,7 +29369,7 @@
     <row r="384" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="15"/>
-      <c r="C384" s="6"/>
+      <c r="C384" s="12"/>
       <c r="D384" s="6"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
@@ -29421,7 +29433,7 @@
     <row r="385" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="15"/>
-      <c r="C385" s="6"/>
+      <c r="C385" s="12"/>
       <c r="D385" s="6"/>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
@@ -29485,7 +29497,7 @@
     <row r="386" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="15"/>
-      <c r="C386" s="6"/>
+      <c r="C386" s="12"/>
       <c r="D386" s="6"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
@@ -29549,7 +29561,7 @@
     <row r="387" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="15"/>
-      <c r="C387" s="6"/>
+      <c r="C387" s="12"/>
       <c r="D387" s="6"/>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
@@ -29613,7 +29625,7 @@
     <row r="388" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="15"/>
-      <c r="C388" s="6"/>
+      <c r="C388" s="12"/>
       <c r="D388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
@@ -29677,7 +29689,7 @@
     <row r="389" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="15"/>
-      <c r="C389" s="6"/>
+      <c r="C389" s="12"/>
       <c r="D389" s="6"/>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
@@ -29741,7 +29753,7 @@
     <row r="390" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="15"/>
-      <c r="C390" s="6"/>
+      <c r="C390" s="12"/>
       <c r="D390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
@@ -29805,7 +29817,7 @@
     <row r="391" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="15"/>
-      <c r="C391" s="6"/>
+      <c r="C391" s="12"/>
       <c r="D391" s="6"/>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
@@ -29869,7 +29881,7 @@
     <row r="392" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="15"/>
-      <c r="C392" s="6"/>
+      <c r="C392" s="12"/>
       <c r="D392" s="6"/>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
@@ -29933,7 +29945,7 @@
     <row r="393" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="15"/>
-      <c r="C393" s="6"/>
+      <c r="C393" s="12"/>
       <c r="D393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
@@ -29997,7 +30009,7 @@
     <row r="394" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="15"/>
-      <c r="C394" s="6"/>
+      <c r="C394" s="12"/>
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
@@ -30061,7 +30073,7 @@
     <row r="395" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="15"/>
-      <c r="C395" s="6"/>
+      <c r="C395" s="12"/>
       <c r="D395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
@@ -30125,7 +30137,7 @@
     <row r="396" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="15"/>
-      <c r="C396" s="6"/>
+      <c r="C396" s="12"/>
       <c r="D396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
@@ -30189,7 +30201,7 @@
     <row r="397" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="15"/>
-      <c r="C397" s="6"/>
+      <c r="C397" s="12"/>
       <c r="D397" s="6"/>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
@@ -30253,7 +30265,7 @@
     <row r="398" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="15"/>
-      <c r="C398" s="6"/>
+      <c r="C398" s="12"/>
       <c r="D398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
@@ -30317,7 +30329,7 @@
     <row r="399" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="15"/>
-      <c r="C399" s="6"/>
+      <c r="C399" s="12"/>
       <c r="D399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
@@ -30381,7 +30393,7 @@
     <row r="400" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="15"/>
-      <c r="C400" s="6"/>
+      <c r="C400" s="12"/>
       <c r="D400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
@@ -30445,7 +30457,7 @@
     <row r="401" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="15"/>
-      <c r="C401" s="6"/>
+      <c r="C401" s="12"/>
       <c r="D401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
@@ -30509,7 +30521,7 @@
     <row r="402" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="15"/>
-      <c r="C402" s="6"/>
+      <c r="C402" s="12"/>
       <c r="D402" s="6"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
@@ -30573,7 +30585,7 @@
     <row r="403" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="15"/>
-      <c r="C403" s="6"/>
+      <c r="C403" s="12"/>
       <c r="D403" s="6"/>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
@@ -30637,7 +30649,7 @@
     <row r="404" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="15"/>
-      <c r="C404" s="6"/>
+      <c r="C404" s="12"/>
       <c r="D404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
@@ -30701,7 +30713,7 @@
     <row r="405" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="15"/>
-      <c r="C405" s="6"/>
+      <c r="C405" s="12"/>
       <c r="D405" s="6"/>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
@@ -30765,7 +30777,7 @@
     <row r="406" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="15"/>
-      <c r="C406" s="6"/>
+      <c r="C406" s="12"/>
       <c r="D406" s="6"/>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
@@ -30829,7 +30841,7 @@
     <row r="407" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="15"/>
-      <c r="C407" s="6"/>
+      <c r="C407" s="12"/>
       <c r="D407" s="6"/>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
@@ -30893,7 +30905,7 @@
     <row r="408" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="15"/>
-      <c r="C408" s="6"/>
+      <c r="C408" s="12"/>
       <c r="D408" s="6"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
@@ -30957,7 +30969,7 @@
     <row r="409" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="15"/>
-      <c r="C409" s="6"/>
+      <c r="C409" s="12"/>
       <c r="D409" s="6"/>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
@@ -31021,7 +31033,7 @@
     <row r="410" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="15"/>
-      <c r="C410" s="6"/>
+      <c r="C410" s="12"/>
       <c r="D410" s="6"/>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
@@ -31085,7 +31097,7 @@
     <row r="411" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="15"/>
-      <c r="C411" s="6"/>
+      <c r="C411" s="12"/>
       <c r="D411" s="6"/>
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
@@ -31149,7 +31161,7 @@
     <row r="412" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="15"/>
-      <c r="C412" s="6"/>
+      <c r="C412" s="12"/>
       <c r="D412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
@@ -31213,7 +31225,7 @@
     <row r="413" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="15"/>
-      <c r="C413" s="6"/>
+      <c r="C413" s="12"/>
       <c r="D413" s="6"/>
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
@@ -31277,7 +31289,7 @@
     <row r="414" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="15"/>
-      <c r="C414" s="6"/>
+      <c r="C414" s="12"/>
       <c r="D414" s="6"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
@@ -31341,7 +31353,7 @@
     <row r="415" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="15"/>
-      <c r="C415" s="6"/>
+      <c r="C415" s="12"/>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
@@ -31405,7 +31417,7 @@
     <row r="416" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="15"/>
-      <c r="C416" s="6"/>
+      <c r="C416" s="12"/>
       <c r="D416" s="6"/>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
@@ -31469,7 +31481,7 @@
     <row r="417" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="15"/>
-      <c r="C417" s="6"/>
+      <c r="C417" s="12"/>
       <c r="D417" s="6"/>
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
@@ -31533,7 +31545,7 @@
     <row r="418" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="15"/>
-      <c r="C418" s="6"/>
+      <c r="C418" s="12"/>
       <c r="D418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
@@ -31597,7 +31609,7 @@
     <row r="419" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="15"/>
-      <c r="C419" s="6"/>
+      <c r="C419" s="12"/>
       <c r="D419" s="6"/>
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
@@ -31661,7 +31673,7 @@
     <row r="420" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="15"/>
-      <c r="C420" s="6"/>
+      <c r="C420" s="12"/>
       <c r="D420" s="6"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
@@ -31725,7 +31737,7 @@
     <row r="421" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="15"/>
-      <c r="C421" s="6"/>
+      <c r="C421" s="12"/>
       <c r="D421" s="6"/>
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
@@ -31789,7 +31801,7 @@
     <row r="422" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="15"/>
-      <c r="C422" s="6"/>
+      <c r="C422" s="12"/>
       <c r="D422" s="6"/>
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
@@ -31853,7 +31865,7 @@
     <row r="423" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="15"/>
-      <c r="C423" s="6"/>
+      <c r="C423" s="12"/>
       <c r="D423" s="6"/>
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
@@ -31917,7 +31929,7 @@
     <row r="424" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="15"/>
-      <c r="C424" s="6"/>
+      <c r="C424" s="12"/>
       <c r="D424" s="6"/>
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
@@ -31981,7 +31993,7 @@
     <row r="425" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="15"/>
-      <c r="C425" s="6"/>
+      <c r="C425" s="12"/>
       <c r="D425" s="6"/>
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
@@ -32045,7 +32057,7 @@
     <row r="426" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="15"/>
-      <c r="C426" s="6"/>
+      <c r="C426" s="12"/>
       <c r="D426" s="6"/>
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
@@ -32109,7 +32121,7 @@
     <row r="427" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="15"/>
-      <c r="C427" s="6"/>
+      <c r="C427" s="12"/>
       <c r="D427" s="6"/>
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
@@ -32173,7 +32185,7 @@
     <row r="428" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="15"/>
-      <c r="C428" s="6"/>
+      <c r="C428" s="12"/>
       <c r="D428" s="6"/>
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
@@ -32237,7 +32249,7 @@
     <row r="429" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="15"/>
-      <c r="C429" s="6"/>
+      <c r="C429" s="12"/>
       <c r="D429" s="6"/>
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
@@ -32301,7 +32313,7 @@
     <row r="430" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="15"/>
-      <c r="C430" s="6"/>
+      <c r="C430" s="12"/>
       <c r="D430" s="6"/>
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
@@ -32365,7 +32377,7 @@
     <row r="431" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="15"/>
-      <c r="C431" s="6"/>
+      <c r="C431" s="12"/>
       <c r="D431" s="6"/>
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
@@ -32429,7 +32441,7 @@
     <row r="432" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="15"/>
-      <c r="C432" s="6"/>
+      <c r="C432" s="12"/>
       <c r="D432" s="6"/>
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
@@ -32493,7 +32505,7 @@
     <row r="433" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="15"/>
-      <c r="C433" s="6"/>
+      <c r="C433" s="12"/>
       <c r="D433" s="6"/>
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
@@ -32557,7 +32569,7 @@
     <row r="434" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="15"/>
-      <c r="C434" s="6"/>
+      <c r="C434" s="12"/>
       <c r="D434" s="6"/>
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
@@ -32621,7 +32633,7 @@
     <row r="435" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="15"/>
-      <c r="C435" s="6"/>
+      <c r="C435" s="12"/>
       <c r="D435" s="6"/>
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
@@ -32685,7 +32697,7 @@
     <row r="436" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="15"/>
-      <c r="C436" s="6"/>
+      <c r="C436" s="12"/>
       <c r="D436" s="6"/>
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
@@ -32749,7 +32761,7 @@
     <row r="437" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="15"/>
-      <c r="C437" s="6"/>
+      <c r="C437" s="12"/>
       <c r="D437" s="6"/>
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
@@ -32813,7 +32825,7 @@
     <row r="438" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="15"/>
-      <c r="C438" s="6"/>
+      <c r="C438" s="12"/>
       <c r="D438" s="6"/>
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
@@ -32877,7 +32889,7 @@
     <row r="439" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="15"/>
-      <c r="C439" s="6"/>
+      <c r="C439" s="12"/>
       <c r="D439" s="6"/>
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
@@ -32941,7 +32953,7 @@
     <row r="440" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="15"/>
-      <c r="C440" s="6"/>
+      <c r="C440" s="12"/>
       <c r="D440" s="6"/>
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
@@ -33005,7 +33017,7 @@
     <row r="441" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="15"/>
-      <c r="C441" s="6"/>
+      <c r="C441" s="12"/>
       <c r="D441" s="6"/>
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
@@ -33069,7 +33081,7 @@
     <row r="442" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="15"/>
-      <c r="C442" s="6"/>
+      <c r="C442" s="12"/>
       <c r="D442" s="6"/>
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
@@ -33133,7 +33145,7 @@
     <row r="443" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="15"/>
-      <c r="C443" s="6"/>
+      <c r="C443" s="12"/>
       <c r="D443" s="6"/>
       <c r="E443" s="6"/>
       <c r="F443" s="6"/>
@@ -33197,7 +33209,7 @@
     <row r="444" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="15"/>
-      <c r="C444" s="6"/>
+      <c r="C444" s="12"/>
       <c r="D444" s="6"/>
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
@@ -33261,7 +33273,7 @@
     <row r="445" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="15"/>
-      <c r="C445" s="6"/>
+      <c r="C445" s="12"/>
       <c r="D445" s="6"/>
       <c r="E445" s="6"/>
       <c r="F445" s="6"/>
@@ -33325,7 +33337,7 @@
     <row r="446" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="15"/>
-      <c r="C446" s="6"/>
+      <c r="C446" s="12"/>
       <c r="D446" s="6"/>
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
@@ -33389,7 +33401,7 @@
     <row r="447" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="15"/>
-      <c r="C447" s="6"/>
+      <c r="C447" s="12"/>
       <c r="D447" s="6"/>
       <c r="E447" s="6"/>
       <c r="F447" s="6"/>
@@ -33453,7 +33465,7 @@
     <row r="448" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="15"/>
-      <c r="C448" s="6"/>
+      <c r="C448" s="12"/>
       <c r="D448" s="6"/>
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
@@ -33517,7 +33529,7 @@
     <row r="449" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="15"/>
-      <c r="C449" s="6"/>
+      <c r="C449" s="12"/>
       <c r="D449" s="6"/>
       <c r="E449" s="6"/>
       <c r="F449" s="6"/>
@@ -33581,7 +33593,7 @@
     <row r="450" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="15"/>
-      <c r="C450" s="6"/>
+      <c r="C450" s="12"/>
       <c r="D450" s="6"/>
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
@@ -33645,7 +33657,7 @@
     <row r="451" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="15"/>
-      <c r="C451" s="6"/>
+      <c r="C451" s="12"/>
       <c r="D451" s="6"/>
       <c r="E451" s="6"/>
       <c r="F451" s="6"/>
@@ -33709,7 +33721,7 @@
     <row r="452" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="15"/>
-      <c r="C452" s="6"/>
+      <c r="C452" s="12"/>
       <c r="D452" s="6"/>
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
@@ -33773,7 +33785,7 @@
     <row r="453" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="15"/>
-      <c r="C453" s="6"/>
+      <c r="C453" s="12"/>
       <c r="D453" s="6"/>
       <c r="E453" s="6"/>
       <c r="F453" s="6"/>
@@ -33837,7 +33849,7 @@
     <row r="454" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="15"/>
-      <c r="C454" s="6"/>
+      <c r="C454" s="12"/>
       <c r="D454" s="6"/>
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
@@ -33901,7 +33913,7 @@
     <row r="455" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="15"/>
-      <c r="C455" s="6"/>
+      <c r="C455" s="12"/>
       <c r="D455" s="6"/>
       <c r="E455" s="6"/>
       <c r="F455" s="6"/>
@@ -33965,7 +33977,7 @@
     <row r="456" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="15"/>
-      <c r="C456" s="6"/>
+      <c r="C456" s="12"/>
       <c r="D456" s="6"/>
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
@@ -34029,7 +34041,7 @@
     <row r="457" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="15"/>
-      <c r="C457" s="6"/>
+      <c r="C457" s="12"/>
       <c r="D457" s="6"/>
       <c r="E457" s="6"/>
       <c r="F457" s="6"/>
@@ -34093,7 +34105,7 @@
     <row r="458" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="15"/>
-      <c r="C458" s="6"/>
+      <c r="C458" s="12"/>
       <c r="D458" s="6"/>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
@@ -34157,7 +34169,7 @@
     <row r="459" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="15"/>
-      <c r="C459" s="6"/>
+      <c r="C459" s="12"/>
       <c r="D459" s="6"/>
       <c r="E459" s="6"/>
       <c r="F459" s="6"/>
@@ -34221,7 +34233,7 @@
     <row r="460" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="15"/>
-      <c r="C460" s="6"/>
+      <c r="C460" s="12"/>
       <c r="D460" s="6"/>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
@@ -34285,7 +34297,7 @@
     <row r="461" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="15"/>
-      <c r="C461" s="6"/>
+      <c r="C461" s="12"/>
       <c r="D461" s="6"/>
       <c r="E461" s="6"/>
       <c r="F461" s="6"/>
@@ -34349,7 +34361,7 @@
     <row r="462" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="15"/>
-      <c r="C462" s="6"/>
+      <c r="C462" s="12"/>
       <c r="D462" s="6"/>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
@@ -34413,7 +34425,7 @@
     <row r="463" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="15"/>
-      <c r="C463" s="6"/>
+      <c r="C463" s="12"/>
       <c r="D463" s="6"/>
       <c r="E463" s="6"/>
       <c r="F463" s="6"/>
@@ -34477,7 +34489,7 @@
     <row r="464" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="15"/>
-      <c r="C464" s="6"/>
+      <c r="C464" s="12"/>
       <c r="D464" s="6"/>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
@@ -34541,7 +34553,7 @@
     <row r="465" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="15"/>
-      <c r="C465" s="6"/>
+      <c r="C465" s="12"/>
       <c r="D465" s="6"/>
       <c r="E465" s="6"/>
       <c r="F465" s="6"/>
@@ -34605,7 +34617,7 @@
     <row r="466" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="15"/>
-      <c r="C466" s="6"/>
+      <c r="C466" s="12"/>
       <c r="D466" s="6"/>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
@@ -34669,7 +34681,7 @@
     <row r="467" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="15"/>
-      <c r="C467" s="6"/>
+      <c r="C467" s="12"/>
       <c r="D467" s="6"/>
       <c r="E467" s="6"/>
       <c r="F467" s="6"/>
@@ -34733,7 +34745,7 @@
     <row r="468" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="15"/>
-      <c r="C468" s="6"/>
+      <c r="C468" s="12"/>
       <c r="D468" s="6"/>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
@@ -34797,7 +34809,7 @@
     <row r="469" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="15"/>
-      <c r="C469" s="6"/>
+      <c r="C469" s="12"/>
       <c r="D469" s="6"/>
       <c r="E469" s="6"/>
       <c r="F469" s="6"/>
@@ -34861,7 +34873,7 @@
     <row r="470" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="15"/>
-      <c r="C470" s="6"/>
+      <c r="C470" s="12"/>
       <c r="D470" s="6"/>
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
@@ -34925,7 +34937,7 @@
     <row r="471" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="15"/>
-      <c r="C471" s="6"/>
+      <c r="C471" s="12"/>
       <c r="D471" s="6"/>
       <c r="E471" s="6"/>
       <c r="F471" s="6"/>
@@ -34989,7 +35001,7 @@
     <row r="472" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="15"/>
-      <c r="C472" s="6"/>
+      <c r="C472" s="12"/>
       <c r="D472" s="6"/>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
@@ -35053,7 +35065,7 @@
     <row r="473" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="15"/>
-      <c r="C473" s="6"/>
+      <c r="C473" s="12"/>
       <c r="D473" s="6"/>
       <c r="E473" s="6"/>
       <c r="F473" s="6"/>
@@ -35117,7 +35129,7 @@
     <row r="474" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="15"/>
-      <c r="C474" s="6"/>
+      <c r="C474" s="12"/>
       <c r="D474" s="6"/>
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
@@ -35181,7 +35193,7 @@
     <row r="475" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="15"/>
-      <c r="C475" s="6"/>
+      <c r="C475" s="12"/>
       <c r="D475" s="6"/>
       <c r="E475" s="6"/>
       <c r="F475" s="6"/>
@@ -35245,7 +35257,7 @@
     <row r="476" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="15"/>
-      <c r="C476" s="6"/>
+      <c r="C476" s="12"/>
       <c r="D476" s="6"/>
       <c r="E476" s="6"/>
       <c r="F476" s="6"/>
@@ -35309,7 +35321,7 @@
     <row r="477" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="15"/>
-      <c r="C477" s="6"/>
+      <c r="C477" s="12"/>
       <c r="D477" s="6"/>
       <c r="E477" s="6"/>
       <c r="F477" s="6"/>
@@ -35373,7 +35385,7 @@
     <row r="478" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="15"/>
-      <c r="C478" s="6"/>
+      <c r="C478" s="12"/>
       <c r="D478" s="6"/>
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
@@ -35437,7 +35449,7 @@
     <row r="479" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="15"/>
-      <c r="C479" s="6"/>
+      <c r="C479" s="12"/>
       <c r="D479" s="6"/>
       <c r="E479" s="6"/>
       <c r="F479" s="6"/>
@@ -35501,7 +35513,7 @@
     <row r="480" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="15"/>
-      <c r="C480" s="6"/>
+      <c r="C480" s="12"/>
       <c r="D480" s="6"/>
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
@@ -35565,7 +35577,7 @@
     <row r="481" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="15"/>
-      <c r="C481" s="6"/>
+      <c r="C481" s="12"/>
       <c r="D481" s="6"/>
       <c r="E481" s="6"/>
       <c r="F481" s="6"/>
@@ -35629,7 +35641,7 @@
     <row r="482" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="15"/>
-      <c r="C482" s="6"/>
+      <c r="C482" s="12"/>
       <c r="D482" s="6"/>
       <c r="E482" s="6"/>
       <c r="F482" s="6"/>
@@ -35693,7 +35705,7 @@
     <row r="483" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="15"/>
-      <c r="C483" s="6"/>
+      <c r="C483" s="12"/>
       <c r="D483" s="6"/>
       <c r="E483" s="6"/>
       <c r="F483" s="6"/>
@@ -35757,7 +35769,7 @@
     <row r="484" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="15"/>
-      <c r="C484" s="6"/>
+      <c r="C484" s="12"/>
       <c r="D484" s="6"/>
       <c r="E484" s="6"/>
       <c r="F484" s="6"/>
@@ -35821,7 +35833,7 @@
     <row r="485" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="15"/>
-      <c r="C485" s="6"/>
+      <c r="C485" s="12"/>
       <c r="D485" s="6"/>
       <c r="E485" s="6"/>
       <c r="F485" s="6"/>
@@ -35885,7 +35897,7 @@
     <row r="486" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="15"/>
-      <c r="C486" s="6"/>
+      <c r="C486" s="12"/>
       <c r="D486" s="6"/>
       <c r="E486" s="6"/>
       <c r="F486" s="6"/>
@@ -35949,7 +35961,7 @@
     <row r="487" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="15"/>
-      <c r="C487" s="6"/>
+      <c r="C487" s="12"/>
       <c r="D487" s="6"/>
       <c r="E487" s="6"/>
       <c r="F487" s="6"/>
@@ -36013,7 +36025,7 @@
     <row r="488" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="15"/>
-      <c r="C488" s="6"/>
+      <c r="C488" s="12"/>
       <c r="D488" s="6"/>
       <c r="E488" s="6"/>
       <c r="F488" s="6"/>
@@ -36077,7 +36089,7 @@
     <row r="489" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="15"/>
-      <c r="C489" s="6"/>
+      <c r="C489" s="12"/>
       <c r="D489" s="6"/>
       <c r="E489" s="6"/>
       <c r="F489" s="6"/>
@@ -36141,7 +36153,7 @@
     <row r="490" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="15"/>
-      <c r="C490" s="6"/>
+      <c r="C490" s="12"/>
       <c r="D490" s="6"/>
       <c r="E490" s="6"/>
       <c r="F490" s="6"/>
@@ -36205,7 +36217,7 @@
     <row r="491" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="15"/>
-      <c r="C491" s="6"/>
+      <c r="C491" s="12"/>
       <c r="D491" s="6"/>
       <c r="E491" s="6"/>
       <c r="F491" s="6"/>
@@ -36269,7 +36281,7 @@
     <row r="492" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="15"/>
-      <c r="C492" s="6"/>
+      <c r="C492" s="12"/>
       <c r="D492" s="6"/>
       <c r="E492" s="6"/>
       <c r="F492" s="6"/>
@@ -36333,7 +36345,7 @@
     <row r="493" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="15"/>
-      <c r="C493" s="6"/>
+      <c r="C493" s="12"/>
       <c r="D493" s="6"/>
       <c r="E493" s="6"/>
       <c r="F493" s="6"/>
@@ -36397,7 +36409,7 @@
     <row r="494" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="15"/>
-      <c r="C494" s="6"/>
+      <c r="C494" s="12"/>
       <c r="D494" s="6"/>
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
@@ -36461,7 +36473,7 @@
     <row r="495" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="15"/>
-      <c r="C495" s="6"/>
+      <c r="C495" s="12"/>
       <c r="D495" s="6"/>
       <c r="E495" s="6"/>
       <c r="F495" s="6"/>
@@ -36525,7 +36537,7 @@
     <row r="496" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="15"/>
-      <c r="C496" s="6"/>
+      <c r="C496" s="12"/>
       <c r="D496" s="6"/>
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
@@ -36589,7 +36601,7 @@
     <row r="497" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="15"/>
-      <c r="C497" s="6"/>
+      <c r="C497" s="12"/>
       <c r="D497" s="6"/>
       <c r="E497" s="6"/>
       <c r="F497" s="6"/>
@@ -36653,7 +36665,7 @@
     <row r="498" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="15"/>
-      <c r="C498" s="6"/>
+      <c r="C498" s="12"/>
       <c r="D498" s="6"/>
       <c r="E498" s="6"/>
       <c r="F498" s="6"/>
@@ -36717,7 +36729,7 @@
     <row r="499" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="15"/>
-      <c r="C499" s="6"/>
+      <c r="C499" s="12"/>
       <c r="D499" s="6"/>
       <c r="E499" s="6"/>
       <c r="F499" s="6"/>
@@ -36781,7 +36793,7 @@
     <row r="500" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="15"/>
-      <c r="C500" s="6"/>
+      <c r="C500" s="12"/>
       <c r="D500" s="6"/>
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
@@ -36845,7 +36857,7 @@
     <row r="501" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="15"/>
-      <c r="C501" s="6"/>
+      <c r="C501" s="12"/>
       <c r="D501" s="6"/>
       <c r="E501" s="6"/>
       <c r="F501" s="6"/>
@@ -36909,7 +36921,7 @@
     <row r="502" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="15"/>
-      <c r="C502" s="6"/>
+      <c r="C502" s="12"/>
       <c r="D502" s="6"/>
       <c r="E502" s="6"/>
       <c r="F502" s="6"/>
@@ -36973,7 +36985,7 @@
     <row r="503" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="15"/>
-      <c r="C503" s="6"/>
+      <c r="C503" s="12"/>
       <c r="D503" s="6"/>
       <c r="E503" s="6"/>
       <c r="F503" s="6"/>
@@ -37037,7 +37049,7 @@
     <row r="504" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="15"/>
-      <c r="C504" s="6"/>
+      <c r="C504" s="12"/>
       <c r="D504" s="6"/>
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
@@ -37101,7 +37113,7 @@
     <row r="505" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="15"/>
-      <c r="C505" s="6"/>
+      <c r="C505" s="12"/>
       <c r="D505" s="6"/>
       <c r="E505" s="6"/>
       <c r="F505" s="6"/>
@@ -37165,7 +37177,7 @@
     <row r="506" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="15"/>
-      <c r="C506" s="6"/>
+      <c r="C506" s="12"/>
       <c r="D506" s="6"/>
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
@@ -37229,7 +37241,7 @@
     <row r="507" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="15"/>
-      <c r="C507" s="6"/>
+      <c r="C507" s="12"/>
       <c r="D507" s="6"/>
       <c r="E507" s="6"/>
       <c r="F507" s="6"/>
@@ -37293,7 +37305,7 @@
     <row r="508" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="15"/>
-      <c r="C508" s="6"/>
+      <c r="C508" s="12"/>
       <c r="D508" s="6"/>
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
@@ -37357,7 +37369,7 @@
     <row r="509" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="15"/>
-      <c r="C509" s="6"/>
+      <c r="C509" s="12"/>
       <c r="D509" s="6"/>
       <c r="E509" s="6"/>
       <c r="F509" s="6"/>
@@ -37421,7 +37433,7 @@
     <row r="510" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="15"/>
-      <c r="C510" s="6"/>
+      <c r="C510" s="12"/>
       <c r="D510" s="6"/>
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
@@ -37485,7 +37497,7 @@
     <row r="511" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="15"/>
-      <c r="C511" s="6"/>
+      <c r="C511" s="12"/>
       <c r="D511" s="6"/>
       <c r="E511" s="6"/>
       <c r="F511" s="6"/>
@@ -37549,7 +37561,7 @@
     <row r="512" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="15"/>
-      <c r="C512" s="6"/>
+      <c r="C512" s="12"/>
       <c r="D512" s="6"/>
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
@@ -37613,7 +37625,7 @@
     <row r="513" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="15"/>
-      <c r="C513" s="6"/>
+      <c r="C513" s="12"/>
       <c r="D513" s="6"/>
       <c r="E513" s="6"/>
       <c r="F513" s="6"/>
@@ -37677,7 +37689,7 @@
     <row r="514" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="15"/>
-      <c r="C514" s="6"/>
+      <c r="C514" s="12"/>
       <c r="D514" s="6"/>
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
@@ -37741,7 +37753,7 @@
     <row r="515" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="15"/>
-      <c r="C515" s="6"/>
+      <c r="C515" s="12"/>
       <c r="D515" s="6"/>
       <c r="E515" s="6"/>
       <c r="F515" s="6"/>
@@ -37805,7 +37817,7 @@
     <row r="516" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="15"/>
-      <c r="C516" s="6"/>
+      <c r="C516" s="12"/>
       <c r="D516" s="6"/>
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
@@ -37869,7 +37881,7 @@
     <row r="517" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="15"/>
-      <c r="C517" s="6"/>
+      <c r="C517" s="12"/>
       <c r="D517" s="6"/>
       <c r="E517" s="6"/>
       <c r="F517" s="6"/>
@@ -37933,7 +37945,7 @@
     <row r="518" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="15"/>
-      <c r="C518" s="6"/>
+      <c r="C518" s="12"/>
       <c r="D518" s="6"/>
       <c r="E518" s="6"/>
       <c r="F518" s="6"/>
@@ -37997,7 +38009,7 @@
     <row r="519" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="15"/>
-      <c r="C519" s="6"/>
+      <c r="C519" s="12"/>
       <c r="D519" s="6"/>
       <c r="E519" s="6"/>
       <c r="F519" s="6"/>
@@ -38061,7 +38073,7 @@
     <row r="520" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="15"/>
-      <c r="C520" s="6"/>
+      <c r="C520" s="12"/>
       <c r="D520" s="6"/>
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
@@ -38125,7 +38137,7 @@
     <row r="521" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="15"/>
-      <c r="C521" s="6"/>
+      <c r="C521" s="12"/>
       <c r="D521" s="6"/>
       <c r="E521" s="6"/>
       <c r="F521" s="6"/>
@@ -38189,7 +38201,7 @@
     <row r="522" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="15"/>
-      <c r="C522" s="6"/>
+      <c r="C522" s="12"/>
       <c r="D522" s="6"/>
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
@@ -38253,7 +38265,7 @@
     <row r="523" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="15"/>
-      <c r="C523" s="6"/>
+      <c r="C523" s="12"/>
       <c r="D523" s="6"/>
       <c r="E523" s="6"/>
       <c r="F523" s="6"/>
@@ -38317,7 +38329,7 @@
     <row r="524" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="15"/>
-      <c r="C524" s="6"/>
+      <c r="C524" s="12"/>
       <c r="D524" s="6"/>
       <c r="E524" s="6"/>
       <c r="F524" s="6"/>
@@ -38381,7 +38393,7 @@
     <row r="525" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="15"/>
-      <c r="C525" s="6"/>
+      <c r="C525" s="12"/>
       <c r="D525" s="6"/>
       <c r="E525" s="6"/>
       <c r="F525" s="6"/>
@@ -38445,7 +38457,7 @@
     <row r="526" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="15"/>
-      <c r="C526" s="6"/>
+      <c r="C526" s="12"/>
       <c r="D526" s="6"/>
       <c r="E526" s="6"/>
       <c r="F526" s="6"/>
@@ -38509,7 +38521,7 @@
     <row r="527" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="15"/>
-      <c r="C527" s="6"/>
+      <c r="C527" s="12"/>
       <c r="D527" s="6"/>
       <c r="E527" s="6"/>
       <c r="F527" s="6"/>
@@ -38573,7 +38585,7 @@
     <row r="528" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="15"/>
-      <c r="C528" s="6"/>
+      <c r="C528" s="12"/>
       <c r="D528" s="6"/>
       <c r="E528" s="6"/>
       <c r="F528" s="6"/>
@@ -38637,7 +38649,7 @@
     <row r="529" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="15"/>
-      <c r="C529" s="6"/>
+      <c r="C529" s="12"/>
       <c r="D529" s="6"/>
       <c r="E529" s="6"/>
       <c r="F529" s="6"/>
@@ -38701,7 +38713,7 @@
     <row r="530" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="15"/>
-      <c r="C530" s="6"/>
+      <c r="C530" s="12"/>
       <c r="D530" s="6"/>
       <c r="E530" s="6"/>
       <c r="F530" s="6"/>
@@ -38765,7 +38777,7 @@
     <row r="531" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="15"/>
-      <c r="C531" s="6"/>
+      <c r="C531" s="12"/>
       <c r="D531" s="6"/>
       <c r="E531" s="6"/>
       <c r="F531" s="6"/>
@@ -38829,7 +38841,7 @@
     <row r="532" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="15"/>
-      <c r="C532" s="6"/>
+      <c r="C532" s="12"/>
       <c r="D532" s="6"/>
       <c r="E532" s="6"/>
       <c r="F532" s="6"/>
@@ -38893,7 +38905,7 @@
     <row r="533" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="15"/>
-      <c r="C533" s="6"/>
+      <c r="C533" s="12"/>
       <c r="D533" s="6"/>
       <c r="E533" s="6"/>
       <c r="F533" s="6"/>
@@ -38957,7 +38969,7 @@
     <row r="534" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="15"/>
-      <c r="C534" s="6"/>
+      <c r="C534" s="12"/>
       <c r="D534" s="6"/>
       <c r="E534" s="6"/>
       <c r="F534" s="6"/>
@@ -39021,7 +39033,7 @@
     <row r="535" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="15"/>
-      <c r="C535" s="6"/>
+      <c r="C535" s="12"/>
       <c r="D535" s="6"/>
       <c r="E535" s="6"/>
       <c r="F535" s="6"/>
@@ -39085,7 +39097,7 @@
     <row r="536" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="15"/>
-      <c r="C536" s="6"/>
+      <c r="C536" s="12"/>
       <c r="D536" s="6"/>
       <c r="E536" s="6"/>
       <c r="F536" s="6"/>
@@ -39149,7 +39161,7 @@
     <row r="537" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="15"/>
-      <c r="C537" s="6"/>
+      <c r="C537" s="12"/>
       <c r="D537" s="6"/>
       <c r="E537" s="6"/>
       <c r="F537" s="6"/>
@@ -39213,7 +39225,7 @@
     <row r="538" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="15"/>
-      <c r="C538" s="6"/>
+      <c r="C538" s="12"/>
       <c r="D538" s="6"/>
       <c r="E538" s="6"/>
       <c r="F538" s="6"/>
@@ -39277,7 +39289,7 @@
     <row r="539" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="15"/>
-      <c r="C539" s="6"/>
+      <c r="C539" s="12"/>
       <c r="D539" s="6"/>
       <c r="E539" s="6"/>
       <c r="F539" s="6"/>
@@ -39341,7 +39353,7 @@
     <row r="540" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="15"/>
-      <c r="C540" s="6"/>
+      <c r="C540" s="12"/>
       <c r="D540" s="6"/>
       <c r="E540" s="6"/>
       <c r="F540" s="6"/>
@@ -39405,7 +39417,7 @@
     <row r="541" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="15"/>
-      <c r="C541" s="6"/>
+      <c r="C541" s="12"/>
       <c r="D541" s="6"/>
       <c r="E541" s="6"/>
       <c r="F541" s="6"/>
@@ -39469,7 +39481,7 @@
     <row r="542" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="15"/>
-      <c r="C542" s="6"/>
+      <c r="C542" s="12"/>
       <c r="D542" s="6"/>
       <c r="E542" s="6"/>
       <c r="F542" s="6"/>
@@ -39533,7 +39545,7 @@
     <row r="543" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="15"/>
-      <c r="C543" s="6"/>
+      <c r="C543" s="12"/>
       <c r="D543" s="6"/>
       <c r="E543" s="6"/>
       <c r="F543" s="6"/>
@@ -39597,7 +39609,7 @@
     <row r="544" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="15"/>
-      <c r="C544" s="6"/>
+      <c r="C544" s="12"/>
       <c r="D544" s="6"/>
       <c r="E544" s="6"/>
       <c r="F544" s="6"/>
@@ -39661,7 +39673,7 @@
     <row r="545" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="15"/>
-      <c r="C545" s="6"/>
+      <c r="C545" s="12"/>
       <c r="D545" s="6"/>
       <c r="E545" s="6"/>
       <c r="F545" s="6"/>
@@ -39725,7 +39737,7 @@
     <row r="546" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="15"/>
-      <c r="C546" s="6"/>
+      <c r="C546" s="12"/>
       <c r="D546" s="6"/>
       <c r="E546" s="6"/>
       <c r="F546" s="6"/>
@@ -39789,7 +39801,7 @@
     <row r="547" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="15"/>
-      <c r="C547" s="6"/>
+      <c r="C547" s="12"/>
       <c r="D547" s="6"/>
       <c r="E547" s="6"/>
       <c r="F547" s="6"/>
@@ -39853,7 +39865,7 @@
     <row r="548" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="15"/>
-      <c r="C548" s="6"/>
+      <c r="C548" s="12"/>
       <c r="D548" s="6"/>
       <c r="E548" s="6"/>
       <c r="F548" s="6"/>
@@ -39917,7 +39929,7 @@
     <row r="549" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="6"/>
       <c r="B549" s="15"/>
-      <c r="C549" s="6"/>
+      <c r="C549" s="12"/>
       <c r="D549" s="6"/>
       <c r="E549" s="6"/>
       <c r="F549" s="6"/>
@@ -39981,7 +39993,7 @@
     <row r="550" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="B550" s="15"/>
-      <c r="C550" s="6"/>
+      <c r="C550" s="12"/>
       <c r="D550" s="6"/>
       <c r="E550" s="6"/>
       <c r="F550" s="6"/>
@@ -40045,7 +40057,7 @@
     <row r="551" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="6"/>
       <c r="B551" s="15"/>
-      <c r="C551" s="6"/>
+      <c r="C551" s="12"/>
       <c r="D551" s="6"/>
       <c r="E551" s="6"/>
       <c r="F551" s="6"/>
@@ -40109,7 +40121,7 @@
     <row r="552" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="6"/>
       <c r="B552" s="15"/>
-      <c r="C552" s="6"/>
+      <c r="C552" s="12"/>
       <c r="D552" s="6"/>
       <c r="E552" s="6"/>
       <c r="F552" s="6"/>
@@ -40173,7 +40185,7 @@
     <row r="553" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="6"/>
       <c r="B553" s="15"/>
-      <c r="C553" s="6"/>
+      <c r="C553" s="12"/>
       <c r="D553" s="6"/>
       <c r="E553" s="6"/>
       <c r="F553" s="6"/>
@@ -40237,7 +40249,7 @@
     <row r="554" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="6"/>
       <c r="B554" s="15"/>
-      <c r="C554" s="6"/>
+      <c r="C554" s="12"/>
       <c r="D554" s="6"/>
       <c r="E554" s="6"/>
       <c r="F554" s="6"/>
@@ -40301,7 +40313,7 @@
     <row r="555" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="6"/>
       <c r="B555" s="15"/>
-      <c r="C555" s="6"/>
+      <c r="C555" s="12"/>
       <c r="D555" s="6"/>
       <c r="E555" s="6"/>
       <c r="F555" s="6"/>
@@ -40365,7 +40377,7 @@
     <row r="556" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="6"/>
       <c r="B556" s="15"/>
-      <c r="C556" s="6"/>
+      <c r="C556" s="12"/>
       <c r="D556" s="6"/>
       <c r="E556" s="6"/>
       <c r="F556" s="6"/>
@@ -40429,7 +40441,7 @@
     <row r="557" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="B557" s="15"/>
-      <c r="C557" s="6"/>
+      <c r="C557" s="12"/>
       <c r="D557" s="6"/>
       <c r="E557" s="6"/>
       <c r="F557" s="6"/>
@@ -40493,7 +40505,7 @@
     <row r="558" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="6"/>
       <c r="B558" s="15"/>
-      <c r="C558" s="6"/>
+      <c r="C558" s="12"/>
       <c r="D558" s="6"/>
       <c r="E558" s="6"/>
       <c r="F558" s="6"/>
@@ -40557,7 +40569,7 @@
     <row r="559" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="6"/>
       <c r="B559" s="15"/>
-      <c r="C559" s="6"/>
+      <c r="C559" s="12"/>
       <c r="D559" s="6"/>
       <c r="E559" s="6"/>
       <c r="F559" s="6"/>
@@ -40621,7 +40633,7 @@
     <row r="560" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="6"/>
       <c r="B560" s="15"/>
-      <c r="C560" s="6"/>
+      <c r="C560" s="12"/>
       <c r="D560" s="6"/>
       <c r="E560" s="6"/>
       <c r="F560" s="6"/>
@@ -40685,7 +40697,7 @@
     <row r="561" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="6"/>
       <c r="B561" s="15"/>
-      <c r="C561" s="6"/>
+      <c r="C561" s="12"/>
       <c r="D561" s="6"/>
       <c r="E561" s="6"/>
       <c r="F561" s="6"/>
@@ -40749,7 +40761,7 @@
     <row r="562" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="6"/>
       <c r="B562" s="15"/>
-      <c r="C562" s="6"/>
+      <c r="C562" s="12"/>
       <c r="D562" s="6"/>
       <c r="E562" s="6"/>
       <c r="F562" s="6"/>
@@ -40813,7 +40825,7 @@
     <row r="563" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="6"/>
       <c r="B563" s="15"/>
-      <c r="C563" s="6"/>
+      <c r="C563" s="12"/>
       <c r="D563" s="6"/>
       <c r="E563" s="6"/>
       <c r="F563" s="6"/>
@@ -40877,7 +40889,7 @@
     <row r="564" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="6"/>
       <c r="B564" s="15"/>
-      <c r="C564" s="6"/>
+      <c r="C564" s="12"/>
       <c r="D564" s="6"/>
       <c r="E564" s="6"/>
       <c r="F564" s="6"/>
@@ -40941,7 +40953,7 @@
     <row r="565" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="6"/>
       <c r="B565" s="15"/>
-      <c r="C565" s="6"/>
+      <c r="C565" s="12"/>
       <c r="D565" s="6"/>
       <c r="E565" s="6"/>
       <c r="F565" s="6"/>
@@ -41005,7 +41017,7 @@
     <row r="566" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="6"/>
       <c r="B566" s="15"/>
-      <c r="C566" s="6"/>
+      <c r="C566" s="12"/>
       <c r="D566" s="6"/>
       <c r="E566" s="6"/>
       <c r="F566" s="6"/>
@@ -41069,7 +41081,7 @@
     <row r="567" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="6"/>
       <c r="B567" s="15"/>
-      <c r="C567" s="6"/>
+      <c r="C567" s="12"/>
       <c r="D567" s="6"/>
       <c r="E567" s="6"/>
       <c r="F567" s="6"/>
@@ -41133,7 +41145,7 @@
     <row r="568" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="6"/>
       <c r="B568" s="15"/>
-      <c r="C568" s="6"/>
+      <c r="C568" s="12"/>
       <c r="D568" s="6"/>
       <c r="E568" s="6"/>
       <c r="F568" s="6"/>
@@ -41197,7 +41209,7 @@
     <row r="569" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="6"/>
       <c r="B569" s="15"/>
-      <c r="C569" s="6"/>
+      <c r="C569" s="12"/>
       <c r="D569" s="6"/>
       <c r="E569" s="6"/>
       <c r="F569" s="6"/>
@@ -41261,7 +41273,7 @@
     <row r="570" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="6"/>
       <c r="B570" s="15"/>
-      <c r="C570" s="6"/>
+      <c r="C570" s="12"/>
       <c r="D570" s="6"/>
       <c r="E570" s="6"/>
       <c r="F570" s="6"/>
@@ -41325,7 +41337,7 @@
     <row r="571" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="6"/>
       <c r="B571" s="15"/>
-      <c r="C571" s="6"/>
+      <c r="C571" s="12"/>
       <c r="D571" s="6"/>
       <c r="E571" s="6"/>
       <c r="F571" s="6"/>
@@ -41389,7 +41401,7 @@
     <row r="572" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="6"/>
       <c r="B572" s="15"/>
-      <c r="C572" s="6"/>
+      <c r="C572" s="12"/>
       <c r="D572" s="6"/>
       <c r="E572" s="6"/>
       <c r="F572" s="6"/>
@@ -41453,7 +41465,7 @@
     <row r="573" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="6"/>
       <c r="B573" s="15"/>
-      <c r="C573" s="6"/>
+      <c r="C573" s="12"/>
       <c r="D573" s="6"/>
       <c r="E573" s="6"/>
       <c r="F573" s="6"/>
@@ -41517,7 +41529,7 @@
     <row r="574" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="6"/>
       <c r="B574" s="15"/>
-      <c r="C574" s="6"/>
+      <c r="C574" s="12"/>
       <c r="D574" s="6"/>
       <c r="E574" s="6"/>
       <c r="F574" s="6"/>
@@ -41581,7 +41593,7 @@
     <row r="575" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="6"/>
       <c r="B575" s="15"/>
-      <c r="C575" s="6"/>
+      <c r="C575" s="12"/>
       <c r="D575" s="6"/>
       <c r="E575" s="6"/>
       <c r="F575" s="6"/>
@@ -41645,7 +41657,7 @@
     <row r="576" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="6"/>
       <c r="B576" s="15"/>
-      <c r="C576" s="6"/>
+      <c r="C576" s="12"/>
       <c r="D576" s="6"/>
       <c r="E576" s="6"/>
       <c r="F576" s="6"/>
@@ -41709,7 +41721,7 @@
     <row r="577" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="6"/>
       <c r="B577" s="15"/>
-      <c r="C577" s="6"/>
+      <c r="C577" s="12"/>
       <c r="D577" s="6"/>
       <c r="E577" s="6"/>
       <c r="F577" s="6"/>
@@ -41773,7 +41785,7 @@
     <row r="578" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="6"/>
       <c r="B578" s="15"/>
-      <c r="C578" s="6"/>
+      <c r="C578" s="12"/>
       <c r="D578" s="6"/>
       <c r="E578" s="6"/>
       <c r="F578" s="6"/>
@@ -41837,7 +41849,7 @@
     <row r="579" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="6"/>
       <c r="B579" s="15"/>
-      <c r="C579" s="6"/>
+      <c r="C579" s="12"/>
       <c r="D579" s="6"/>
       <c r="E579" s="6"/>
       <c r="F579" s="6"/>
@@ -41901,7 +41913,7 @@
     <row r="580" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="6"/>
       <c r="B580" s="15"/>
-      <c r="C580" s="6"/>
+      <c r="C580" s="12"/>
       <c r="D580" s="6"/>
       <c r="E580" s="6"/>
       <c r="F580" s="6"/>
@@ -41965,7 +41977,7 @@
     <row r="581" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="6"/>
       <c r="B581" s="15"/>
-      <c r="C581" s="6"/>
+      <c r="C581" s="12"/>
       <c r="D581" s="6"/>
       <c r="E581" s="6"/>
       <c r="F581" s="6"/>
@@ -42029,7 +42041,7 @@
     <row r="582" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="6"/>
       <c r="B582" s="15"/>
-      <c r="C582" s="6"/>
+      <c r="C582" s="12"/>
       <c r="D582" s="6"/>
       <c r="E582" s="6"/>
       <c r="F582" s="6"/>
@@ -42093,7 +42105,7 @@
     <row r="583" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="6"/>
       <c r="B583" s="15"/>
-      <c r="C583" s="6"/>
+      <c r="C583" s="12"/>
       <c r="D583" s="6"/>
       <c r="E583" s="6"/>
       <c r="F583" s="6"/>
@@ -42157,7 +42169,7 @@
     <row r="584" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="6"/>
       <c r="B584" s="15"/>
-      <c r="C584" s="6"/>
+      <c r="C584" s="12"/>
       <c r="D584" s="6"/>
       <c r="E584" s="6"/>
       <c r="F584" s="6"/>
@@ -42221,7 +42233,7 @@
     <row r="585" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="6"/>
       <c r="B585" s="15"/>
-      <c r="C585" s="6"/>
+      <c r="C585" s="12"/>
       <c r="D585" s="6"/>
       <c r="E585" s="6"/>
       <c r="F585" s="6"/>
@@ -42285,7 +42297,7 @@
     <row r="586" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="6"/>
       <c r="B586" s="15"/>
-      <c r="C586" s="6"/>
+      <c r="C586" s="12"/>
       <c r="D586" s="6"/>
       <c r="E586" s="6"/>
       <c r="F586" s="6"/>
@@ -42349,7 +42361,7 @@
     <row r="587" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="6"/>
       <c r="B587" s="15"/>
-      <c r="C587" s="6"/>
+      <c r="C587" s="12"/>
       <c r="D587" s="6"/>
       <c r="E587" s="6"/>
       <c r="F587" s="6"/>
@@ -42413,7 +42425,7 @@
     <row r="588" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="6"/>
       <c r="B588" s="15"/>
-      <c r="C588" s="6"/>
+      <c r="C588" s="12"/>
       <c r="D588" s="6"/>
       <c r="E588" s="6"/>
       <c r="F588" s="6"/>
@@ -42477,7 +42489,7 @@
     <row r="589" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="6"/>
       <c r="B589" s="15"/>
-      <c r="C589" s="6"/>
+      <c r="C589" s="12"/>
       <c r="D589" s="6"/>
       <c r="E589" s="6"/>
       <c r="F589" s="6"/>
@@ -42541,7 +42553,7 @@
     <row r="590" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="6"/>
       <c r="B590" s="15"/>
-      <c r="C590" s="6"/>
+      <c r="C590" s="12"/>
       <c r="D590" s="6"/>
       <c r="E590" s="6"/>
       <c r="F590" s="6"/>
@@ -42605,7 +42617,7 @@
     <row r="591" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="6"/>
       <c r="B591" s="15"/>
-      <c r="C591" s="6"/>
+      <c r="C591" s="12"/>
       <c r="D591" s="6"/>
       <c r="E591" s="6"/>
       <c r="F591" s="6"/>
@@ -42669,7 +42681,7 @@
     <row r="592" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="6"/>
       <c r="B592" s="15"/>
-      <c r="C592" s="6"/>
+      <c r="C592" s="12"/>
       <c r="D592" s="6"/>
       <c r="E592" s="6"/>
       <c r="F592" s="6"/>
@@ -42733,7 +42745,7 @@
     <row r="593" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="6"/>
       <c r="B593" s="15"/>
-      <c r="C593" s="6"/>
+      <c r="C593" s="12"/>
       <c r="D593" s="6"/>
       <c r="E593" s="6"/>
       <c r="F593" s="6"/>
@@ -42797,7 +42809,7 @@
     <row r="594" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="6"/>
       <c r="B594" s="15"/>
-      <c r="C594" s="6"/>
+      <c r="C594" s="12"/>
       <c r="D594" s="6"/>
       <c r="E594" s="6"/>
       <c r="F594" s="6"/>
@@ -42861,7 +42873,7 @@
     <row r="595" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="6"/>
       <c r="B595" s="15"/>
-      <c r="C595" s="6"/>
+      <c r="C595" s="12"/>
       <c r="D595" s="6"/>
       <c r="E595" s="6"/>
       <c r="F595" s="6"/>
@@ -42925,7 +42937,7 @@
     <row r="596" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="B596" s="15"/>
-      <c r="C596" s="6"/>
+      <c r="C596" s="12"/>
       <c r="D596" s="6"/>
       <c r="E596" s="6"/>
       <c r="F596" s="6"/>
@@ -42989,7 +43001,7 @@
     <row r="597" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="6"/>
       <c r="B597" s="15"/>
-      <c r="C597" s="6"/>
+      <c r="C597" s="12"/>
       <c r="D597" s="6"/>
       <c r="E597" s="6"/>
       <c r="F597" s="6"/>
@@ -43053,7 +43065,7 @@
     <row r="598" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="6"/>
       <c r="B598" s="15"/>
-      <c r="C598" s="6"/>
+      <c r="C598" s="12"/>
       <c r="D598" s="6"/>
       <c r="E598" s="6"/>
       <c r="F598" s="6"/>
@@ -43117,7 +43129,7 @@
     <row r="599" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="6"/>
       <c r="B599" s="15"/>
-      <c r="C599" s="6"/>
+      <c r="C599" s="12"/>
       <c r="D599" s="6"/>
       <c r="E599" s="6"/>
       <c r="F599" s="6"/>
@@ -43181,7 +43193,7 @@
     <row r="600" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="6"/>
       <c r="B600" s="15"/>
-      <c r="C600" s="6"/>
+      <c r="C600" s="12"/>
       <c r="D600" s="6"/>
       <c r="E600" s="6"/>
       <c r="F600" s="6"/>
@@ -43245,7 +43257,7 @@
     <row r="601" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="6"/>
       <c r="B601" s="15"/>
-      <c r="C601" s="6"/>
+      <c r="C601" s="12"/>
       <c r="D601" s="6"/>
       <c r="E601" s="6"/>
       <c r="F601" s="6"/>
@@ -43309,7 +43321,7 @@
     <row r="602" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="6"/>
       <c r="B602" s="15"/>
-      <c r="C602" s="6"/>
+      <c r="C602" s="12"/>
       <c r="D602" s="6"/>
       <c r="E602" s="6"/>
       <c r="F602" s="6"/>
@@ -43373,7 +43385,7 @@
     <row r="603" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="6"/>
       <c r="B603" s="15"/>
-      <c r="C603" s="6"/>
+      <c r="C603" s="12"/>
       <c r="D603" s="6"/>
       <c r="E603" s="6"/>
       <c r="F603" s="6"/>
@@ -43437,7 +43449,7 @@
     <row r="604" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="6"/>
       <c r="B604" s="15"/>
-      <c r="C604" s="6"/>
+      <c r="C604" s="12"/>
       <c r="D604" s="6"/>
       <c r="E604" s="6"/>
       <c r="F604" s="6"/>
@@ -43501,7 +43513,7 @@
     <row r="605" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="6"/>
       <c r="B605" s="15"/>
-      <c r="C605" s="6"/>
+      <c r="C605" s="12"/>
       <c r="D605" s="6"/>
       <c r="E605" s="6"/>
       <c r="F605" s="6"/>
@@ -43565,7 +43577,7 @@
     <row r="606" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="6"/>
       <c r="B606" s="15"/>
-      <c r="C606" s="6"/>
+      <c r="C606" s="12"/>
       <c r="D606" s="6"/>
       <c r="E606" s="6"/>
       <c r="F606" s="6"/>
@@ -43629,7 +43641,7 @@
     <row r="607" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="6"/>
       <c r="B607" s="15"/>
-      <c r="C607" s="6"/>
+      <c r="C607" s="12"/>
       <c r="D607" s="6"/>
       <c r="E607" s="6"/>
       <c r="F607" s="6"/>
@@ -43693,7 +43705,7 @@
     <row r="608" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="6"/>
       <c r="B608" s="15"/>
-      <c r="C608" s="6"/>
+      <c r="C608" s="12"/>
       <c r="D608" s="6"/>
       <c r="E608" s="6"/>
       <c r="F608" s="6"/>
@@ -43757,7 +43769,7 @@
     <row r="609" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="6"/>
       <c r="B609" s="15"/>
-      <c r="C609" s="6"/>
+      <c r="C609" s="12"/>
       <c r="D609" s="6"/>
       <c r="E609" s="6"/>
       <c r="F609" s="6"/>
@@ -43821,7 +43833,7 @@
     <row r="610" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="6"/>
       <c r="B610" s="15"/>
-      <c r="C610" s="6"/>
+      <c r="C610" s="12"/>
       <c r="D610" s="6"/>
       <c r="E610" s="6"/>
       <c r="F610" s="6"/>
@@ -43885,7 +43897,7 @@
     <row r="611" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="6"/>
       <c r="B611" s="15"/>
-      <c r="C611" s="6"/>
+      <c r="C611" s="12"/>
       <c r="D611" s="6"/>
       <c r="E611" s="6"/>
       <c r="F611" s="6"/>
@@ -43949,7 +43961,7 @@
     <row r="612" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="6"/>
       <c r="B612" s="15"/>
-      <c r="C612" s="6"/>
+      <c r="C612" s="12"/>
       <c r="D612" s="6"/>
       <c r="E612" s="6"/>
       <c r="F612" s="6"/>
@@ -44013,7 +44025,7 @@
     <row r="613" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="6"/>
       <c r="B613" s="15"/>
-      <c r="C613" s="6"/>
+      <c r="C613" s="12"/>
       <c r="D613" s="6"/>
       <c r="E613" s="6"/>
       <c r="F613" s="6"/>
@@ -44077,7 +44089,7 @@
     <row r="614" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="6"/>
       <c r="B614" s="15"/>
-      <c r="C614" s="6"/>
+      <c r="C614" s="12"/>
       <c r="D614" s="6"/>
       <c r="E614" s="6"/>
       <c r="F614" s="6"/>
@@ -44141,7 +44153,7 @@
     <row r="615" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="6"/>
       <c r="B615" s="15"/>
-      <c r="C615" s="6"/>
+      <c r="C615" s="12"/>
       <c r="D615" s="6"/>
       <c r="E615" s="6"/>
       <c r="F615" s="6"/>
@@ -44205,7 +44217,7 @@
     <row r="616" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="6"/>
       <c r="B616" s="15"/>
-      <c r="C616" s="6"/>
+      <c r="C616" s="12"/>
       <c r="D616" s="6"/>
       <c r="E616" s="6"/>
       <c r="F616" s="6"/>
@@ -44269,7 +44281,7 @@
     <row r="617" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="6"/>
       <c r="B617" s="15"/>
-      <c r="C617" s="6"/>
+      <c r="C617" s="12"/>
       <c r="D617" s="6"/>
       <c r="E617" s="6"/>
       <c r="F617" s="6"/>
@@ -44333,7 +44345,7 @@
     <row r="618" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="6"/>
       <c r="B618" s="15"/>
-      <c r="C618" s="6"/>
+      <c r="C618" s="12"/>
       <c r="D618" s="6"/>
       <c r="E618" s="6"/>
       <c r="F618" s="6"/>
@@ -44397,7 +44409,7 @@
     <row r="619" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="6"/>
       <c r="B619" s="15"/>
-      <c r="C619" s="6"/>
+      <c r="C619" s="12"/>
       <c r="D619" s="6"/>
       <c r="E619" s="6"/>
       <c r="F619" s="6"/>
@@ -44461,7 +44473,7 @@
     <row r="620" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="6"/>
       <c r="B620" s="15"/>
-      <c r="C620" s="6"/>
+      <c r="C620" s="12"/>
       <c r="D620" s="6"/>
       <c r="E620" s="6"/>
       <c r="F620" s="6"/>
@@ -44525,7 +44537,7 @@
     <row r="621" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="6"/>
       <c r="B621" s="15"/>
-      <c r="C621" s="6"/>
+      <c r="C621" s="12"/>
       <c r="D621" s="6"/>
       <c r="E621" s="6"/>
       <c r="F621" s="6"/>
@@ -44589,7 +44601,7 @@
     <row r="622" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="6"/>
       <c r="B622" s="15"/>
-      <c r="C622" s="6"/>
+      <c r="C622" s="12"/>
       <c r="D622" s="6"/>
       <c r="E622" s="6"/>
       <c r="F622" s="6"/>
@@ -44653,7 +44665,7 @@
     <row r="623" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="6"/>
       <c r="B623" s="15"/>
-      <c r="C623" s="6"/>
+      <c r="C623" s="12"/>
       <c r="D623" s="6"/>
       <c r="E623" s="6"/>
       <c r="F623" s="6"/>
@@ -44717,7 +44729,7 @@
     <row r="624" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="6"/>
       <c r="B624" s="15"/>
-      <c r="C624" s="6"/>
+      <c r="C624" s="12"/>
       <c r="D624" s="6"/>
       <c r="E624" s="6"/>
       <c r="F624" s="6"/>
@@ -44781,7 +44793,7 @@
     <row r="625" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="6"/>
       <c r="B625" s="15"/>
-      <c r="C625" s="6"/>
+      <c r="C625" s="12"/>
       <c r="D625" s="6"/>
       <c r="E625" s="6"/>
       <c r="F625" s="6"/>
@@ -44845,7 +44857,7 @@
     <row r="626" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="6"/>
       <c r="B626" s="15"/>
-      <c r="C626" s="6"/>
+      <c r="C626" s="12"/>
       <c r="D626" s="6"/>
       <c r="E626" s="6"/>
       <c r="F626" s="6"/>
@@ -44909,7 +44921,7 @@
     <row r="627" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="6"/>
       <c r="B627" s="15"/>
-      <c r="C627" s="6"/>
+      <c r="C627" s="12"/>
       <c r="D627" s="6"/>
       <c r="E627" s="6"/>
       <c r="F627" s="6"/>
@@ -44973,7 +44985,7 @@
     <row r="628" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="6"/>
       <c r="B628" s="15"/>
-      <c r="C628" s="6"/>
+      <c r="C628" s="12"/>
       <c r="D628" s="6"/>
       <c r="E628" s="6"/>
       <c r="F628" s="6"/>
@@ -45037,7 +45049,7 @@
     <row r="629" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="6"/>
       <c r="B629" s="15"/>
-      <c r="C629" s="6"/>
+      <c r="C629" s="12"/>
       <c r="D629" s="6"/>
       <c r="E629" s="6"/>
       <c r="F629" s="6"/>
@@ -45101,7 +45113,7 @@
     <row r="630" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="6"/>
       <c r="B630" s="15"/>
-      <c r="C630" s="6"/>
+      <c r="C630" s="12"/>
       <c r="D630" s="6"/>
       <c r="E630" s="6"/>
       <c r="F630" s="6"/>
@@ -45165,7 +45177,7 @@
     <row r="631" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="6"/>
       <c r="B631" s="15"/>
-      <c r="C631" s="6"/>
+      <c r="C631" s="12"/>
       <c r="D631" s="6"/>
       <c r="E631" s="6"/>
       <c r="F631" s="6"/>
@@ -45229,7 +45241,7 @@
     <row r="632" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="6"/>
       <c r="B632" s="15"/>
-      <c r="C632" s="6"/>
+      <c r="C632" s="12"/>
       <c r="D632" s="6"/>
       <c r="E632" s="6"/>
       <c r="F632" s="6"/>
@@ -45293,7 +45305,7 @@
     <row r="633" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="6"/>
       <c r="B633" s="15"/>
-      <c r="C633" s="6"/>
+      <c r="C633" s="12"/>
       <c r="D633" s="6"/>
       <c r="E633" s="6"/>
       <c r="F633" s="6"/>
@@ -45357,7 +45369,7 @@
     <row r="634" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="6"/>
       <c r="B634" s="15"/>
-      <c r="C634" s="6"/>
+      <c r="C634" s="12"/>
       <c r="D634" s="6"/>
       <c r="E634" s="6"/>
       <c r="F634" s="6"/>
@@ -45421,7 +45433,7 @@
     <row r="635" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="6"/>
       <c r="B635" s="15"/>
-      <c r="C635" s="6"/>
+      <c r="C635" s="12"/>
       <c r="D635" s="6"/>
       <c r="E635" s="6"/>
       <c r="F635" s="6"/>
@@ -45485,7 +45497,7 @@
     <row r="636" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="6"/>
       <c r="B636" s="15"/>
-      <c r="C636" s="6"/>
+      <c r="C636" s="12"/>
       <c r="D636" s="6"/>
       <c r="E636" s="6"/>
       <c r="F636" s="6"/>
@@ -45549,7 +45561,7 @@
     <row r="637" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="6"/>
       <c r="B637" s="15"/>
-      <c r="C637" s="6"/>
+      <c r="C637" s="12"/>
       <c r="D637" s="6"/>
       <c r="E637" s="6"/>
       <c r="F637" s="6"/>
@@ -45613,7 +45625,7 @@
     <row r="638" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="6"/>
       <c r="B638" s="15"/>
-      <c r="C638" s="6"/>
+      <c r="C638" s="12"/>
       <c r="D638" s="6"/>
       <c r="E638" s="6"/>
       <c r="F638" s="6"/>
@@ -45677,7 +45689,7 @@
     <row r="639" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="6"/>
       <c r="B639" s="15"/>
-      <c r="C639" s="6"/>
+      <c r="C639" s="12"/>
       <c r="D639" s="6"/>
       <c r="E639" s="6"/>
       <c r="F639" s="6"/>
@@ -45741,7 +45753,7 @@
     <row r="640" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="6"/>
       <c r="B640" s="15"/>
-      <c r="C640" s="6"/>
+      <c r="C640" s="12"/>
       <c r="D640" s="6"/>
       <c r="E640" s="6"/>
       <c r="F640" s="6"/>
@@ -45805,7 +45817,7 @@
     <row r="641" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="6"/>
       <c r="B641" s="15"/>
-      <c r="C641" s="6"/>
+      <c r="C641" s="12"/>
       <c r="D641" s="6"/>
       <c r="E641" s="6"/>
       <c r="F641" s="6"/>
@@ -45869,7 +45881,7 @@
     <row r="642" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="6"/>
       <c r="B642" s="15"/>
-      <c r="C642" s="6"/>
+      <c r="C642" s="12"/>
       <c r="D642" s="6"/>
       <c r="E642" s="6"/>
       <c r="F642" s="6"/>
@@ -45933,7 +45945,7 @@
     <row r="643" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="6"/>
       <c r="B643" s="15"/>
-      <c r="C643" s="6"/>
+      <c r="C643" s="12"/>
       <c r="D643" s="6"/>
       <c r="E643" s="6"/>
       <c r="F643" s="6"/>
@@ -45997,7 +46009,7 @@
     <row r="644" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="6"/>
       <c r="B644" s="15"/>
-      <c r="C644" s="6"/>
+      <c r="C644" s="12"/>
       <c r="D644" s="6"/>
       <c r="E644" s="6"/>
       <c r="F644" s="6"/>
@@ -46061,7 +46073,7 @@
     <row r="645" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="6"/>
       <c r="B645" s="15"/>
-      <c r="C645" s="6"/>
+      <c r="C645" s="12"/>
       <c r="D645" s="6"/>
       <c r="E645" s="6"/>
       <c r="F645" s="6"/>
@@ -46125,7 +46137,7 @@
     <row r="646" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="6"/>
       <c r="B646" s="15"/>
-      <c r="C646" s="6"/>
+      <c r="C646" s="12"/>
       <c r="D646" s="6"/>
       <c r="E646" s="6"/>
       <c r="F646" s="6"/>
@@ -46189,7 +46201,7 @@
     <row r="647" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="6"/>
       <c r="B647" s="15"/>
-      <c r="C647" s="6"/>
+      <c r="C647" s="12"/>
       <c r="D647" s="6"/>
       <c r="E647" s="6"/>
       <c r="F647" s="6"/>
@@ -46253,7 +46265,7 @@
     <row r="648" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="6"/>
       <c r="B648" s="15"/>
-      <c r="C648" s="6"/>
+      <c r="C648" s="12"/>
       <c r="D648" s="6"/>
       <c r="E648" s="6"/>
       <c r="F648" s="6"/>
@@ -46317,7 +46329,7 @@
     <row r="649" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="6"/>
       <c r="B649" s="15"/>
-      <c r="C649" s="6"/>
+      <c r="C649" s="12"/>
       <c r="D649" s="6"/>
       <c r="E649" s="6"/>
       <c r="F649" s="6"/>
@@ -46381,7 +46393,7 @@
     <row r="650" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="6"/>
       <c r="B650" s="15"/>
-      <c r="C650" s="6"/>
+      <c r="C650" s="12"/>
       <c r="D650" s="6"/>
       <c r="E650" s="6"/>
       <c r="F650" s="6"/>
@@ -46445,7 +46457,7 @@
     <row r="651" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="6"/>
       <c r="B651" s="15"/>
-      <c r="C651" s="6"/>
+      <c r="C651" s="12"/>
       <c r="D651" s="6"/>
       <c r="E651" s="6"/>
       <c r="F651" s="6"/>
@@ -46509,7 +46521,7 @@
     <row r="652" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="6"/>
       <c r="B652" s="15"/>
-      <c r="C652" s="6"/>
+      <c r="C652" s="12"/>
       <c r="D652" s="6"/>
       <c r="E652" s="6"/>
       <c r="F652" s="6"/>
@@ -46573,7 +46585,7 @@
     <row r="653" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="6"/>
       <c r="B653" s="15"/>
-      <c r="C653" s="6"/>
+      <c r="C653" s="12"/>
       <c r="D653" s="6"/>
       <c r="E653" s="6"/>
       <c r="F653" s="6"/>
@@ -46637,7 +46649,7 @@
     <row r="654" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="6"/>
       <c r="B654" s="15"/>
-      <c r="C654" s="6"/>
+      <c r="C654" s="12"/>
       <c r="D654" s="6"/>
       <c r="E654" s="6"/>
       <c r="F654" s="6"/>
@@ -46701,7 +46713,7 @@
     <row r="655" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="6"/>
       <c r="B655" s="15"/>
-      <c r="C655" s="6"/>
+      <c r="C655" s="12"/>
       <c r="D655" s="6"/>
       <c r="E655" s="6"/>
       <c r="F655" s="6"/>
@@ -46765,7 +46777,7 @@
     <row r="656" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="6"/>
       <c r="B656" s="15"/>
-      <c r="C656" s="6"/>
+      <c r="C656" s="12"/>
       <c r="D656" s="6"/>
       <c r="E656" s="6"/>
       <c r="F656" s="6"/>
@@ -46829,7 +46841,7 @@
     <row r="657" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="6"/>
       <c r="B657" s="15"/>
-      <c r="C657" s="6"/>
+      <c r="C657" s="12"/>
       <c r="D657" s="6"/>
       <c r="E657" s="6"/>
       <c r="F657" s="6"/>
@@ -46893,7 +46905,7 @@
     <row r="658" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="6"/>
       <c r="B658" s="15"/>
-      <c r="C658" s="6"/>
+      <c r="C658" s="12"/>
       <c r="D658" s="6"/>
       <c r="E658" s="6"/>
       <c r="F658" s="6"/>
@@ -46957,7 +46969,7 @@
     <row r="659" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="6"/>
       <c r="B659" s="15"/>
-      <c r="C659" s="6"/>
+      <c r="C659" s="12"/>
       <c r="D659" s="6"/>
       <c r="E659" s="6"/>
       <c r="F659" s="6"/>
@@ -47021,7 +47033,7 @@
     <row r="660" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="6"/>
       <c r="B660" s="15"/>
-      <c r="C660" s="6"/>
+      <c r="C660" s="12"/>
       <c r="D660" s="6"/>
       <c r="E660" s="6"/>
       <c r="F660" s="6"/>
@@ -47085,7 +47097,7 @@
     <row r="661" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="6"/>
       <c r="B661" s="15"/>
-      <c r="C661" s="6"/>
+      <c r="C661" s="12"/>
       <c r="D661" s="6"/>
       <c r="E661" s="6"/>
       <c r="F661" s="6"/>
@@ -47149,7 +47161,7 @@
     <row r="662" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="6"/>
       <c r="B662" s="15"/>
-      <c r="C662" s="6"/>
+      <c r="C662" s="12"/>
       <c r="D662" s="6"/>
       <c r="E662" s="6"/>
       <c r="F662" s="6"/>
@@ -47213,7 +47225,7 @@
     <row r="663" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="6"/>
       <c r="B663" s="15"/>
-      <c r="C663" s="6"/>
+      <c r="C663" s="12"/>
       <c r="D663" s="6"/>
       <c r="E663" s="6"/>
       <c r="F663" s="6"/>
@@ -47277,7 +47289,7 @@
     <row r="664" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="6"/>
       <c r="B664" s="15"/>
-      <c r="C664" s="6"/>
+      <c r="C664" s="12"/>
       <c r="D664" s="6"/>
       <c r="E664" s="6"/>
       <c r="F664" s="6"/>
@@ -47341,7 +47353,7 @@
     <row r="665" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="6"/>
       <c r="B665" s="15"/>
-      <c r="C665" s="6"/>
+      <c r="C665" s="12"/>
       <c r="D665" s="6"/>
       <c r="E665" s="6"/>
       <c r="F665" s="6"/>
@@ -47405,7 +47417,7 @@
     <row r="666" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="6"/>
       <c r="B666" s="15"/>
-      <c r="C666" s="6"/>
+      <c r="C666" s="12"/>
       <c r="D666" s="6"/>
       <c r="E666" s="6"/>
       <c r="F666" s="6"/>
@@ -47469,7 +47481,7 @@
     <row r="667" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="6"/>
       <c r="B667" s="15"/>
-      <c r="C667" s="6"/>
+      <c r="C667" s="12"/>
       <c r="D667" s="6"/>
       <c r="E667" s="6"/>
       <c r="F667" s="6"/>
@@ -47533,7 +47545,7 @@
     <row r="668" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="6"/>
       <c r="B668" s="15"/>
-      <c r="C668" s="6"/>
+      <c r="C668" s="12"/>
       <c r="D668" s="6"/>
       <c r="E668" s="6"/>
       <c r="F668" s="6"/>
@@ -47597,7 +47609,7 @@
     <row r="669" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="6"/>
       <c r="B669" s="15"/>
-      <c r="C669" s="6"/>
+      <c r="C669" s="12"/>
       <c r="D669" s="6"/>
       <c r="E669" s="6"/>
       <c r="F669" s="6"/>
@@ -47661,7 +47673,7 @@
     <row r="670" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="6"/>
       <c r="B670" s="15"/>
-      <c r="C670" s="6"/>
+      <c r="C670" s="12"/>
       <c r="D670" s="6"/>
       <c r="E670" s="6"/>
       <c r="F670" s="6"/>
@@ -47725,7 +47737,7 @@
     <row r="671" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="6"/>
       <c r="B671" s="15"/>
-      <c r="C671" s="6"/>
+      <c r="C671" s="12"/>
       <c r="D671" s="6"/>
       <c r="E671" s="6"/>
       <c r="F671" s="6"/>
@@ -47789,7 +47801,7 @@
     <row r="672" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="6"/>
       <c r="B672" s="15"/>
-      <c r="C672" s="6"/>
+      <c r="C672" s="12"/>
       <c r="D672" s="6"/>
       <c r="E672" s="6"/>
       <c r="F672" s="6"/>
@@ -47853,7 +47865,7 @@
     <row r="673" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="6"/>
       <c r="B673" s="15"/>
-      <c r="C673" s="6"/>
+      <c r="C673" s="12"/>
       <c r="D673" s="6"/>
       <c r="E673" s="6"/>
       <c r="F673" s="6"/>
@@ -47917,7 +47929,7 @@
     <row r="674" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="6"/>
       <c r="B674" s="15"/>
-      <c r="C674" s="6"/>
+      <c r="C674" s="12"/>
       <c r="D674" s="6"/>
       <c r="E674" s="6"/>
       <c r="F674" s="6"/>
@@ -47981,7 +47993,7 @@
     <row r="675" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="6"/>
       <c r="B675" s="15"/>
-      <c r="C675" s="6"/>
+      <c r="C675" s="12"/>
       <c r="D675" s="6"/>
       <c r="E675" s="6"/>
       <c r="F675" s="6"/>
@@ -48045,7 +48057,7 @@
     <row r="676" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="6"/>
       <c r="B676" s="15"/>
-      <c r="C676" s="6"/>
+      <c r="C676" s="12"/>
       <c r="D676" s="6"/>
       <c r="E676" s="6"/>
       <c r="F676" s="6"/>
@@ -48109,7 +48121,7 @@
     <row r="677" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="6"/>
       <c r="B677" s="15"/>
-      <c r="C677" s="6"/>
+      <c r="C677" s="12"/>
       <c r="D677" s="6"/>
       <c r="E677" s="6"/>
       <c r="F677" s="6"/>
@@ -48173,7 +48185,7 @@
     <row r="678" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="6"/>
       <c r="B678" s="15"/>
-      <c r="C678" s="6"/>
+      <c r="C678" s="12"/>
       <c r="D678" s="6"/>
       <c r="E678" s="6"/>
       <c r="F678" s="6"/>
@@ -48237,7 +48249,7 @@
     <row r="679" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="6"/>
       <c r="B679" s="15"/>
-      <c r="C679" s="6"/>
+      <c r="C679" s="12"/>
       <c r="D679" s="6"/>
       <c r="E679" s="6"/>
       <c r="F679" s="6"/>
@@ -48301,7 +48313,7 @@
     <row r="680" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="6"/>
       <c r="B680" s="15"/>
-      <c r="C680" s="6"/>
+      <c r="C680" s="12"/>
       <c r="D680" s="6"/>
       <c r="E680" s="6"/>
       <c r="F680" s="6"/>
@@ -48365,7 +48377,7 @@
     <row r="681" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="6"/>
       <c r="B681" s="15"/>
-      <c r="C681" s="6"/>
+      <c r="C681" s="12"/>
       <c r="D681" s="6"/>
       <c r="E681" s="6"/>
       <c r="F681" s="6"/>
@@ -48429,7 +48441,7 @@
     <row r="682" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="6"/>
       <c r="B682" s="15"/>
-      <c r="C682" s="6"/>
+      <c r="C682" s="12"/>
       <c r="D682" s="6"/>
       <c r="E682" s="6"/>
       <c r="F682" s="6"/>
@@ -48493,7 +48505,7 @@
     <row r="683" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="6"/>
       <c r="B683" s="15"/>
-      <c r="C683" s="6"/>
+      <c r="C683" s="12"/>
       <c r="D683" s="6"/>
       <c r="E683" s="6"/>
       <c r="F683" s="6"/>
@@ -48557,7 +48569,7 @@
     <row r="684" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="6"/>
       <c r="B684" s="15"/>
-      <c r="C684" s="6"/>
+      <c r="C684" s="12"/>
       <c r="D684" s="6"/>
       <c r="E684" s="6"/>
       <c r="F684" s="6"/>
@@ -48621,7 +48633,7 @@
     <row r="685" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="6"/>
       <c r="B685" s="15"/>
-      <c r="C685" s="6"/>
+      <c r="C685" s="12"/>
       <c r="D685" s="6"/>
       <c r="E685" s="6"/>
       <c r="F685" s="6"/>
@@ -48685,7 +48697,7 @@
     <row r="686" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="6"/>
       <c r="B686" s="15"/>
-      <c r="C686" s="6"/>
+      <c r="C686" s="12"/>
       <c r="D686" s="6"/>
       <c r="E686" s="6"/>
       <c r="F686" s="6"/>
@@ -48749,7 +48761,7 @@
     <row r="687" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="6"/>
       <c r="B687" s="15"/>
-      <c r="C687" s="6"/>
+      <c r="C687" s="12"/>
       <c r="D687" s="6"/>
       <c r="E687" s="6"/>
       <c r="F687" s="6"/>
@@ -48813,7 +48825,7 @@
     <row r="688" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="6"/>
       <c r="B688" s="15"/>
-      <c r="C688" s="6"/>
+      <c r="C688" s="12"/>
       <c r="D688" s="6"/>
       <c r="E688" s="6"/>
       <c r="F688" s="6"/>
@@ -48877,7 +48889,7 @@
     <row r="689" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="6"/>
       <c r="B689" s="15"/>
-      <c r="C689" s="6"/>
+      <c r="C689" s="12"/>
       <c r="D689" s="6"/>
       <c r="E689" s="6"/>
       <c r="F689" s="6"/>
@@ -48941,7 +48953,7 @@
     <row r="690" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="6"/>
       <c r="B690" s="15"/>
-      <c r="C690" s="6"/>
+      <c r="C690" s="12"/>
       <c r="D690" s="6"/>
       <c r="E690" s="6"/>
       <c r="F690" s="6"/>
@@ -49005,7 +49017,7 @@
     <row r="691" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="6"/>
       <c r="B691" s="15"/>
-      <c r="C691" s="6"/>
+      <c r="C691" s="12"/>
       <c r="D691" s="6"/>
       <c r="E691" s="6"/>
       <c r="F691" s="6"/>
@@ -49069,7 +49081,7 @@
     <row r="692" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="6"/>
       <c r="B692" s="15"/>
-      <c r="C692" s="6"/>
+      <c r="C692" s="12"/>
       <c r="D692" s="6"/>
       <c r="E692" s="6"/>
       <c r="F692" s="6"/>
@@ -49133,7 +49145,7 @@
     <row r="693" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="6"/>
       <c r="B693" s="15"/>
-      <c r="C693" s="6"/>
+      <c r="C693" s="12"/>
       <c r="D693" s="6"/>
       <c r="E693" s="6"/>
       <c r="F693" s="6"/>
@@ -49197,7 +49209,7 @@
     <row r="694" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="6"/>
       <c r="B694" s="15"/>
-      <c r="C694" s="6"/>
+      <c r="C694" s="12"/>
       <c r="D694" s="6"/>
       <c r="E694" s="6"/>
       <c r="F694" s="6"/>
@@ -49261,7 +49273,7 @@
     <row r="695" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="6"/>
       <c r="B695" s="15"/>
-      <c r="C695" s="6"/>
+      <c r="C695" s="12"/>
       <c r="D695" s="6"/>
       <c r="E695" s="6"/>
       <c r="F695" s="6"/>
@@ -49325,7 +49337,7 @@
     <row r="696" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="6"/>
       <c r="B696" s="15"/>
-      <c r="C696" s="6"/>
+      <c r="C696" s="12"/>
       <c r="D696" s="6"/>
       <c r="E696" s="6"/>
       <c r="F696" s="6"/>
@@ -49389,7 +49401,7 @@
     <row r="697" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="6"/>
       <c r="B697" s="15"/>
-      <c r="C697" s="6"/>
+      <c r="C697" s="12"/>
       <c r="D697" s="6"/>
       <c r="E697" s="6"/>
       <c r="F697" s="6"/>
@@ -49453,7 +49465,7 @@
     <row r="698" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="6"/>
       <c r="B698" s="15"/>
-      <c r="C698" s="6"/>
+      <c r="C698" s="12"/>
       <c r="D698" s="6"/>
       <c r="E698" s="6"/>
       <c r="F698" s="6"/>
@@ -49517,7 +49529,7 @@
     <row r="699" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="6"/>
       <c r="B699" s="15"/>
-      <c r="C699" s="6"/>
+      <c r="C699" s="12"/>
       <c r="D699" s="6"/>
       <c r="E699" s="6"/>
       <c r="F699" s="6"/>
@@ -49581,7 +49593,7 @@
     <row r="700" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="6"/>
       <c r="B700" s="15"/>
-      <c r="C700" s="6"/>
+      <c r="C700" s="12"/>
       <c r="D700" s="6"/>
       <c r="E700" s="6"/>
       <c r="F700" s="6"/>
@@ -49645,7 +49657,7 @@
     <row r="701" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="6"/>
       <c r="B701" s="15"/>
-      <c r="C701" s="6"/>
+      <c r="C701" s="12"/>
       <c r="D701" s="6"/>
       <c r="E701" s="6"/>
       <c r="F701" s="6"/>
@@ -49709,7 +49721,7 @@
     <row r="702" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="6"/>
       <c r="B702" s="15"/>
-      <c r="C702" s="6"/>
+      <c r="C702" s="12"/>
       <c r="D702" s="6"/>
       <c r="E702" s="6"/>
       <c r="F702" s="6"/>
@@ -49773,7 +49785,7 @@
     <row r="703" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="6"/>
       <c r="B703" s="15"/>
-      <c r="C703" s="6"/>
+      <c r="C703" s="12"/>
       <c r="D703" s="6"/>
       <c r="E703" s="6"/>
       <c r="F703" s="6"/>
@@ -49837,7 +49849,7 @@
     <row r="704" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="6"/>
       <c r="B704" s="15"/>
-      <c r="C704" s="6"/>
+      <c r="C704" s="12"/>
       <c r="D704" s="6"/>
       <c r="E704" s="6"/>
       <c r="F704" s="6"/>
@@ -49901,7 +49913,7 @@
     <row r="705" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="6"/>
       <c r="B705" s="15"/>
-      <c r="C705" s="6"/>
+      <c r="C705" s="12"/>
       <c r="D705" s="6"/>
       <c r="E705" s="6"/>
       <c r="F705" s="6"/>
@@ -49965,7 +49977,7 @@
     <row r="706" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="6"/>
       <c r="B706" s="15"/>
-      <c r="C706" s="6"/>
+      <c r="C706" s="12"/>
       <c r="D706" s="6"/>
       <c r="E706" s="6"/>
       <c r="F706" s="6"/>
@@ -50029,7 +50041,7 @@
     <row r="707" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="6"/>
       <c r="B707" s="15"/>
-      <c r="C707" s="6"/>
+      <c r="C707" s="12"/>
       <c r="D707" s="6"/>
       <c r="E707" s="6"/>
       <c r="F707" s="6"/>
@@ -50093,7 +50105,7 @@
     <row r="708" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="6"/>
       <c r="B708" s="15"/>
-      <c r="C708" s="6"/>
+      <c r="C708" s="12"/>
       <c r="D708" s="6"/>
       <c r="E708" s="6"/>
       <c r="F708" s="6"/>
@@ -50157,7 +50169,7 @@
     <row r="709" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="6"/>
       <c r="B709" s="15"/>
-      <c r="C709" s="6"/>
+      <c r="C709" s="12"/>
       <c r="D709" s="6"/>
       <c r="E709" s="6"/>
       <c r="F709" s="6"/>
@@ -50221,7 +50233,7 @@
     <row r="710" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="6"/>
       <c r="B710" s="15"/>
-      <c r="C710" s="6"/>
+      <c r="C710" s="12"/>
       <c r="D710" s="6"/>
       <c r="E710" s="6"/>
       <c r="F710" s="6"/>
@@ -50285,7 +50297,7 @@
     <row r="711" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="6"/>
       <c r="B711" s="15"/>
-      <c r="C711" s="6"/>
+      <c r="C711" s="12"/>
       <c r="D711" s="6"/>
       <c r="E711" s="6"/>
       <c r="F711" s="6"/>
@@ -50349,7 +50361,7 @@
     <row r="712" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="6"/>
       <c r="B712" s="15"/>
-      <c r="C712" s="6"/>
+      <c r="C712" s="12"/>
       <c r="D712" s="6"/>
       <c r="E712" s="6"/>
       <c r="F712" s="6"/>
@@ -50413,7 +50425,7 @@
     <row r="713" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="6"/>
       <c r="B713" s="15"/>
-      <c r="C713" s="6"/>
+      <c r="C713" s="12"/>
       <c r="D713" s="6"/>
       <c r="E713" s="6"/>
       <c r="F713" s="6"/>
@@ -50477,7 +50489,7 @@
     <row r="714" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="6"/>
       <c r="B714" s="15"/>
-      <c r="C714" s="6"/>
+      <c r="C714" s="12"/>
       <c r="D714" s="6"/>
       <c r="E714" s="6"/>
       <c r="F714" s="6"/>
@@ -50541,7 +50553,7 @@
     <row r="715" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="6"/>
       <c r="B715" s="15"/>
-      <c r="C715" s="6"/>
+      <c r="C715" s="12"/>
       <c r="D715" s="6"/>
       <c r="E715" s="6"/>
       <c r="F715" s="6"/>
@@ -50605,7 +50617,7 @@
     <row r="716" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="6"/>
       <c r="B716" s="15"/>
-      <c r="C716" s="6"/>
+      <c r="C716" s="12"/>
       <c r="D716" s="6"/>
       <c r="E716" s="6"/>
       <c r="F716" s="6"/>
@@ -50669,7 +50681,7 @@
     <row r="717" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="6"/>
       <c r="B717" s="15"/>
-      <c r="C717" s="6"/>
+      <c r="C717" s="12"/>
       <c r="D717" s="6"/>
       <c r="E717" s="6"/>
       <c r="F717" s="6"/>
@@ -50733,7 +50745,7 @@
     <row r="718" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="6"/>
       <c r="B718" s="15"/>
-      <c r="C718" s="6"/>
+      <c r="C718" s="12"/>
       <c r="D718" s="6"/>
       <c r="E718" s="6"/>
       <c r="F718" s="6"/>
@@ -50797,7 +50809,7 @@
     <row r="719" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="6"/>
       <c r="B719" s="15"/>
-      <c r="C719" s="6"/>
+      <c r="C719" s="12"/>
       <c r="D719" s="6"/>
       <c r="E719" s="6"/>
       <c r="F719" s="6"/>
@@ -50861,7 +50873,7 @@
     <row r="720" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="6"/>
       <c r="B720" s="15"/>
-      <c r="C720" s="6"/>
+      <c r="C720" s="12"/>
       <c r="D720" s="6"/>
       <c r="E720" s="6"/>
       <c r="F720" s="6"/>
@@ -50925,7 +50937,7 @@
     <row r="721" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="6"/>
       <c r="B721" s="15"/>
-      <c r="C721" s="6"/>
+      <c r="C721" s="12"/>
       <c r="D721" s="6"/>
       <c r="E721" s="6"/>
       <c r="F721" s="6"/>
@@ -50989,7 +51001,7 @@
     <row r="722" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="6"/>
       <c r="B722" s="15"/>
-      <c r="C722" s="6"/>
+      <c r="C722" s="12"/>
       <c r="D722" s="6"/>
       <c r="E722" s="6"/>
       <c r="F722" s="6"/>
@@ -51053,7 +51065,7 @@
     <row r="723" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="6"/>
       <c r="B723" s="15"/>
-      <c r="C723" s="6"/>
+      <c r="C723" s="12"/>
       <c r="D723" s="6"/>
       <c r="E723" s="6"/>
       <c r="F723" s="6"/>
@@ -51117,7 +51129,7 @@
     <row r="724" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="6"/>
       <c r="B724" s="15"/>
-      <c r="C724" s="6"/>
+      <c r="C724" s="12"/>
       <c r="D724" s="6"/>
       <c r="E724" s="6"/>
       <c r="F724" s="6"/>
@@ -51181,7 +51193,7 @@
     <row r="725" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="6"/>
       <c r="B725" s="15"/>
-      <c r="C725" s="6"/>
+      <c r="C725" s="12"/>
       <c r="D725" s="6"/>
       <c r="E725" s="6"/>
       <c r="F725" s="6"/>
@@ -51245,7 +51257,7 @@
     <row r="726" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="6"/>
       <c r="B726" s="15"/>
-      <c r="C726" s="6"/>
+      <c r="C726" s="12"/>
       <c r="D726" s="6"/>
       <c r="E726" s="6"/>
       <c r="F726" s="6"/>
@@ -51309,7 +51321,7 @@
     <row r="727" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="6"/>
       <c r="B727" s="15"/>
-      <c r="C727" s="6"/>
+      <c r="C727" s="12"/>
       <c r="D727" s="6"/>
       <c r="E727" s="6"/>
       <c r="F727" s="6"/>
@@ -51373,7 +51385,7 @@
     <row r="728" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="6"/>
       <c r="B728" s="15"/>
-      <c r="C728" s="6"/>
+      <c r="C728" s="12"/>
       <c r="D728" s="6"/>
       <c r="E728" s="6"/>
       <c r="F728" s="6"/>
@@ -51437,7 +51449,7 @@
     <row r="729" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="6"/>
       <c r="B729" s="15"/>
-      <c r="C729" s="6"/>
+      <c r="C729" s="12"/>
       <c r="D729" s="6"/>
       <c r="E729" s="6"/>
       <c r="F729" s="6"/>
@@ -51501,7 +51513,7 @@
     <row r="730" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="6"/>
       <c r="B730" s="15"/>
-      <c r="C730" s="6"/>
+      <c r="C730" s="12"/>
       <c r="D730" s="6"/>
       <c r="E730" s="6"/>
       <c r="F730" s="6"/>
@@ -51565,7 +51577,7 @@
     <row r="731" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="6"/>
       <c r="B731" s="15"/>
-      <c r="C731" s="6"/>
+      <c r="C731" s="12"/>
       <c r="D731" s="6"/>
       <c r="E731" s="6"/>
       <c r="F731" s="6"/>
@@ -51629,7 +51641,7 @@
     <row r="732" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="6"/>
       <c r="B732" s="15"/>
-      <c r="C732" s="6"/>
+      <c r="C732" s="12"/>
       <c r="D732" s="6"/>
       <c r="E732" s="6"/>
       <c r="F732" s="6"/>
@@ -51693,7 +51705,7 @@
     <row r="733" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="6"/>
       <c r="B733" s="15"/>
-      <c r="C733" s="6"/>
+      <c r="C733" s="12"/>
       <c r="D733" s="6"/>
       <c r="E733" s="6"/>
       <c r="F733" s="6"/>
@@ -51757,7 +51769,7 @@
     <row r="734" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="6"/>
       <c r="B734" s="15"/>
-      <c r="C734" s="6"/>
+      <c r="C734" s="12"/>
       <c r="D734" s="6"/>
       <c r="E734" s="6"/>
       <c r="F734" s="6"/>
@@ -51821,7 +51833,7 @@
     <row r="735" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="6"/>
       <c r="B735" s="15"/>
-      <c r="C735" s="6"/>
+      <c r="C735" s="12"/>
       <c r="D735" s="6"/>
       <c r="E735" s="6"/>
       <c r="F735" s="6"/>
@@ -51885,7 +51897,7 @@
     <row r="736" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="6"/>
       <c r="B736" s="15"/>
-      <c r="C736" s="6"/>
+      <c r="C736" s="12"/>
       <c r="D736" s="6"/>
       <c r="E736" s="6"/>
       <c r="F736" s="6"/>
@@ -51949,7 +51961,7 @@
     <row r="737" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="6"/>
       <c r="B737" s="15"/>
-      <c r="C737" s="6"/>
+      <c r="C737" s="12"/>
       <c r="D737" s="6"/>
       <c r="E737" s="6"/>
       <c r="F737" s="6"/>
@@ -52013,7 +52025,7 @@
     <row r="738" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="6"/>
       <c r="B738" s="15"/>
-      <c r="C738" s="6"/>
+      <c r="C738" s="12"/>
       <c r="D738" s="6"/>
       <c r="E738" s="6"/>
       <c r="F738" s="6"/>
@@ -52077,7 +52089,7 @@
     <row r="739" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="6"/>
       <c r="B739" s="15"/>
-      <c r="C739" s="6"/>
+      <c r="C739" s="12"/>
       <c r="D739" s="6"/>
       <c r="E739" s="6"/>
       <c r="F739" s="6"/>
@@ -52141,7 +52153,7 @@
     <row r="740" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="6"/>
       <c r="B740" s="15"/>
-      <c r="C740" s="6"/>
+      <c r="C740" s="12"/>
       <c r="D740" s="6"/>
       <c r="E740" s="6"/>
       <c r="F740" s="6"/>
@@ -52205,7 +52217,7 @@
     <row r="741" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="6"/>
       <c r="B741" s="15"/>
-      <c r="C741" s="6"/>
+      <c r="C741" s="12"/>
       <c r="D741" s="6"/>
       <c r="E741" s="6"/>
       <c r="F741" s="6"/>
@@ -52269,7 +52281,7 @@
     <row r="742" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="6"/>
       <c r="B742" s="15"/>
-      <c r="C742" s="6"/>
+      <c r="C742" s="12"/>
       <c r="D742" s="6"/>
       <c r="E742" s="6"/>
       <c r="F742" s="6"/>
@@ -52333,7 +52345,7 @@
     <row r="743" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="6"/>
       <c r="B743" s="15"/>
-      <c r="C743" s="6"/>
+      <c r="C743" s="12"/>
       <c r="D743" s="6"/>
       <c r="E743" s="6"/>
       <c r="F743" s="6"/>
@@ -52397,7 +52409,7 @@
     <row r="744" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="6"/>
       <c r="B744" s="15"/>
-      <c r="C744" s="6"/>
+      <c r="C744" s="12"/>
       <c r="D744" s="6"/>
       <c r="E744" s="6"/>
       <c r="F744" s="6"/>
@@ -52461,7 +52473,7 @@
     <row r="745" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="6"/>
       <c r="B745" s="15"/>
-      <c r="C745" s="6"/>
+      <c r="C745" s="12"/>
       <c r="D745" s="6"/>
       <c r="E745" s="6"/>
       <c r="F745" s="6"/>
@@ -52525,7 +52537,7 @@
     <row r="746" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="6"/>
       <c r="B746" s="15"/>
-      <c r="C746" s="6"/>
+      <c r="C746" s="12"/>
       <c r="D746" s="6"/>
       <c r="E746" s="6"/>
       <c r="F746" s="6"/>
@@ -52589,7 +52601,7 @@
     <row r="747" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="6"/>
       <c r="B747" s="15"/>
-      <c r="C747" s="6"/>
+      <c r="C747" s="12"/>
       <c r="D747" s="6"/>
       <c r="E747" s="6"/>
       <c r="F747" s="6"/>
@@ -52653,7 +52665,7 @@
     <row r="748" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="6"/>
       <c r="B748" s="15"/>
-      <c r="C748" s="6"/>
+      <c r="C748" s="12"/>
       <c r="D748" s="6"/>
       <c r="E748" s="6"/>
       <c r="F748" s="6"/>
@@ -52717,7 +52729,7 @@
     <row r="749" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="6"/>
       <c r="B749" s="15"/>
-      <c r="C749" s="6"/>
+      <c r="C749" s="12"/>
       <c r="D749" s="6"/>
       <c r="E749" s="6"/>
       <c r="F749" s="6"/>
@@ -52781,7 +52793,7 @@
     <row r="750" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="6"/>
       <c r="B750" s="15"/>
-      <c r="C750" s="6"/>
+      <c r="C750" s="12"/>
       <c r="D750" s="6"/>
       <c r="E750" s="6"/>
       <c r="F750" s="6"/>
@@ -52845,7 +52857,7 @@
     <row r="751" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="6"/>
       <c r="B751" s="15"/>
-      <c r="C751" s="6"/>
+      <c r="C751" s="12"/>
       <c r="D751" s="6"/>
       <c r="E751" s="6"/>
       <c r="F751" s="6"/>
@@ -52909,7 +52921,7 @@
     <row r="752" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="6"/>
       <c r="B752" s="15"/>
-      <c r="C752" s="6"/>
+      <c r="C752" s="12"/>
       <c r="D752" s="6"/>
       <c r="E752" s="6"/>
       <c r="F752" s="6"/>
@@ -52973,7 +52985,7 @@
     <row r="753" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="6"/>
       <c r="B753" s="15"/>
-      <c r="C753" s="6"/>
+      <c r="C753" s="12"/>
       <c r="D753" s="6"/>
       <c r="E753" s="6"/>
       <c r="F753" s="6"/>
@@ -53037,7 +53049,7 @@
     <row r="754" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="6"/>
       <c r="B754" s="15"/>
-      <c r="C754" s="6"/>
+      <c r="C754" s="12"/>
       <c r="D754" s="6"/>
       <c r="E754" s="6"/>
       <c r="F754" s="6"/>
@@ -53101,7 +53113,7 @@
     <row r="755" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="6"/>
       <c r="B755" s="15"/>
-      <c r="C755" s="6"/>
+      <c r="C755" s="12"/>
       <c r="D755" s="6"/>
       <c r="E755" s="6"/>
       <c r="F755" s="6"/>
@@ -53165,7 +53177,7 @@
     <row r="756" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="6"/>
       <c r="B756" s="15"/>
-      <c r="C756" s="6"/>
+      <c r="C756" s="12"/>
       <c r="D756" s="6"/>
       <c r="E756" s="6"/>
       <c r="F756" s="6"/>
@@ -53229,7 +53241,7 @@
     <row r="757" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="6"/>
       <c r="B757" s="15"/>
-      <c r="C757" s="6"/>
+      <c r="C757" s="12"/>
       <c r="D757" s="6"/>
       <c r="E757" s="6"/>
       <c r="F757" s="6"/>
@@ -53293,7 +53305,7 @@
     <row r="758" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="6"/>
       <c r="B758" s="15"/>
-      <c r="C758" s="6"/>
+      <c r="C758" s="12"/>
       <c r="D758" s="6"/>
       <c r="E758" s="6"/>
       <c r="F758" s="6"/>
@@ -53357,7 +53369,7 @@
     <row r="759" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="6"/>
       <c r="B759" s="15"/>
-      <c r="C759" s="6"/>
+      <c r="C759" s="12"/>
       <c r="D759" s="6"/>
       <c r="E759" s="6"/>
       <c r="F759" s="6"/>
@@ -53421,7 +53433,7 @@
     <row r="760" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="6"/>
       <c r="B760" s="15"/>
-      <c r="C760" s="6"/>
+      <c r="C760" s="12"/>
       <c r="D760" s="6"/>
       <c r="E760" s="6"/>
       <c r="F760" s="6"/>
@@ -53485,7 +53497,7 @@
     <row r="761" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="6"/>
       <c r="B761" s="15"/>
-      <c r="C761" s="6"/>
+      <c r="C761" s="12"/>
       <c r="D761" s="6"/>
       <c r="E761" s="6"/>
       <c r="F761" s="6"/>
@@ -53549,7 +53561,7 @@
     <row r="762" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="6"/>
       <c r="B762" s="15"/>
-      <c r="C762" s="6"/>
+      <c r="C762" s="12"/>
       <c r="D762" s="6"/>
       <c r="E762" s="6"/>
       <c r="F762" s="6"/>
@@ -53613,7 +53625,7 @@
     <row r="763" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="6"/>
       <c r="B763" s="15"/>
-      <c r="C763" s="6"/>
+      <c r="C763" s="12"/>
       <c r="D763" s="6"/>
       <c r="E763" s="6"/>
       <c r="F763" s="6"/>
@@ -53677,7 +53689,7 @@
     <row r="764" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="6"/>
       <c r="B764" s="15"/>
-      <c r="C764" s="6"/>
+      <c r="C764" s="12"/>
       <c r="D764" s="6"/>
       <c r="E764" s="6"/>
       <c r="F764" s="6"/>
@@ -53741,7 +53753,7 @@
     <row r="765" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="6"/>
       <c r="B765" s="15"/>
-      <c r="C765" s="6"/>
+      <c r="C765" s="12"/>
       <c r="D765" s="6"/>
       <c r="E765" s="6"/>
       <c r="F765" s="6"/>
@@ -53805,7 +53817,7 @@
     <row r="766" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="6"/>
       <c r="B766" s="15"/>
-      <c r="C766" s="6"/>
+      <c r="C766" s="12"/>
       <c r="D766" s="6"/>
       <c r="E766" s="6"/>
       <c r="F766" s="6"/>
@@ -53869,7 +53881,7 @@
     <row r="767" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="6"/>
       <c r="B767" s="15"/>
-      <c r="C767" s="6"/>
+      <c r="C767" s="12"/>
       <c r="D767" s="6"/>
       <c r="E767" s="6"/>
       <c r="F767" s="6"/>
@@ -53933,7 +53945,7 @@
     <row r="768" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="6"/>
       <c r="B768" s="15"/>
-      <c r="C768" s="6"/>
+      <c r="C768" s="12"/>
       <c r="D768" s="6"/>
       <c r="E768" s="6"/>
       <c r="F768" s="6"/>
@@ -53997,7 +54009,7 @@
     <row r="769" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="6"/>
       <c r="B769" s="15"/>
-      <c r="C769" s="6"/>
+      <c r="C769" s="12"/>
       <c r="D769" s="6"/>
       <c r="E769" s="6"/>
       <c r="F769" s="6"/>
@@ -54061,7 +54073,7 @@
     <row r="770" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="6"/>
       <c r="B770" s="15"/>
-      <c r="C770" s="6"/>
+      <c r="C770" s="12"/>
       <c r="D770" s="6"/>
       <c r="E770" s="6"/>
       <c r="F770" s="6"/>
@@ -54125,7 +54137,7 @@
     <row r="771" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="6"/>
       <c r="B771" s="15"/>
-      <c r="C771" s="6"/>
+      <c r="C771" s="12"/>
       <c r="D771" s="6"/>
       <c r="E771" s="6"/>
       <c r="F771" s="6"/>
@@ -54189,7 +54201,7 @@
     <row r="772" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="6"/>
       <c r="B772" s="15"/>
-      <c r="C772" s="6"/>
+      <c r="C772" s="12"/>
       <c r="D772" s="6"/>
       <c r="E772" s="6"/>
       <c r="F772" s="6"/>
@@ -54253,7 +54265,7 @@
     <row r="773" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="6"/>
       <c r="B773" s="15"/>
-      <c r="C773" s="6"/>
+      <c r="C773" s="12"/>
       <c r="D773" s="6"/>
       <c r="E773" s="6"/>
       <c r="F773" s="6"/>
@@ -54317,7 +54329,7 @@
     <row r="774" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="6"/>
       <c r="B774" s="15"/>
-      <c r="C774" s="6"/>
+      <c r="C774" s="12"/>
       <c r="D774" s="6"/>
       <c r="E774" s="6"/>
       <c r="F774" s="6"/>
@@ -54381,7 +54393,7 @@
     <row r="775" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="6"/>
       <c r="B775" s="15"/>
-      <c r="C775" s="6"/>
+      <c r="C775" s="12"/>
       <c r="D775" s="6"/>
       <c r="E775" s="6"/>
       <c r="F775" s="6"/>
@@ -54445,7 +54457,7 @@
     <row r="776" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="6"/>
       <c r="B776" s="15"/>
-      <c r="C776" s="6"/>
+      <c r="C776" s="12"/>
       <c r="D776" s="6"/>
       <c r="E776" s="6"/>
       <c r="F776" s="6"/>
@@ -54509,7 +54521,7 @@
     <row r="777" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="6"/>
       <c r="B777" s="15"/>
-      <c r="C777" s="6"/>
+      <c r="C777" s="12"/>
       <c r="D777" s="6"/>
       <c r="E777" s="6"/>
       <c r="F777" s="6"/>
@@ -54573,7 +54585,7 @@
     <row r="778" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="6"/>
       <c r="B778" s="15"/>
-      <c r="C778" s="6"/>
+      <c r="C778" s="12"/>
       <c r="D778" s="6"/>
       <c r="E778" s="6"/>
       <c r="F778" s="6"/>
@@ -54637,7 +54649,7 @@
     <row r="779" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="6"/>
       <c r="B779" s="15"/>
-      <c r="C779" s="6"/>
+      <c r="C779" s="12"/>
       <c r="D779" s="6"/>
       <c r="E779" s="6"/>
       <c r="F779" s="6"/>
@@ -54701,7 +54713,7 @@
     <row r="780" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="6"/>
       <c r="B780" s="15"/>
-      <c r="C780" s="6"/>
+      <c r="C780" s="12"/>
       <c r="D780" s="6"/>
       <c r="E780" s="6"/>
       <c r="F780" s="6"/>
@@ -54765,7 +54777,7 @@
     <row r="781" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="6"/>
       <c r="B781" s="15"/>
-      <c r="C781" s="6"/>
+      <c r="C781" s="12"/>
       <c r="D781" s="6"/>
       <c r="E781" s="6"/>
       <c r="F781" s="6"/>
@@ -54829,7 +54841,7 @@
     <row r="782" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="6"/>
       <c r="B782" s="15"/>
-      <c r="C782" s="6"/>
+      <c r="C782" s="12"/>
       <c r="D782" s="6"/>
       <c r="E782" s="6"/>
       <c r="F782" s="6"/>
@@ -54893,7 +54905,7 @@
     <row r="783" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="6"/>
       <c r="B783" s="15"/>
-      <c r="C783" s="6"/>
+      <c r="C783" s="12"/>
       <c r="D783" s="6"/>
       <c r="E783" s="6"/>
       <c r="F783" s="6"/>
@@ -54957,7 +54969,7 @@
     <row r="784" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="6"/>
       <c r="B784" s="15"/>
-      <c r="C784" s="6"/>
+      <c r="C784" s="12"/>
       <c r="D784" s="6"/>
       <c r="E784" s="6"/>
       <c r="F784" s="6"/>
@@ -55021,7 +55033,7 @@
     <row r="785" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="6"/>
       <c r="B785" s="15"/>
-      <c r="C785" s="6"/>
+      <c r="C785" s="12"/>
       <c r="D785" s="6"/>
       <c r="E785" s="6"/>
       <c r="F785" s="6"/>
@@ -55085,7 +55097,7 @@
     <row r="786" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="6"/>
       <c r="B786" s="15"/>
-      <c r="C786" s="6"/>
+      <c r="C786" s="12"/>
       <c r="D786" s="6"/>
       <c r="E786" s="6"/>
       <c r="F786" s="6"/>
@@ -55149,7 +55161,7 @@
     <row r="787" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="6"/>
       <c r="B787" s="15"/>
-      <c r="C787" s="6"/>
+      <c r="C787" s="12"/>
       <c r="D787" s="6"/>
       <c r="E787" s="6"/>
       <c r="F787" s="6"/>
@@ -55213,7 +55225,7 @@
     <row r="788" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="6"/>
       <c r="B788" s="15"/>
-      <c r="C788" s="6"/>
+      <c r="C788" s="12"/>
       <c r="D788" s="6"/>
       <c r="E788" s="6"/>
       <c r="F788" s="6"/>
@@ -55277,7 +55289,7 @@
     <row r="789" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="6"/>
       <c r="B789" s="15"/>
-      <c r="C789" s="6"/>
+      <c r="C789" s="12"/>
       <c r="D789" s="6"/>
       <c r="E789" s="6"/>
       <c r="F789" s="6"/>
@@ -55341,7 +55353,7 @@
     <row r="790" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="6"/>
       <c r="B790" s="15"/>
-      <c r="C790" s="6"/>
+      <c r="C790" s="12"/>
       <c r="D790" s="6"/>
       <c r="E790" s="6"/>
       <c r="F790" s="6"/>
@@ -55405,7 +55417,7 @@
     <row r="791" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="6"/>
       <c r="B791" s="15"/>
-      <c r="C791" s="6"/>
+      <c r="C791" s="12"/>
       <c r="D791" s="6"/>
       <c r="E791" s="6"/>
       <c r="F791" s="6"/>
@@ -55469,7 +55481,7 @@
     <row r="792" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="6"/>
       <c r="B792" s="15"/>
-      <c r="C792" s="6"/>
+      <c r="C792" s="12"/>
       <c r="D792" s="6"/>
       <c r="E792" s="6"/>
       <c r="F792" s="6"/>
@@ -55533,7 +55545,7 @@
     <row r="793" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="6"/>
       <c r="B793" s="15"/>
-      <c r="C793" s="6"/>
+      <c r="C793" s="12"/>
       <c r="D793" s="6"/>
       <c r="E793" s="6"/>
       <c r="F793" s="6"/>
@@ -55597,7 +55609,7 @@
     <row r="794" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="6"/>
       <c r="B794" s="15"/>
-      <c r="C794" s="6"/>
+      <c r="C794" s="12"/>
       <c r="D794" s="6"/>
       <c r="E794" s="6"/>
       <c r="F794" s="6"/>
@@ -55661,7 +55673,7 @@
     <row r="795" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="6"/>
       <c r="B795" s="15"/>
-      <c r="C795" s="6"/>
+      <c r="C795" s="12"/>
       <c r="D795" s="6"/>
       <c r="E795" s="6"/>
       <c r="F795" s="6"/>
@@ -55725,7 +55737,7 @@
     <row r="796" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="6"/>
       <c r="B796" s="15"/>
-      <c r="C796" s="6"/>
+      <c r="C796" s="12"/>
       <c r="D796" s="6"/>
       <c r="E796" s="6"/>
       <c r="F796" s="6"/>
@@ -55789,7 +55801,7 @@
     <row r="797" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="6"/>
       <c r="B797" s="15"/>
-      <c r="C797" s="6"/>
+      <c r="C797" s="12"/>
       <c r="D797" s="6"/>
       <c r="E797" s="6"/>
       <c r="F797" s="6"/>
@@ -55853,7 +55865,7 @@
     <row r="798" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="6"/>
       <c r="B798" s="15"/>
-      <c r="C798" s="6"/>
+      <c r="C798" s="12"/>
       <c r="D798" s="6"/>
       <c r="E798" s="6"/>
       <c r="F798" s="6"/>
@@ -55917,7 +55929,7 @@
     <row r="799" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="6"/>
       <c r="B799" s="15"/>
-      <c r="C799" s="6"/>
+      <c r="C799" s="12"/>
       <c r="D799" s="6"/>
       <c r="E799" s="6"/>
       <c r="F799" s="6"/>
@@ -55981,7 +55993,7 @@
     <row r="800" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="6"/>
       <c r="B800" s="15"/>
-      <c r="C800" s="6"/>
+      <c r="C800" s="12"/>
       <c r="D800" s="6"/>
       <c r="E800" s="6"/>
       <c r="F800" s="6"/>
@@ -56045,7 +56057,7 @@
     <row r="801" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="6"/>
       <c r="B801" s="15"/>
-      <c r="C801" s="6"/>
+      <c r="C801" s="12"/>
       <c r="D801" s="6"/>
       <c r="E801" s="6"/>
       <c r="F801" s="6"/>
@@ -56109,7 +56121,7 @@
     <row r="802" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="6"/>
       <c r="B802" s="15"/>
-      <c r="C802" s="6"/>
+      <c r="C802" s="12"/>
       <c r="D802" s="6"/>
       <c r="E802" s="6"/>
       <c r="F802" s="6"/>
@@ -56173,7 +56185,7 @@
     <row r="803" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="6"/>
       <c r="B803" s="15"/>
-      <c r="C803" s="6"/>
+      <c r="C803" s="12"/>
       <c r="D803" s="6"/>
       <c r="E803" s="6"/>
       <c r="F803" s="6"/>
@@ -56237,7 +56249,7 @@
     <row r="804" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="6"/>
       <c r="B804" s="15"/>
-      <c r="C804" s="6"/>
+      <c r="C804" s="12"/>
       <c r="D804" s="6"/>
       <c r="E804" s="6"/>
       <c r="F804" s="6"/>
@@ -56301,7 +56313,7 @@
     <row r="805" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="6"/>
       <c r="B805" s="15"/>
-      <c r="C805" s="6"/>
+      <c r="C805" s="12"/>
       <c r="D805" s="6"/>
       <c r="E805" s="6"/>
       <c r="F805" s="6"/>
@@ -56365,7 +56377,7 @@
     <row r="806" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="6"/>
       <c r="B806" s="15"/>
-      <c r="C806" s="6"/>
+      <c r="C806" s="12"/>
       <c r="D806" s="6"/>
       <c r="E806" s="6"/>
       <c r="F806" s="6"/>
@@ -56429,7 +56441,7 @@
     <row r="807" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="6"/>
       <c r="B807" s="15"/>
-      <c r="C807" s="6"/>
+      <c r="C807" s="12"/>
       <c r="D807" s="6"/>
       <c r="E807" s="6"/>
       <c r="F807" s="6"/>
@@ -56493,7 +56505,7 @@
     <row r="808" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="6"/>
       <c r="B808" s="15"/>
-      <c r="C808" s="6"/>
+      <c r="C808" s="12"/>
       <c r="D808" s="6"/>
       <c r="E808" s="6"/>
       <c r="F808" s="6"/>
@@ -56557,7 +56569,7 @@
     <row r="809" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="6"/>
       <c r="B809" s="15"/>
-      <c r="C809" s="6"/>
+      <c r="C809" s="12"/>
       <c r="D809" s="6"/>
       <c r="E809" s="6"/>
       <c r="F809" s="6"/>
@@ -56621,7 +56633,7 @@
     <row r="810" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="6"/>
       <c r="B810" s="15"/>
-      <c r="C810" s="6"/>
+      <c r="C810" s="12"/>
       <c r="D810" s="6"/>
       <c r="E810" s="6"/>
       <c r="F810" s="6"/>
@@ -56685,7 +56697,7 @@
     <row r="811" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="6"/>
       <c r="B811" s="15"/>
-      <c r="C811" s="6"/>
+      <c r="C811" s="12"/>
       <c r="D811" s="6"/>
       <c r="E811" s="6"/>
       <c r="F811" s="6"/>
@@ -56749,7 +56761,7 @@
     <row r="812" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="6"/>
       <c r="B812" s="15"/>
-      <c r="C812" s="6"/>
+      <c r="C812" s="12"/>
       <c r="D812" s="6"/>
       <c r="E812" s="6"/>
       <c r="F812" s="6"/>
@@ -56813,7 +56825,7 @@
     <row r="813" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="6"/>
       <c r="B813" s="15"/>
-      <c r="C813" s="6"/>
+      <c r="C813" s="12"/>
       <c r="D813" s="6"/>
       <c r="E813" s="6"/>
       <c r="F813" s="6"/>
@@ -56877,7 +56889,7 @@
     <row r="814" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="6"/>
       <c r="B814" s="15"/>
-      <c r="C814" s="6"/>
+      <c r="C814" s="12"/>
       <c r="D814" s="6"/>
       <c r="E814" s="6"/>
       <c r="F814" s="6"/>
@@ -56941,7 +56953,7 @@
     <row r="815" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="6"/>
       <c r="B815" s="15"/>
-      <c r="C815" s="6"/>
+      <c r="C815" s="12"/>
       <c r="D815" s="6"/>
       <c r="E815" s="6"/>
       <c r="F815" s="6"/>
@@ -57005,7 +57017,7 @@
     <row r="816" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="6"/>
       <c r="B816" s="15"/>
-      <c r="C816" s="6"/>
+      <c r="C816" s="12"/>
       <c r="D816" s="6"/>
       <c r="E816" s="6"/>
       <c r="F816" s="6"/>
@@ -57069,7 +57081,7 @@
     <row r="817" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="6"/>
       <c r="B817" s="15"/>
-      <c r="C817" s="6"/>
+      <c r="C817" s="12"/>
       <c r="D817" s="6"/>
       <c r="E817" s="6"/>
       <c r="F817" s="6"/>
@@ -57133,7 +57145,7 @@
     <row r="818" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="6"/>
       <c r="B818" s="15"/>
-      <c r="C818" s="6"/>
+      <c r="C818" s="12"/>
       <c r="D818" s="6"/>
       <c r="E818" s="6"/>
       <c r="F818" s="6"/>
@@ -57197,7 +57209,7 @@
     <row r="819" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="6"/>
       <c r="B819" s="15"/>
-      <c r="C819" s="6"/>
+      <c r="C819" s="12"/>
       <c r="D819" s="6"/>
       <c r="E819" s="6"/>
       <c r="F819" s="6"/>
@@ -57261,7 +57273,7 @@
     <row r="820" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="6"/>
       <c r="B820" s="15"/>
-      <c r="C820" s="6"/>
+      <c r="C820" s="12"/>
       <c r="D820" s="6"/>
       <c r="E820" s="6"/>
       <c r="F820" s="6"/>
@@ -57325,7 +57337,7 @@
     <row r="821" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="6"/>
       <c r="B821" s="15"/>
-      <c r="C821" s="6"/>
+      <c r="C821" s="12"/>
       <c r="D821" s="6"/>
       <c r="E821" s="6"/>
       <c r="F821" s="6"/>
@@ -57389,7 +57401,7 @@
     <row r="822" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="6"/>
       <c r="B822" s="15"/>
-      <c r="C822" s="6"/>
+      <c r="C822" s="12"/>
       <c r="D822" s="6"/>
       <c r="E822" s="6"/>
       <c r="F822" s="6"/>
@@ -57453,7 +57465,7 @@
     <row r="823" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="6"/>
       <c r="B823" s="15"/>
-      <c r="C823" s="6"/>
+      <c r="C823" s="12"/>
       <c r="D823" s="6"/>
       <c r="E823" s="6"/>
       <c r="F823" s="6"/>
@@ -57517,7 +57529,7 @@
     <row r="824" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="6"/>
       <c r="B824" s="15"/>
-      <c r="C824" s="6"/>
+      <c r="C824" s="12"/>
       <c r="D824" s="6"/>
       <c r="E824" s="6"/>
       <c r="F824" s="6"/>
@@ -57581,7 +57593,7 @@
     <row r="825" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="6"/>
       <c r="B825" s="15"/>
-      <c r="C825" s="6"/>
+      <c r="C825" s="12"/>
       <c r="D825" s="6"/>
       <c r="E825" s="6"/>
       <c r="F825" s="6"/>
@@ -57645,7 +57657,7 @@
     <row r="826" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="6"/>
       <c r="B826" s="15"/>
-      <c r="C826" s="6"/>
+      <c r="C826" s="12"/>
       <c r="D826" s="6"/>
       <c r="E826" s="6"/>
       <c r="F826" s="6"/>
@@ -57709,7 +57721,7 @@
     <row r="827" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="6"/>
       <c r="B827" s="15"/>
-      <c r="C827" s="6"/>
+      <c r="C827" s="12"/>
       <c r="D827" s="6"/>
       <c r="E827" s="6"/>
       <c r="F827" s="6"/>
@@ -57773,7 +57785,7 @@
     <row r="828" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="6"/>
       <c r="B828" s="15"/>
-      <c r="C828" s="6"/>
+      <c r="C828" s="12"/>
       <c r="D828" s="6"/>
       <c r="E828" s="6"/>
       <c r="F828" s="6"/>
@@ -57837,7 +57849,7 @@
     <row r="829" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="6"/>
       <c r="B829" s="15"/>
-      <c r="C829" s="6"/>
+      <c r="C829" s="12"/>
       <c r="D829" s="6"/>
       <c r="E829" s="6"/>
       <c r="F829" s="6"/>
@@ -57901,7 +57913,7 @@
     <row r="830" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="6"/>
       <c r="B830" s="15"/>
-      <c r="C830" s="6"/>
+      <c r="C830" s="12"/>
       <c r="D830" s="6"/>
       <c r="E830" s="6"/>
       <c r="F830" s="6"/>
@@ -57965,7 +57977,7 @@
     <row r="831" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="6"/>
       <c r="B831" s="15"/>
-      <c r="C831" s="6"/>
+      <c r="C831" s="12"/>
       <c r="D831" s="6"/>
       <c r="E831" s="6"/>
       <c r="F831" s="6"/>
@@ -58029,7 +58041,7 @@
     <row r="832" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="6"/>
       <c r="B832" s="15"/>
-      <c r="C832" s="6"/>
+      <c r="C832" s="12"/>
       <c r="D832" s="6"/>
       <c r="E832" s="6"/>
       <c r="F832" s="6"/>
@@ -58093,7 +58105,7 @@
     <row r="833" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="6"/>
       <c r="B833" s="15"/>
-      <c r="C833" s="6"/>
+      <c r="C833" s="12"/>
       <c r="D833" s="6"/>
       <c r="E833" s="6"/>
       <c r="F833" s="6"/>
@@ -58157,7 +58169,7 @@
     <row r="834" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="6"/>
       <c r="B834" s="15"/>
-      <c r="C834" s="6"/>
+      <c r="C834" s="12"/>
       <c r="D834" s="6"/>
       <c r="E834" s="6"/>
       <c r="F834" s="6"/>
@@ -58221,7 +58233,7 @@
     <row r="835" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="6"/>
       <c r="B835" s="15"/>
-      <c r="C835" s="6"/>
+      <c r="C835" s="12"/>
       <c r="D835" s="6"/>
       <c r="E835" s="6"/>
       <c r="F835" s="6"/>
@@ -58285,7 +58297,7 @@
     <row r="836" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="6"/>
       <c r="B836" s="15"/>
-      <c r="C836" s="6"/>
+      <c r="C836" s="12"/>
       <c r="D836" s="6"/>
       <c r="E836" s="6"/>
       <c r="F836" s="6"/>
@@ -58349,7 +58361,7 @@
     <row r="837" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="6"/>
       <c r="B837" s="15"/>
-      <c r="C837" s="6"/>
+      <c r="C837" s="12"/>
       <c r="D837" s="6"/>
       <c r="E837" s="6"/>
       <c r="F837" s="6"/>
@@ -58413,7 +58425,7 @@
     <row r="838" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="6"/>
       <c r="B838" s="15"/>
-      <c r="C838" s="6"/>
+      <c r="C838" s="12"/>
       <c r="D838" s="6"/>
       <c r="E838" s="6"/>
       <c r="F838" s="6"/>
@@ -58477,7 +58489,7 @@
     <row r="839" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="6"/>
       <c r="B839" s="15"/>
-      <c r="C839" s="6"/>
+      <c r="C839" s="12"/>
       <c r="D839" s="6"/>
       <c r="E839" s="6"/>
       <c r="F839" s="6"/>
@@ -58541,7 +58553,7 @@
     <row r="840" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="6"/>
       <c r="B840" s="15"/>
-      <c r="C840" s="6"/>
+      <c r="C840" s="12"/>
       <c r="D840" s="6"/>
       <c r="E840" s="6"/>
       <c r="F840" s="6"/>
@@ -58605,7 +58617,7 @@
     <row r="841" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="6"/>
       <c r="B841" s="15"/>
-      <c r="C841" s="6"/>
+      <c r="C841" s="12"/>
       <c r="D841" s="6"/>
       <c r="E841" s="6"/>
       <c r="F841" s="6"/>
@@ -58669,7 +58681,7 @@
     <row r="842" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="6"/>
       <c r="B842" s="15"/>
-      <c r="C842" s="6"/>
+      <c r="C842" s="12"/>
       <c r="D842" s="6"/>
       <c r="E842" s="6"/>
       <c r="F842" s="6"/>
@@ -58733,7 +58745,7 @@
     <row r="843" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="6"/>
       <c r="B843" s="15"/>
-      <c r="C843" s="6"/>
+      <c r="C843" s="12"/>
       <c r="D843" s="6"/>
       <c r="E843" s="6"/>
       <c r="F843" s="6"/>
@@ -58797,7 +58809,7 @@
     <row r="844" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="6"/>
       <c r="B844" s="15"/>
-      <c r="C844" s="6"/>
+      <c r="C844" s="12"/>
       <c r="D844" s="6"/>
       <c r="E844" s="6"/>
       <c r="F844" s="6"/>
@@ -58861,7 +58873,7 @@
     <row r="845" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="6"/>
       <c r="B845" s="15"/>
-      <c r="C845" s="6"/>
+      <c r="C845" s="12"/>
       <c r="D845" s="6"/>
       <c r="E845" s="6"/>
       <c r="F845" s="6"/>
@@ -58925,7 +58937,7 @@
     <row r="846" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="6"/>
       <c r="B846" s="15"/>
-      <c r="C846" s="6"/>
+      <c r="C846" s="12"/>
       <c r="D846" s="6"/>
       <c r="E846" s="6"/>
       <c r="F846" s="6"/>
@@ -58989,7 +59001,7 @@
     <row r="847" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="6"/>
       <c r="B847" s="15"/>
-      <c r="C847" s="6"/>
+      <c r="C847" s="12"/>
       <c r="D847" s="6"/>
       <c r="E847" s="6"/>
       <c r="F847" s="6"/>
@@ -59053,7 +59065,7 @@
     <row r="848" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="6"/>
       <c r="B848" s="15"/>
-      <c r="C848" s="6"/>
+      <c r="C848" s="12"/>
       <c r="D848" s="6"/>
       <c r="E848" s="6"/>
       <c r="F848" s="6"/>
@@ -59117,7 +59129,7 @@
     <row r="849" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="6"/>
       <c r="B849" s="15"/>
-      <c r="C849" s="6"/>
+      <c r="C849" s="12"/>
       <c r="D849" s="6"/>
       <c r="E849" s="6"/>
       <c r="F849" s="6"/>
@@ -59181,7 +59193,7 @@
     <row r="850" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="6"/>
       <c r="B850" s="15"/>
-      <c r="C850" s="6"/>
+      <c r="C850" s="12"/>
       <c r="D850" s="6"/>
       <c r="E850" s="6"/>
       <c r="F850" s="6"/>
@@ -59245,7 +59257,7 @@
     <row r="851" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="6"/>
       <c r="B851" s="15"/>
-      <c r="C851" s="6"/>
+      <c r="C851" s="12"/>
       <c r="D851" s="6"/>
       <c r="E851" s="6"/>
       <c r="F851" s="6"/>
@@ -59309,7 +59321,7 @@
     <row r="852" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="6"/>
       <c r="B852" s="15"/>
-      <c r="C852" s="6"/>
+      <c r="C852" s="12"/>
       <c r="D852" s="6"/>
       <c r="E852" s="6"/>
       <c r="F852" s="6"/>
@@ -59373,7 +59385,7 @@
     <row r="853" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="6"/>
       <c r="B853" s="15"/>
-      <c r="C853" s="6"/>
+      <c r="C853" s="12"/>
       <c r="D853" s="6"/>
       <c r="E853" s="6"/>
       <c r="F853" s="6"/>
@@ -59437,7 +59449,7 @@
     <row r="854" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="6"/>
       <c r="B854" s="15"/>
-      <c r="C854" s="6"/>
+      <c r="C854" s="12"/>
       <c r="D854" s="6"/>
       <c r="E854" s="6"/>
       <c r="F854" s="6"/>
@@ -59501,7 +59513,7 @@
     <row r="855" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="6"/>
       <c r="B855" s="15"/>
-      <c r="C855" s="6"/>
+      <c r="C855" s="12"/>
       <c r="D855" s="6"/>
       <c r="E855" s="6"/>
       <c r="F855" s="6"/>
@@ -59565,7 +59577,7 @@
     <row r="856" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="6"/>
       <c r="B856" s="15"/>
-      <c r="C856" s="6"/>
+      <c r="C856" s="12"/>
       <c r="D856" s="6"/>
       <c r="E856" s="6"/>
       <c r="F856" s="6"/>
@@ -59629,7 +59641,7 @@
     <row r="857" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="6"/>
       <c r="B857" s="15"/>
-      <c r="C857" s="6"/>
+      <c r="C857" s="12"/>
       <c r="D857" s="6"/>
       <c r="E857" s="6"/>
       <c r="F857" s="6"/>
@@ -59693,7 +59705,7 @@
     <row r="858" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="6"/>
       <c r="B858" s="15"/>
-      <c r="C858" s="6"/>
+      <c r="C858" s="12"/>
       <c r="D858" s="6"/>
       <c r="E858" s="6"/>
       <c r="F858" s="6"/>
@@ -59757,7 +59769,7 @@
     <row r="859" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="6"/>
       <c r="B859" s="15"/>
-      <c r="C859" s="6"/>
+      <c r="C859" s="12"/>
       <c r="D859" s="6"/>
       <c r="E859" s="6"/>
       <c r="F859" s="6"/>
@@ -59821,7 +59833,7 @@
     <row r="860" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="6"/>
       <c r="B860" s="15"/>
-      <c r="C860" s="6"/>
+      <c r="C860" s="12"/>
       <c r="D860" s="6"/>
       <c r="E860" s="6"/>
       <c r="F860" s="6"/>
@@ -59885,7 +59897,7 @@
     <row r="861" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="6"/>
       <c r="B861" s="15"/>
-      <c r="C861" s="6"/>
+      <c r="C861" s="12"/>
       <c r="D861" s="6"/>
       <c r="E861" s="6"/>
       <c r="F861" s="6"/>
@@ -59949,7 +59961,7 @@
     <row r="862" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="6"/>
       <c r="B862" s="15"/>
-      <c r="C862" s="6"/>
+      <c r="C862" s="12"/>
       <c r="D862" s="6"/>
       <c r="E862" s="6"/>
       <c r="F862" s="6"/>
@@ -60013,7 +60025,7 @@
     <row r="863" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="6"/>
       <c r="B863" s="15"/>
-      <c r="C863" s="6"/>
+      <c r="C863" s="12"/>
       <c r="D863" s="6"/>
       <c r="E863" s="6"/>
       <c r="F863" s="6"/>
@@ -60077,7 +60089,7 @@
     <row r="864" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="6"/>
       <c r="B864" s="15"/>
-      <c r="C864" s="6"/>
+      <c r="C864" s="12"/>
       <c r="D864" s="6"/>
       <c r="E864" s="6"/>
       <c r="F864" s="6"/>
@@ -60141,7 +60153,7 @@
     <row r="865" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="6"/>
       <c r="B865" s="15"/>
-      <c r="C865" s="6"/>
+      <c r="C865" s="12"/>
       <c r="D865" s="6"/>
       <c r="E865" s="6"/>
       <c r="F865" s="6"/>
@@ -60205,7 +60217,7 @@
     <row r="866" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="6"/>
       <c r="B866" s="15"/>
-      <c r="C866" s="6"/>
+      <c r="C866" s="12"/>
       <c r="D866" s="6"/>
       <c r="E866" s="6"/>
       <c r="F866" s="6"/>
@@ -60269,7 +60281,7 @@
     <row r="867" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="6"/>
       <c r="B867" s="15"/>
-      <c r="C867" s="6"/>
+      <c r="C867" s="12"/>
       <c r="D867" s="6"/>
       <c r="E867" s="6"/>
       <c r="F867" s="6"/>
@@ -60333,7 +60345,7 @@
     <row r="868" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="6"/>
       <c r="B868" s="15"/>
-      <c r="C868" s="6"/>
+      <c r="C868" s="12"/>
       <c r="D868" s="6"/>
       <c r="E868" s="6"/>
       <c r="F868" s="6"/>
@@ -60397,7 +60409,7 @@
     <row r="869" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="6"/>
       <c r="B869" s="15"/>
-      <c r="C869" s="6"/>
+      <c r="C869" s="12"/>
       <c r="D869" s="6"/>
       <c r="E869" s="6"/>
       <c r="F869" s="6"/>
@@ -60461,7 +60473,7 @@
     <row r="870" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="6"/>
       <c r="B870" s="15"/>
-      <c r="C870" s="6"/>
+      <c r="C870" s="12"/>
       <c r="D870" s="6"/>
       <c r="E870" s="6"/>
       <c r="F870" s="6"/>
@@ -60525,7 +60537,7 @@
     <row r="871" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="6"/>
       <c r="B871" s="15"/>
-      <c r="C871" s="6"/>
+      <c r="C871" s="12"/>
       <c r="D871" s="6"/>
       <c r="E871" s="6"/>
       <c r="F871" s="6"/>
@@ -60589,7 +60601,7 @@
     <row r="872" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="6"/>
       <c r="B872" s="15"/>
-      <c r="C872" s="6"/>
+      <c r="C872" s="12"/>
       <c r="D872" s="6"/>
       <c r="E872" s="6"/>
       <c r="F872" s="6"/>
@@ -60653,7 +60665,7 @@
     <row r="873" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="6"/>
       <c r="B873" s="15"/>
-      <c r="C873" s="6"/>
+      <c r="C873" s="12"/>
       <c r="D873" s="6"/>
       <c r="E873" s="6"/>
       <c r="F873" s="6"/>
@@ -60717,7 +60729,7 @@
     <row r="874" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="6"/>
       <c r="B874" s="15"/>
-      <c r="C874" s="6"/>
+      <c r="C874" s="12"/>
       <c r="D874" s="6"/>
       <c r="E874" s="6"/>
       <c r="F874" s="6"/>
@@ -60781,7 +60793,7 @@
     <row r="875" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="6"/>
       <c r="B875" s="15"/>
-      <c r="C875" s="6"/>
+      <c r="C875" s="12"/>
       <c r="D875" s="6"/>
       <c r="E875" s="6"/>
       <c r="F875" s="6"/>
@@ -60845,7 +60857,7 @@
     <row r="876" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="6"/>
       <c r="B876" s="15"/>
-      <c r="C876" s="6"/>
+      <c r="C876" s="12"/>
       <c r="D876" s="6"/>
       <c r="E876" s="6"/>
       <c r="F876" s="6"/>
@@ -60909,7 +60921,7 @@
     <row r="877" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="6"/>
       <c r="B877" s="15"/>
-      <c r="C877" s="6"/>
+      <c r="C877" s="12"/>
       <c r="D877" s="6"/>
       <c r="E877" s="6"/>
       <c r="F877" s="6"/>
@@ -60973,7 +60985,7 @@
     <row r="878" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="6"/>
       <c r="B878" s="15"/>
-      <c r="C878" s="6"/>
+      <c r="C878" s="12"/>
       <c r="D878" s="6"/>
       <c r="E878" s="6"/>
       <c r="F878" s="6"/>
@@ -61037,7 +61049,7 @@
     <row r="879" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="6"/>
       <c r="B879" s="15"/>
-      <c r="C879" s="6"/>
+      <c r="C879" s="12"/>
       <c r="D879" s="6"/>
       <c r="E879" s="6"/>
       <c r="F879" s="6"/>
@@ -61101,7 +61113,7 @@
     <row r="880" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="6"/>
       <c r="B880" s="15"/>
-      <c r="C880" s="6"/>
+      <c r="C880" s="12"/>
       <c r="D880" s="6"/>
       <c r="E880" s="6"/>
       <c r="F880" s="6"/>
@@ -61165,7 +61177,7 @@
     <row r="881" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="6"/>
       <c r="B881" s="15"/>
-      <c r="C881" s="6"/>
+      <c r="C881" s="12"/>
       <c r="D881" s="6"/>
       <c r="E881" s="6"/>
       <c r="F881" s="6"/>
@@ -61229,7 +61241,7 @@
     <row r="882" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="6"/>
       <c r="B882" s="15"/>
-      <c r="C882" s="6"/>
+      <c r="C882" s="12"/>
       <c r="D882" s="6"/>
       <c r="E882" s="6"/>
       <c r="F882" s="6"/>
@@ -61293,7 +61305,7 @@
     <row r="883" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="6"/>
       <c r="B883" s="15"/>
-      <c r="C883" s="6"/>
+      <c r="C883" s="12"/>
       <c r="D883" s="6"/>
       <c r="E883" s="6"/>
       <c r="F883" s="6"/>
@@ -61357,7 +61369,7 @@
     <row r="884" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="6"/>
       <c r="B884" s="15"/>
-      <c r="C884" s="6"/>
+      <c r="C884" s="12"/>
       <c r="D884" s="6"/>
       <c r="E884" s="6"/>
       <c r="F884" s="6"/>
@@ -61421,7 +61433,7 @@
     <row r="885" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="6"/>
       <c r="B885" s="15"/>
-      <c r="C885" s="6"/>
+      <c r="C885" s="12"/>
       <c r="D885" s="6"/>
       <c r="E885" s="6"/>
       <c r="F885" s="6"/>
@@ -61485,7 +61497,7 @@
     <row r="886" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="6"/>
       <c r="B886" s="15"/>
-      <c r="C886" s="6"/>
+      <c r="C886" s="12"/>
       <c r="D886" s="6"/>
       <c r="E886" s="6"/>
       <c r="F886" s="6"/>
@@ -61549,7 +61561,7 @@
     <row r="887" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="6"/>
       <c r="B887" s="15"/>
-      <c r="C887" s="6"/>
+      <c r="C887" s="12"/>
       <c r="D887" s="6"/>
       <c r="E887" s="6"/>
       <c r="F887" s="6"/>
@@ -61613,7 +61625,7 @@
     <row r="888" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="6"/>
       <c r="B888" s="15"/>
-      <c r="C888" s="6"/>
+      <c r="C888" s="12"/>
       <c r="D888" s="6"/>
       <c r="E888" s="6"/>
       <c r="F888" s="6"/>
@@ -61677,7 +61689,7 @@
     <row r="889" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="6"/>
       <c r="B889" s="15"/>
-      <c r="C889" s="6"/>
+      <c r="C889" s="12"/>
       <c r="D889" s="6"/>
       <c r="E889" s="6"/>
       <c r="F889" s="6"/>
@@ -61741,7 +61753,7 @@
     <row r="890" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="6"/>
       <c r="B890" s="15"/>
-      <c r="C890" s="6"/>
+      <c r="C890" s="12"/>
       <c r="D890" s="6"/>
       <c r="E890" s="6"/>
       <c r="F890" s="6"/>
@@ -61805,7 +61817,7 @@
     <row r="891" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="6"/>
       <c r="B891" s="15"/>
-      <c r="C891" s="6"/>
+      <c r="C891" s="12"/>
       <c r="D891" s="6"/>
       <c r="E891" s="6"/>
       <c r="F891" s="6"/>
@@ -61869,7 +61881,7 @@
     <row r="892" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="6"/>
       <c r="B892" s="15"/>
-      <c r="C892" s="6"/>
+      <c r="C892" s="12"/>
       <c r="D892" s="6"/>
       <c r="E892" s="6"/>
       <c r="F892" s="6"/>
@@ -61933,7 +61945,7 @@
     <row r="893" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="6"/>
       <c r="B893" s="15"/>
-      <c r="C893" s="6"/>
+      <c r="C893" s="12"/>
       <c r="D893" s="6"/>
       <c r="E893" s="6"/>
       <c r="F893" s="6"/>
@@ -61997,7 +62009,7 @@
     <row r="894" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="6"/>
       <c r="B894" s="15"/>
-      <c r="C894" s="6"/>
+      <c r="C894" s="12"/>
       <c r="D894" s="6"/>
       <c r="E894" s="6"/>
       <c r="F894" s="6"/>
@@ -62061,7 +62073,7 @@
     <row r="895" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="6"/>
       <c r="B895" s="15"/>
-      <c r="C895" s="6"/>
+      <c r="C895" s="12"/>
       <c r="D895" s="6"/>
       <c r="E895" s="6"/>
       <c r="F895" s="6"/>
@@ -62125,7 +62137,7 @@
     <row r="896" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="6"/>
       <c r="B896" s="15"/>
-      <c r="C896" s="6"/>
+      <c r="C896" s="12"/>
       <c r="D896" s="6"/>
       <c r="E896" s="6"/>
       <c r="F896" s="6"/>
@@ -62189,7 +62201,7 @@
     <row r="897" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="6"/>
       <c r="B897" s="15"/>
-      <c r="C897" s="6"/>
+      <c r="C897" s="12"/>
       <c r="D897" s="6"/>
       <c r="E897" s="6"/>
       <c r="F897" s="6"/>
@@ -62253,7 +62265,7 @@
     <row r="898" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="6"/>
       <c r="B898" s="15"/>
-      <c r="C898" s="6"/>
+      <c r="C898" s="12"/>
       <c r="D898" s="6"/>
       <c r="E898" s="6"/>
       <c r="F898" s="6"/>
@@ -62317,7 +62329,7 @@
     <row r="899" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="6"/>
       <c r="B899" s="15"/>
-      <c r="C899" s="6"/>
+      <c r="C899" s="12"/>
       <c r="D899" s="6"/>
       <c r="E899" s="6"/>
       <c r="F899" s="6"/>
@@ -62381,7 +62393,7 @@
     <row r="900" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="6"/>
       <c r="B900" s="15"/>
-      <c r="C900" s="6"/>
+      <c r="C900" s="12"/>
       <c r="D900" s="6"/>
       <c r="E900" s="6"/>
       <c r="F900" s="6"/>
@@ -62445,7 +62457,7 @@
     <row r="901" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="6"/>
       <c r="B901" s="15"/>
-      <c r="C901" s="6"/>
+      <c r="C901" s="12"/>
       <c r="D901" s="6"/>
       <c r="E901" s="6"/>
       <c r="F901" s="6"/>
@@ -62509,7 +62521,7 @@
     <row r="902" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="6"/>
       <c r="B902" s="15"/>
-      <c r="C902" s="6"/>
+      <c r="C902" s="12"/>
       <c r="D902" s="6"/>
       <c r="E902" s="6"/>
       <c r="F902" s="6"/>
@@ -62573,7 +62585,7 @@
     <row r="903" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="6"/>
       <c r="B903" s="15"/>
-      <c r="C903" s="6"/>
+      <c r="C903" s="12"/>
       <c r="D903" s="6"/>
       <c r="E903" s="6"/>
       <c r="F903" s="6"/>
@@ -62637,7 +62649,7 @@
     <row r="904" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="6"/>
       <c r="B904" s="15"/>
-      <c r="C904" s="6"/>
+      <c r="C904" s="12"/>
       <c r="D904" s="6"/>
       <c r="E904" s="6"/>
       <c r="F904" s="6"/>
@@ -62701,7 +62713,7 @@
     <row r="905" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="6"/>
       <c r="B905" s="15"/>
-      <c r="C905" s="6"/>
+      <c r="C905" s="12"/>
       <c r="D905" s="6"/>
       <c r="E905" s="6"/>
       <c r="F905" s="6"/>
@@ -62765,7 +62777,7 @@
     <row r="906" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="6"/>
       <c r="B906" s="15"/>
-      <c r="C906" s="6"/>
+      <c r="C906" s="12"/>
       <c r="D906" s="6"/>
       <c r="E906" s="6"/>
       <c r="F906" s="6"/>
@@ -62829,7 +62841,7 @@
     <row r="907" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="6"/>
       <c r="B907" s="15"/>
-      <c r="C907" s="6"/>
+      <c r="C907" s="12"/>
       <c r="D907" s="6"/>
       <c r="E907" s="6"/>
       <c r="F907" s="6"/>
@@ -62893,7 +62905,7 @@
     <row r="908" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="6"/>
       <c r="B908" s="15"/>
-      <c r="C908" s="6"/>
+      <c r="C908" s="12"/>
       <c r="D908" s="6"/>
       <c r="E908" s="6"/>
       <c r="F908" s="6"/>
@@ -62957,7 +62969,7 @@
     <row r="909" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="6"/>
       <c r="B909" s="15"/>
-      <c r="C909" s="6"/>
+      <c r="C909" s="12"/>
       <c r="D909" s="6"/>
       <c r="E909" s="6"/>
       <c r="F909" s="6"/>
@@ -63021,7 +63033,7 @@
     <row r="910" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="6"/>
       <c r="B910" s="15"/>
-      <c r="C910" s="6"/>
+      <c r="C910" s="12"/>
       <c r="D910" s="6"/>
       <c r="E910" s="6"/>
       <c r="F910" s="6"/>
@@ -63085,7 +63097,7 @@
     <row r="911" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="6"/>
       <c r="B911" s="15"/>
-      <c r="C911" s="6"/>
+      <c r="C911" s="12"/>
       <c r="D911" s="6"/>
       <c r="E911" s="6"/>
       <c r="F911" s="6"/>
@@ -63149,7 +63161,7 @@
     <row r="912" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="6"/>
       <c r="B912" s="15"/>
-      <c r="C912" s="6"/>
+      <c r="C912" s="12"/>
       <c r="D912" s="6"/>
       <c r="E912" s="6"/>
       <c r="F912" s="6"/>
@@ -63213,7 +63225,7 @@
     <row r="913" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="6"/>
       <c r="B913" s="15"/>
-      <c r="C913" s="6"/>
+      <c r="C913" s="12"/>
       <c r="D913" s="6"/>
       <c r="E913" s="6"/>
       <c r="F913" s="6"/>
@@ -63277,7 +63289,7 @@
     <row r="914" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="6"/>
       <c r="B914" s="15"/>
-      <c r="C914" s="6"/>
+      <c r="C914" s="12"/>
       <c r="D914" s="6"/>
       <c r="E914" s="6"/>
       <c r="F914" s="6"/>
@@ -63341,7 +63353,7 @@
     <row r="915" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="6"/>
       <c r="B915" s="15"/>
-      <c r="C915" s="6"/>
+      <c r="C915" s="12"/>
       <c r="D915" s="6"/>
       <c r="E915" s="6"/>
       <c r="F915" s="6"/>
@@ -63405,7 +63417,7 @@
     <row r="916" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="6"/>
       <c r="B916" s="15"/>
-      <c r="C916" s="6"/>
+      <c r="C916" s="12"/>
       <c r="D916" s="6"/>
       <c r="E916" s="6"/>
       <c r="F916" s="6"/>
@@ -63469,7 +63481,7 @@
     <row r="917" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="6"/>
       <c r="B917" s="15"/>
-      <c r="C917" s="6"/>
+      <c r="C917" s="12"/>
       <c r="D917" s="6"/>
       <c r="E917" s="6"/>
       <c r="F917" s="6"/>
@@ -63533,7 +63545,7 @@
     <row r="918" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="6"/>
       <c r="B918" s="15"/>
-      <c r="C918" s="6"/>
+      <c r="C918" s="12"/>
       <c r="D918" s="6"/>
       <c r="E918" s="6"/>
       <c r="F918" s="6"/>
@@ -63597,7 +63609,7 @@
     <row r="919" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="6"/>
       <c r="B919" s="15"/>
-      <c r="C919" s="6"/>
+      <c r="C919" s="12"/>
       <c r="D919" s="6"/>
       <c r="E919" s="6"/>
       <c r="F919" s="6"/>
@@ -63661,7 +63673,7 @@
     <row r="920" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="6"/>
       <c r="B920" s="15"/>
-      <c r="C920" s="6"/>
+      <c r="C920" s="12"/>
       <c r="D920" s="6"/>
       <c r="E920" s="6"/>
       <c r="F920" s="6"/>
@@ -63725,7 +63737,7 @@
     <row r="921" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="6"/>
       <c r="B921" s="15"/>
-      <c r="C921" s="6"/>
+      <c r="C921" s="12"/>
       <c r="D921" s="6"/>
       <c r="E921" s="6"/>
       <c r="F921" s="6"/>
@@ -63789,7 +63801,7 @@
     <row r="922" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="6"/>
       <c r="B922" s="15"/>
-      <c r="C922" s="6"/>
+      <c r="C922" s="12"/>
       <c r="D922" s="6"/>
       <c r="E922" s="6"/>
       <c r="F922" s="6"/>
@@ -63853,7 +63865,7 @@
     <row r="923" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="6"/>
       <c r="B923" s="15"/>
-      <c r="C923" s="6"/>
+      <c r="C923" s="12"/>
       <c r="D923" s="6"/>
       <c r="E923" s="6"/>
       <c r="F923" s="6"/>
@@ -63917,7 +63929,7 @@
     <row r="924" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="6"/>
       <c r="B924" s="15"/>
-      <c r="C924" s="6"/>
+      <c r="C924" s="12"/>
       <c r="D924" s="6"/>
       <c r="E924" s="6"/>
       <c r="F924" s="6"/>
@@ -63981,7 +63993,7 @@
     <row r="925" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="6"/>
       <c r="B925" s="15"/>
-      <c r="C925" s="6"/>
+      <c r="C925" s="12"/>
       <c r="D925" s="6"/>
       <c r="E925" s="6"/>
       <c r="F925" s="6"/>
@@ -64045,7 +64057,7 @@
     <row r="926" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="6"/>
       <c r="B926" s="15"/>
-      <c r="C926" s="6"/>
+      <c r="C926" s="12"/>
       <c r="D926" s="6"/>
       <c r="E926" s="6"/>
       <c r="F926" s="6"/>
@@ -64109,7 +64121,7 @@
     <row r="927" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="6"/>
       <c r="B927" s="15"/>
-      <c r="C927" s="6"/>
+      <c r="C927" s="12"/>
       <c r="D927" s="6"/>
       <c r="E927" s="6"/>
       <c r="F927" s="6"/>
@@ -64173,7 +64185,7 @@
     <row r="928" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="6"/>
       <c r="B928" s="15"/>
-      <c r="C928" s="6"/>
+      <c r="C928" s="12"/>
       <c r="D928" s="6"/>
       <c r="E928" s="6"/>
       <c r="F928" s="6"/>
@@ -64237,7 +64249,7 @@
     <row r="929" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="6"/>
       <c r="B929" s="15"/>
-      <c r="C929" s="6"/>
+      <c r="C929" s="12"/>
       <c r="D929" s="6"/>
       <c r="E929" s="6"/>
       <c r="F929" s="6"/>
@@ -64301,7 +64313,7 @@
     <row r="930" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="6"/>
       <c r="B930" s="15"/>
-      <c r="C930" s="6"/>
+      <c r="C930" s="12"/>
       <c r="D930" s="6"/>
       <c r="E930" s="6"/>
       <c r="F930" s="6"/>
@@ -64365,7 +64377,7 @@
     <row r="931" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="6"/>
       <c r="B931" s="15"/>
-      <c r="C931" s="6"/>
+      <c r="C931" s="12"/>
       <c r="D931" s="6"/>
       <c r="E931" s="6"/>
       <c r="F931" s="6"/>
@@ -64429,7 +64441,7 @@
     <row r="932" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="6"/>
       <c r="B932" s="15"/>
-      <c r="C932" s="6"/>
+      <c r="C932" s="12"/>
       <c r="D932" s="6"/>
       <c r="E932" s="6"/>
       <c r="F932" s="6"/>
@@ -64493,7 +64505,7 @@
     <row r="933" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="6"/>
       <c r="B933" s="15"/>
-      <c r="C933" s="6"/>
+      <c r="C933" s="12"/>
       <c r="D933" s="6"/>
       <c r="E933" s="6"/>
       <c r="F933" s="6"/>
@@ -64557,7 +64569,7 @@
     <row r="934" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="6"/>
       <c r="B934" s="15"/>
-      <c r="C934" s="6"/>
+      <c r="C934" s="12"/>
       <c r="D934" s="6"/>
       <c r="E934" s="6"/>
       <c r="F934" s="6"/>
@@ -64621,7 +64633,7 @@
     <row r="935" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="6"/>
       <c r="B935" s="15"/>
-      <c r="C935" s="6"/>
+      <c r="C935" s="12"/>
       <c r="D935" s="6"/>
       <c r="E935" s="6"/>
       <c r="F935" s="6"/>
@@ -64685,7 +64697,7 @@
     <row r="936" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="6"/>
       <c r="B936" s="15"/>
-      <c r="C936" s="6"/>
+      <c r="C936" s="12"/>
       <c r="D936" s="6"/>
       <c r="E936" s="6"/>
       <c r="F936" s="6"/>
@@ -64749,7 +64761,7 @@
     <row r="937" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="6"/>
       <c r="B937" s="15"/>
-      <c r="C937" s="6"/>
+      <c r="C937" s="12"/>
       <c r="D937" s="6"/>
       <c r="E937" s="6"/>
       <c r="F937" s="6"/>
@@ -64813,7 +64825,7 @@
     <row r="938" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="6"/>
       <c r="B938" s="15"/>
-      <c r="C938" s="6"/>
+      <c r="C938" s="12"/>
       <c r="D938" s="6"/>
       <c r="E938" s="6"/>
       <c r="F938" s="6"/>
@@ -64877,7 +64889,7 @@
     <row r="939" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="6"/>
       <c r="B939" s="15"/>
-      <c r="C939" s="6"/>
+      <c r="C939" s="12"/>
       <c r="D939" s="6"/>
       <c r="E939" s="6"/>
       <c r="F939" s="6"/>
@@ -64941,7 +64953,7 @@
     <row r="940" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="6"/>
       <c r="B940" s="15"/>
-      <c r="C940" s="6"/>
+      <c r="C940" s="12"/>
       <c r="D940" s="6"/>
       <c r="E940" s="6"/>
       <c r="F940" s="6"/>
@@ -65005,7 +65017,7 @@
     <row r="941" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="6"/>
       <c r="B941" s="15"/>
-      <c r="C941" s="6"/>
+      <c r="C941" s="12"/>
       <c r="D941" s="6"/>
       <c r="E941" s="6"/>
       <c r="F941" s="6"/>
@@ -65069,7 +65081,7 @@
     <row r="942" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="6"/>
       <c r="B942" s="15"/>
-      <c r="C942" s="6"/>
+      <c r="C942" s="12"/>
       <c r="D942" s="6"/>
       <c r="E942" s="6"/>
       <c r="F942" s="6"/>
@@ -65133,7 +65145,7 @@
     <row r="943" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="6"/>
       <c r="B943" s="15"/>
-      <c r="C943" s="6"/>
+      <c r="C943" s="12"/>
       <c r="D943" s="6"/>
       <c r="E943" s="6"/>
       <c r="F943" s="6"/>
@@ -65197,7 +65209,7 @@
     <row r="944" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="6"/>
       <c r="B944" s="15"/>
-      <c r="C944" s="6"/>
+      <c r="C944" s="12"/>
       <c r="D944" s="6"/>
       <c r="E944" s="6"/>
       <c r="F944" s="6"/>
@@ -65261,7 +65273,7 @@
     <row r="945" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="6"/>
       <c r="B945" s="15"/>
-      <c r="C945" s="6"/>
+      <c r="C945" s="12"/>
       <c r="D945" s="6"/>
       <c r="E945" s="6"/>
       <c r="F945" s="6"/>
@@ -65325,7 +65337,7 @@
     <row r="946" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="6"/>
       <c r="B946" s="15"/>
-      <c r="C946" s="6"/>
+      <c r="C946" s="12"/>
       <c r="D946" s="6"/>
       <c r="E946" s="6"/>
       <c r="F946" s="6"/>
@@ -65389,7 +65401,7 @@
     <row r="947" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="6"/>
       <c r="B947" s="15"/>
-      <c r="C947" s="6"/>
+      <c r="C947" s="12"/>
       <c r="D947" s="6"/>
       <c r="E947" s="6"/>
       <c r="F947" s="6"/>
@@ -65453,7 +65465,7 @@
     <row r="948" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="6"/>
       <c r="B948" s="15"/>
-      <c r="C948" s="6"/>
+      <c r="C948" s="12"/>
       <c r="D948" s="6"/>
       <c r="E948" s="6"/>
       <c r="F948" s="6"/>
@@ -65517,7 +65529,7 @@
     <row r="949" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="6"/>
       <c r="B949" s="15"/>
-      <c r="C949" s="6"/>
+      <c r="C949" s="12"/>
       <c r="D949" s="6"/>
       <c r="E949" s="6"/>
       <c r="F949" s="6"/>
@@ -65581,7 +65593,7 @@
     <row r="950" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="6"/>
       <c r="B950" s="15"/>
-      <c r="C950" s="6"/>
+      <c r="C950" s="12"/>
       <c r="D950" s="6"/>
       <c r="E950" s="6"/>
       <c r="F950" s="6"/>
@@ -65645,7 +65657,7 @@
     <row r="951" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="6"/>
       <c r="B951" s="15"/>
-      <c r="C951" s="6"/>
+      <c r="C951" s="12"/>
       <c r="D951" s="6"/>
       <c r="E951" s="6"/>
       <c r="F951" s="6"/>
@@ -65709,7 +65721,7 @@
     <row r="952" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="6"/>
       <c r="B952" s="15"/>
-      <c r="C952" s="6"/>
+      <c r="C952" s="12"/>
       <c r="D952" s="6"/>
       <c r="E952" s="6"/>
       <c r="F952" s="6"/>
@@ -65773,7 +65785,7 @@
     <row r="953" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="6"/>
       <c r="B953" s="15"/>
-      <c r="C953" s="6"/>
+      <c r="C953" s="12"/>
       <c r="D953" s="6"/>
       <c r="E953" s="6"/>
       <c r="F953" s="6"/>
@@ -65837,7 +65849,7 @@
     <row r="954" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="6"/>
       <c r="B954" s="15"/>
-      <c r="C954" s="6"/>
+      <c r="C954" s="12"/>
       <c r="D954" s="6"/>
       <c r="E954" s="6"/>
       <c r="F954" s="6"/>
@@ -65901,7 +65913,7 @@
     <row r="955" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="6"/>
       <c r="B955" s="15"/>
-      <c r="C955" s="6"/>
+      <c r="C955" s="12"/>
       <c r="D955" s="6"/>
       <c r="E955" s="6"/>
       <c r="F955" s="6"/>
@@ -65965,7 +65977,7 @@
     <row r="956" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="6"/>
       <c r="B956" s="15"/>
-      <c r="C956" s="6"/>
+      <c r="C956" s="12"/>
       <c r="D956" s="6"/>
       <c r="E956" s="6"/>
       <c r="F956" s="6"/>
@@ -66029,7 +66041,7 @@
     <row r="957" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="6"/>
       <c r="B957" s="15"/>
-      <c r="C957" s="6"/>
+      <c r="C957" s="12"/>
       <c r="D957" s="6"/>
       <c r="E957" s="6"/>
       <c r="F957" s="6"/>
@@ -66093,7 +66105,7 @@
     <row r="958" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="6"/>
       <c r="B958" s="15"/>
-      <c r="C958" s="6"/>
+      <c r="C958" s="12"/>
       <c r="D958" s="6"/>
       <c r="E958" s="6"/>
       <c r="F958" s="6"/>
@@ -66157,7 +66169,7 @@
     <row r="959" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="6"/>
       <c r="B959" s="15"/>
-      <c r="C959" s="6"/>
+      <c r="C959" s="12"/>
       <c r="D959" s="6"/>
       <c r="E959" s="6"/>
       <c r="F959" s="6"/>
@@ -66221,7 +66233,7 @@
     <row r="960" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="6"/>
       <c r="B960" s="15"/>
-      <c r="C960" s="6"/>
+      <c r="C960" s="12"/>
       <c r="D960" s="6"/>
       <c r="E960" s="6"/>
       <c r="F960" s="6"/>
@@ -66285,7 +66297,7 @@
     <row r="961" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="6"/>
       <c r="B961" s="15"/>
-      <c r="C961" s="6"/>
+      <c r="C961" s="12"/>
       <c r="D961" s="6"/>
       <c r="E961" s="6"/>
       <c r="F961" s="6"/>
@@ -66349,7 +66361,7 @@
     <row r="962" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="6"/>
       <c r="B962" s="15"/>
-      <c r="C962" s="6"/>
+      <c r="C962" s="12"/>
       <c r="D962" s="6"/>
       <c r="E962" s="6"/>
       <c r="F962" s="6"/>
@@ -66413,7 +66425,7 @@
     <row r="963" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="6"/>
       <c r="B963" s="15"/>
-      <c r="C963" s="6"/>
+      <c r="C963" s="12"/>
       <c r="D963" s="6"/>
       <c r="E963" s="6"/>
       <c r="F963" s="6"/>
@@ -66477,7 +66489,7 @@
     <row r="964" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="6"/>
       <c r="B964" s="15"/>
-      <c r="C964" s="6"/>
+      <c r="C964" s="12"/>
       <c r="D964" s="6"/>
       <c r="E964" s="6"/>
       <c r="F964" s="6"/>
@@ -66541,7 +66553,7 @@
     <row r="965" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="6"/>
       <c r="B965" s="15"/>
-      <c r="C965" s="6"/>
+      <c r="C965" s="12"/>
       <c r="D965" s="6"/>
       <c r="E965" s="6"/>
       <c r="F965" s="6"/>
@@ -66605,7 +66617,7 @@
     <row r="966" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="6"/>
       <c r="B966" s="15"/>
-      <c r="C966" s="6"/>
+      <c r="C966" s="12"/>
       <c r="D966" s="6"/>
       <c r="E966" s="6"/>
       <c r="F966" s="6"/>
@@ -66669,7 +66681,7 @@
     <row r="967" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="6"/>
       <c r="B967" s="15"/>
-      <c r="C967" s="6"/>
+      <c r="C967" s="12"/>
       <c r="D967" s="6"/>
       <c r="E967" s="6"/>
       <c r="F967" s="6"/>
@@ -66733,7 +66745,7 @@
     <row r="968" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="6"/>
       <c r="B968" s="15"/>
-      <c r="C968" s="6"/>
+      <c r="C968" s="12"/>
       <c r="D968" s="6"/>
       <c r="E968" s="6"/>
       <c r="F968" s="6"/>
@@ -66797,7 +66809,7 @@
     <row r="969" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="6"/>
       <c r="B969" s="15"/>
-      <c r="C969" s="6"/>
+      <c r="C969" s="12"/>
       <c r="D969" s="6"/>
       <c r="E969" s="6"/>
       <c r="F969" s="6"/>
@@ -66861,7 +66873,7 @@
     <row r="970" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="6"/>
       <c r="B970" s="15"/>
-      <c r="C970" s="6"/>
+      <c r="C970" s="12"/>
       <c r="D970" s="6"/>
       <c r="E970" s="6"/>
       <c r="F970" s="6"/>
@@ -66925,7 +66937,7 @@
     <row r="971" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="6"/>
       <c r="B971" s="15"/>
-      <c r="C971" s="6"/>
+      <c r="C971" s="12"/>
       <c r="D971" s="6"/>
       <c r="E971" s="6"/>
       <c r="F971" s="6"/>
@@ -66989,7 +67001,7 @@
     <row r="972" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="6"/>
       <c r="B972" s="15"/>
-      <c r="C972" s="6"/>
+      <c r="C972" s="12"/>
       <c r="D972" s="6"/>
       <c r="E972" s="6"/>
       <c r="F972" s="6"/>
@@ -67053,7 +67065,7 @@
     <row r="973" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="6"/>
       <c r="B973" s="15"/>
-      <c r="C973" s="6"/>
+      <c r="C973" s="12"/>
       <c r="D973" s="6"/>
       <c r="E973" s="6"/>
       <c r="F973" s="6"/>
@@ -67117,7 +67129,7 @@
     <row r="974" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="6"/>
       <c r="B974" s="15"/>
-      <c r="C974" s="6"/>
+      <c r="C974" s="12"/>
       <c r="D974" s="6"/>
       <c r="E974" s="6"/>
       <c r="F974" s="6"/>
@@ -67181,7 +67193,7 @@
     <row r="975" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="6"/>
       <c r="B975" s="15"/>
-      <c r="C975" s="6"/>
+      <c r="C975" s="12"/>
       <c r="D975" s="6"/>
       <c r="E975" s="6"/>
       <c r="F975" s="6"/>
@@ -67245,7 +67257,7 @@
     <row r="976" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="6"/>
       <c r="B976" s="15"/>
-      <c r="C976" s="6"/>
+      <c r="C976" s="12"/>
       <c r="D976" s="6"/>
       <c r="E976" s="6"/>
       <c r="F976" s="6"/>
@@ -67309,7 +67321,7 @@
     <row r="977" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="6"/>
       <c r="B977" s="15"/>
-      <c r="C977" s="6"/>
+      <c r="C977" s="12"/>
       <c r="D977" s="6"/>
       <c r="E977" s="6"/>
       <c r="F977" s="6"/>
@@ -67373,7 +67385,7 @@
     <row r="978" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="6"/>
       <c r="B978" s="15"/>
-      <c r="C978" s="6"/>
+      <c r="C978" s="12"/>
       <c r="D978" s="6"/>
       <c r="E978" s="6"/>
       <c r="F978" s="6"/>
@@ -67437,7 +67449,7 @@
     <row r="979" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="6"/>
       <c r="B979" s="15"/>
-      <c r="C979" s="6"/>
+      <c r="C979" s="12"/>
       <c r="D979" s="6"/>
       <c r="E979" s="6"/>
       <c r="F979" s="6"/>
@@ -67501,7 +67513,7 @@
     <row r="980" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="6"/>
       <c r="B980" s="15"/>
-      <c r="C980" s="6"/>
+      <c r="C980" s="12"/>
       <c r="D980" s="6"/>
       <c r="E980" s="6"/>
       <c r="F980" s="6"/>
@@ -67565,7 +67577,7 @@
     <row r="981" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="6"/>
       <c r="B981" s="15"/>
-      <c r="C981" s="6"/>
+      <c r="C981" s="12"/>
       <c r="D981" s="6"/>
       <c r="E981" s="6"/>
       <c r="F981" s="6"/>
@@ -67629,7 +67641,7 @@
     <row r="982" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="6"/>
       <c r="B982" s="15"/>
-      <c r="C982" s="6"/>
+      <c r="C982" s="12"/>
       <c r="D982" s="6"/>
       <c r="E982" s="6"/>
       <c r="F982" s="6"/>
@@ -67693,7 +67705,7 @@
     <row r="983" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="6"/>
       <c r="B983" s="15"/>
-      <c r="C983" s="6"/>
+      <c r="C983" s="12"/>
       <c r="D983" s="6"/>
       <c r="E983" s="6"/>
       <c r="F983" s="6"/>
@@ -67757,7 +67769,7 @@
     <row r="984" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="6"/>
       <c r="B984" s="15"/>
-      <c r="C984" s="6"/>
+      <c r="C984" s="12"/>
       <c r="D984" s="6"/>
       <c r="E984" s="6"/>
       <c r="F984" s="6"/>
@@ -67821,7 +67833,7 @@
     <row r="985" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="6"/>
       <c r="B985" s="15"/>
-      <c r="C985" s="6"/>
+      <c r="C985" s="12"/>
       <c r="D985" s="6"/>
       <c r="E985" s="6"/>
       <c r="F985" s="6"/>
@@ -67885,7 +67897,7 @@
     <row r="986" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="6"/>
       <c r="B986" s="15"/>
-      <c r="C986" s="6"/>
+      <c r="C986" s="12"/>
       <c r="D986" s="6"/>
       <c r="E986" s="6"/>
       <c r="F986" s="6"/>
@@ -67949,7 +67961,7 @@
     <row r="987" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="6"/>
       <c r="B987" s="15"/>
-      <c r="C987" s="6"/>
+      <c r="C987" s="12"/>
       <c r="D987" s="6"/>
       <c r="E987" s="6"/>
       <c r="F987" s="6"/>
@@ -68013,7 +68025,7 @@
     <row r="988" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="6"/>
       <c r="B988" s="15"/>
-      <c r="C988" s="6"/>
+      <c r="C988" s="12"/>
       <c r="D988" s="6"/>
       <c r="E988" s="6"/>
       <c r="F988" s="6"/>
@@ -68077,7 +68089,7 @@
     <row r="989" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="6"/>
       <c r="B989" s="15"/>
-      <c r="C989" s="6"/>
+      <c r="C989" s="12"/>
       <c r="D989" s="6"/>
       <c r="E989" s="6"/>
       <c r="F989" s="6"/>
@@ -68141,7 +68153,7 @@
     <row r="990" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="6"/>
       <c r="B990" s="15"/>
-      <c r="C990" s="6"/>
+      <c r="C990" s="12"/>
       <c r="D990" s="6"/>
       <c r="E990" s="6"/>
       <c r="F990" s="6"/>
@@ -68205,7 +68217,7 @@
     <row r="991" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="6"/>
       <c r="B991" s="15"/>
-      <c r="C991" s="6"/>
+      <c r="C991" s="12"/>
       <c r="D991" s="6"/>
       <c r="E991" s="6"/>
       <c r="F991" s="6"/>
@@ -68269,7 +68281,7 @@
     <row r="992" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="6"/>
       <c r="B992" s="15"/>
-      <c r="C992" s="6"/>
+      <c r="C992" s="12"/>
       <c r="D992" s="6"/>
       <c r="E992" s="6"/>
       <c r="F992" s="6"/>
@@ -68333,7 +68345,7 @@
     <row r="993" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="6"/>
       <c r="B993" s="15"/>
-      <c r="C993" s="6"/>
+      <c r="C993" s="12"/>
       <c r="D993" s="6"/>
       <c r="E993" s="6"/>
       <c r="F993" s="6"/>
@@ -68397,7 +68409,7 @@
     <row r="994" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="6"/>
       <c r="B994" s="15"/>
-      <c r="C994" s="6"/>
+      <c r="C994" s="12"/>
       <c r="D994" s="6"/>
       <c r="E994" s="6"/>
       <c r="F994" s="6"/>
@@ -68461,7 +68473,7 @@
     <row r="995" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="6"/>
       <c r="B995" s="15"/>
-      <c r="C995" s="6"/>
+      <c r="C995" s="12"/>
       <c r="D995" s="6"/>
       <c r="E995" s="6"/>
       <c r="F995" s="6"/>
@@ -68525,7 +68537,7 @@
     <row r="996" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="6"/>
       <c r="B996" s="15"/>
-      <c r="C996" s="6"/>
+      <c r="C996" s="12"/>
       <c r="D996" s="6"/>
       <c r="E996" s="6"/>
       <c r="F996" s="6"/>
@@ -68589,7 +68601,7 @@
     <row r="997" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="6"/>
       <c r="B997" s="15"/>
-      <c r="C997" s="6"/>
+      <c r="C997" s="12"/>
       <c r="D997" s="6"/>
       <c r="E997" s="6"/>
       <c r="F997" s="6"/>
@@ -68653,7 +68665,7 @@
     <row r="998" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="6"/>
       <c r="B998" s="15"/>
-      <c r="C998" s="6"/>
+      <c r="C998" s="12"/>
       <c r="D998" s="6"/>
       <c r="E998" s="6"/>
       <c r="F998" s="6"/>
@@ -68717,7 +68729,7 @@
     <row r="999" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="6"/>
       <c r="B999" s="15"/>
-      <c r="C999" s="6"/>
+      <c r="C999" s="12"/>
       <c r="D999" s="6"/>
       <c r="E999" s="6"/>
       <c r="F999" s="6"/>
@@ -68781,7 +68793,7 @@
     <row r="1000" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="6"/>
       <c r="B1000" s="15"/>
-      <c r="C1000" s="6"/>
+      <c r="C1000" s="12"/>
       <c r="D1000" s="6"/>
       <c r="E1000" s="6"/>
       <c r="F1000" s="6"/>

--- a/ES calc/Descriptive coding scheme for group-based interventions (data).xlsx
+++ b/ES calc/Descriptive coding scheme for group-based interventions (data).xlsx
@@ -1070,7 +1070,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="topRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1078,7 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
@@ -6033,7 +6033,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="21">
-        <v>943494</v>
+        <v>73490732</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>55</v>
@@ -6221,7 +6221,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="21">
-        <v>943494</v>
+        <v>73490732</v>
       </c>
       <c r="E28" s="22" t="s">
         <v>55</v>
@@ -6409,7 +6409,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="21">
-        <v>943494</v>
+        <v>73490732</v>
       </c>
       <c r="E29" s="22" t="s">
         <v>55</v>
@@ -6597,7 +6597,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="21">
-        <v>943494</v>
+        <v>73490732</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>55</v>

--- a/ES calc/Descriptive coding scheme for group-based interventions (data).xlsx
+++ b/ES calc/Descriptive coding scheme for group-based interventions (data).xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="224">
   <si>
     <t>authors</t>
   </si>
@@ -677,12 +677,63 @@
   <si>
     <t>Barbic et al. 2009</t>
   </si>
+  <si>
+    <t xml:space="preserve">Bond et al. </t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>42.96</t>
+  </si>
+  <si>
+    <t>44.66</t>
+  </si>
+  <si>
+    <t>Schizophrenia spectrum, bipolar or other psychotic disorder and either significant treatment history or significant functional impairments</t>
+  </si>
+  <si>
+    <t>referrel from psychiatric services</t>
+  </si>
+  <si>
+    <t>Work Choice</t>
+  </si>
+  <si>
+    <t>Not clearly specified</t>
+  </si>
+  <si>
+    <t>Individual Placement and Support (IPS)</t>
+  </si>
+  <si>
+    <t>Post-intervention</t>
+  </si>
+  <si>
+    <t>Psychiatric hospitalization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment </t>
+  </si>
+  <si>
+    <t>Days hospitalized</t>
+  </si>
+  <si>
+    <t>Risk of Psychiatric Hospitalization</t>
+  </si>
+  <si>
+    <t>Raw events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-intervention events </t>
+  </si>
+  <si>
+    <t>Bond et al. 2015</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +792,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -790,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,6 +913,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,9 +1145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1112,10 +1189,10 @@
     <col min="35" max="35" width="19.7109375" customWidth="1"/>
     <col min="36" max="36" width="15.5703125" customWidth="1"/>
     <col min="37" max="37" width="30.85546875" customWidth="1"/>
-    <col min="38" max="38" width="18" customWidth="1"/>
+    <col min="38" max="38" width="35" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="6.42578125" customWidth="1"/>
     <col min="40" max="40" width="69.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.5703125" customWidth="1"/>
+    <col min="41" max="41" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="13.7109375" customWidth="1"/>
     <col min="43" max="43" width="19" customWidth="1"/>
     <col min="44" max="44" width="58.7109375" customWidth="1"/>
@@ -1124,9 +1201,9 @@
     <col min="47" max="47" width="27.140625" customWidth="1"/>
     <col min="48" max="48" width="35.7109375" customWidth="1"/>
     <col min="49" max="49" width="8.7109375" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" customWidth="1"/>
+    <col min="50" max="50" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="59.5703125" customWidth="1"/>
-    <col min="52" max="52" width="23.140625" customWidth="1"/>
+    <col min="52" max="52" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="8.85546875" customWidth="1"/>
     <col min="54" max="54" width="27.85546875" customWidth="1"/>
     <col min="55" max="59" width="14" customWidth="1"/>
@@ -1455,8 +1532,8 @@
       <c r="AR2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AS2" s="8" t="s">
-        <v>79</v>
+      <c r="AS2" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="AT2" s="8" t="s">
         <v>80</v>
@@ -1831,8 +1908,8 @@
       <c r="AR4" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AS4" s="8" t="s">
-        <v>79</v>
+      <c r="AS4" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="AT4" s="8" t="s">
         <v>80</v>
@@ -2207,8 +2284,8 @@
       <c r="AR6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AS6" s="8" t="s">
-        <v>79</v>
+      <c r="AS6" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="AT6" s="8" t="s">
         <v>80</v>
@@ -2583,8 +2660,8 @@
       <c r="AR8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AS8" s="8" t="s">
-        <v>79</v>
+      <c r="AS8" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="AT8" s="8" t="s">
         <v>80</v>
@@ -2959,8 +3036,8 @@
       <c r="AR10" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AS10" s="8" t="s">
-        <v>79</v>
+      <c r="AS10" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="AT10" s="8" t="s">
         <v>80</v>
@@ -4839,8 +4916,8 @@
       <c r="AR20" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AS20" s="8" t="s">
-        <v>79</v>
+      <c r="AS20" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="AT20" s="8" t="s">
         <v>80</v>
@@ -5027,8 +5104,8 @@
       <c r="AR21" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="AS21" s="8" t="s">
-        <v>79</v>
+      <c r="AS21" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="AT21" s="8" t="s">
         <v>80</v>
@@ -5403,8 +5480,8 @@
       <c r="AR23" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="AS23" s="8" t="s">
-        <v>79</v>
+      <c r="AS23" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="AT23" s="8" t="s">
         <v>80</v>
@@ -5779,8 +5856,8 @@
       <c r="AR25" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="AS25" s="8" t="s">
-        <v>79</v>
+      <c r="AS25" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="AT25" s="8" t="s">
         <v>80</v>
@@ -6155,8 +6232,8 @@
       <c r="AR27" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="AS27" s="16" t="s">
-        <v>79</v>
+      <c r="AS27" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="AT27" s="12" t="s">
         <v>80</v>
@@ -6343,8 +6420,8 @@
       <c r="AR28" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="AS28" s="16" t="s">
-        <v>79</v>
+      <c r="AS28" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="AT28" s="12" t="s">
         <v>80</v>
@@ -6531,8 +6608,8 @@
       <c r="AR29" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="AS29" s="16" t="s">
-        <v>79</v>
+      <c r="AS29" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="AT29" s="12" t="s">
         <v>80</v>
@@ -6719,8 +6796,8 @@
       <c r="AR30" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="AS30" s="16" t="s">
-        <v>79</v>
+      <c r="AS30" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="AT30" s="12" t="s">
         <v>80</v>
@@ -6774,261 +6851,741 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="6"/>
-      <c r="AJ31" s="6"/>
-      <c r="AK31" s="6"/>
-      <c r="AL31" s="6"/>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="6"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
-      <c r="AQ31" s="6"/>
-      <c r="AR31" s="6"/>
-      <c r="AS31" s="6"/>
-      <c r="AT31" s="6"/>
-      <c r="AU31" s="6"/>
-      <c r="AV31" s="6"/>
-      <c r="AW31" s="6"/>
-      <c r="AX31" s="6"/>
-      <c r="AY31" s="6"/>
-      <c r="AZ31" s="6"/>
-      <c r="BA31" s="6"/>
-      <c r="BB31" s="6"/>
-      <c r="BC31" s="6"/>
-      <c r="BD31" s="6"/>
-      <c r="BE31" s="6"/>
-      <c r="BF31" s="6"/>
-      <c r="BG31" s="6"/>
-      <c r="BH31" s="6"/>
-      <c r="BI31" s="6"/>
-      <c r="BJ31" s="6"/>
-    </row>
-    <row r="32" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="8"/>
-      <c r="AN32" s="6"/>
-      <c r="AO32" s="6"/>
-      <c r="AP32" s="6"/>
-      <c r="AQ32" s="6"/>
-      <c r="AR32" s="6"/>
-      <c r="AS32" s="6"/>
-      <c r="AT32" s="6"/>
-      <c r="AU32" s="6"/>
-      <c r="AV32" s="6"/>
-      <c r="AW32" s="6"/>
-      <c r="AX32" s="6"/>
-      <c r="AY32" s="6"/>
-      <c r="AZ32" s="6"/>
-      <c r="BA32" s="6"/>
-      <c r="BB32" s="6"/>
-      <c r="BC32" s="6"/>
-      <c r="BD32" s="6"/>
-      <c r="BE32" s="6"/>
-      <c r="BF32" s="6"/>
-      <c r="BG32" s="6"/>
-      <c r="BH32" s="6"/>
-      <c r="BI32" s="6"/>
-      <c r="BJ32" s="6"/>
-    </row>
-    <row r="33" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="8"/>
-      <c r="AN33" s="6"/>
-      <c r="AO33" s="6"/>
-      <c r="AP33" s="6"/>
-      <c r="AQ33" s="6"/>
-      <c r="AR33" s="6"/>
-      <c r="AS33" s="6"/>
-      <c r="AT33" s="6"/>
-      <c r="AU33" s="6"/>
-      <c r="AV33" s="6"/>
-      <c r="AW33" s="6"/>
-      <c r="AX33" s="6"/>
-      <c r="AY33" s="6"/>
-      <c r="AZ33" s="6"/>
-      <c r="BA33" s="6"/>
-      <c r="BB33" s="6"/>
-      <c r="BC33" s="6"/>
-      <c r="BD33" s="6"/>
-      <c r="BE33" s="6"/>
-      <c r="BF33" s="6"/>
-      <c r="BG33" s="6"/>
-      <c r="BH33" s="6"/>
-      <c r="BI33" s="6"/>
-      <c r="BJ33" s="6"/>
-    </row>
-    <row r="34" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6"/>
-      <c r="AK34" s="6"/>
-      <c r="AL34" s="6"/>
-      <c r="AM34" s="8"/>
-      <c r="AN34" s="6"/>
-      <c r="AO34" s="6"/>
-      <c r="AP34" s="6"/>
-      <c r="AQ34" s="6"/>
-      <c r="AR34" s="6"/>
-      <c r="AS34" s="6"/>
-      <c r="AT34" s="6"/>
-      <c r="AU34" s="6"/>
-      <c r="AV34" s="6"/>
-      <c r="AW34" s="6"/>
-      <c r="AX34" s="6"/>
-      <c r="AY34" s="6"/>
-      <c r="AZ34" s="6"/>
-      <c r="BA34" s="6"/>
-      <c r="BB34" s="6"/>
-      <c r="BC34" s="6"/>
-      <c r="BD34" s="6"/>
-      <c r="BE34" s="6"/>
-      <c r="BF34" s="6"/>
-      <c r="BG34" s="6"/>
-      <c r="BH34" s="6"/>
-      <c r="BI34" s="6"/>
-      <c r="BJ34" s="6"/>
+    <row r="31" spans="1:62" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" s="28">
+        <v>2015</v>
+      </c>
+      <c r="C31" s="29">
+        <v>5</v>
+      </c>
+      <c r="D31" s="26">
+        <v>73503724</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27">
+        <v>77</v>
+      </c>
+      <c r="Q31" s="27">
+        <v>82</v>
+      </c>
+      <c r="R31" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="S31" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="T31" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="U31" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="V31" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="W31" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="X31" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y31" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z31" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA31" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF31" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG31" s="27">
+        <v>22</v>
+      </c>
+      <c r="AH31" s="27">
+        <v>52</v>
+      </c>
+      <c r="AI31" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK31" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL31" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM31" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO31" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP31" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ31" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR31" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS31" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT31" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU31" s="27">
+        <v>12</v>
+      </c>
+      <c r="AV31" s="27">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX31" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY31" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ31" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA31" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB31" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC31" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD31" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE31" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF31" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG31" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH31" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI31" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ31" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:62" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="28">
+        <v>2015</v>
+      </c>
+      <c r="C32" s="29">
+        <v>5</v>
+      </c>
+      <c r="D32" s="26">
+        <v>73503724</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27">
+        <v>77</v>
+      </c>
+      <c r="Q32" s="27">
+        <v>82</v>
+      </c>
+      <c r="R32" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="S32" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="T32" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="U32" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="V32" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="W32" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="X32" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y32" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z32" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA32" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF32" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG32" s="27">
+        <v>22</v>
+      </c>
+      <c r="AH32" s="27">
+        <v>52</v>
+      </c>
+      <c r="AI32" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK32" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL32" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM32" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO32" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP32" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ32" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR32" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS32" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT32" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU32" s="27">
+        <v>12</v>
+      </c>
+      <c r="AV32" s="27">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX32" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY32" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ32" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA32" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB32" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC32" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD32" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE32" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF32" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG32" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH32" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI32" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ32" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:62" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="28">
+        <v>2015</v>
+      </c>
+      <c r="C33" s="29">
+        <v>5</v>
+      </c>
+      <c r="D33" s="26">
+        <v>73503724</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27">
+        <v>77</v>
+      </c>
+      <c r="Q33" s="27">
+        <v>82</v>
+      </c>
+      <c r="R33" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="S33" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="T33" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="U33" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="V33" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="W33" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="X33" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y33" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z33" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA33" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF33" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG33" s="27">
+        <v>22</v>
+      </c>
+      <c r="AH33" s="27">
+        <v>52</v>
+      </c>
+      <c r="AI33" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL33" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM33" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="AO33" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP33" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ33" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR33" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS33" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT33" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU33" s="27">
+        <v>12</v>
+      </c>
+      <c r="AV33" s="27">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX33" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY33" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ33" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="BA33" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB33" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC33" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD33" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE33" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF33" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG33" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH33" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI33" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ33" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:62" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="28">
+        <v>2015</v>
+      </c>
+      <c r="C34" s="29">
+        <v>5</v>
+      </c>
+      <c r="D34" s="26">
+        <v>73503724</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27">
+        <v>77</v>
+      </c>
+      <c r="Q34" s="27">
+        <v>82</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="S34" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="T34" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="U34" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="V34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="W34" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="X34" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y34" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z34" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA34" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="27">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="27">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF34" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG34" s="27">
+        <v>22</v>
+      </c>
+      <c r="AH34" s="27">
+        <v>52</v>
+      </c>
+      <c r="AI34" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK34" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL34" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM34" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO34" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP34" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ34" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR34" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS34" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT34" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU34" s="27">
+        <v>12</v>
+      </c>
+      <c r="AV34" s="27">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX34" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY34" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ34" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="BA34" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB34" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC34" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD34" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE34" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF34" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG34" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH34" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI34" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ34" s="26" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="35" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>

--- a/ES calc/Descriptive coding scheme for group-based interventions (data).xlsx
+++ b/ES calc/Descriptive coding scheme for group-based interventions (data).xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="252">
   <si>
     <t>authors</t>
   </si>
@@ -728,12 +728,96 @@
   <si>
     <t>Bond et al. 2015</t>
   </si>
+  <si>
+    <t>Craigie &amp; Nathan</t>
+  </si>
+  <si>
+    <t>Public funded</t>
+  </si>
+  <si>
+    <t>36.4</t>
+  </si>
+  <si>
+    <t>37.6</t>
+  </si>
+  <si>
+    <t>35.2</t>
+  </si>
+  <si>
+    <t>38.3</t>
+  </si>
+  <si>
+    <t>Major depressive disorder, anixiety, social phobia, OCD, PTSD, panic disorder, dysthymia</t>
+  </si>
+  <si>
+    <t>QES</t>
+  </si>
+  <si>
+    <t>were referred according to the normal day-to-day clinic referral process (p. 304)</t>
+  </si>
+  <si>
+    <t>Group CBT</t>
+  </si>
+  <si>
+    <t>Cognitive-behavior therapy</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical professionals </t>
+  </si>
+  <si>
+    <t>Individual CBT</t>
+  </si>
+  <si>
+    <t>Beck Depression Inventory-II (BDI-II)</t>
+  </si>
+  <si>
+    <t>Beck Anxiety Inventory (BAI)</t>
+  </si>
+  <si>
+    <t>Quality of Life Enjoyment and Satisfaction Questionnaire (Q-LES-Q)</t>
+  </si>
+  <si>
+    <t>Quality of Life</t>
+  </si>
+  <si>
+    <t>ITT/BDI-II</t>
+  </si>
+  <si>
+    <t>ITT/BAI</t>
+  </si>
+  <si>
+    <t>ITT/QoL</t>
+  </si>
+  <si>
+    <t>TOT/BDI-II</t>
+  </si>
+  <si>
+    <t>TOT/BAI</t>
+  </si>
+  <si>
+    <t>TOT/QoL</t>
+  </si>
+  <si>
+    <t>ROBINS-I</t>
+  </si>
+  <si>
+    <t>Craigie &amp; Nathan 2009</t>
+  </si>
+  <si>
+    <t>Serious</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,6 +887,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -852,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,6 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1145,9 +1237,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB38" sqref="BB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1252,7 @@
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -1169,13 +1261,13 @@
     <col min="15" max="15" width="17.42578125" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="117.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.7109375" customWidth="1"/>
     <col min="20" max="20" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="35.42578125" customWidth="1"/>
     <col min="22" max="22" width="7.140625" customWidth="1"/>
     <col min="23" max="23" width="14.140625" customWidth="1"/>
-    <col min="24" max="24" width="31.28515625" customWidth="1"/>
+    <col min="24" max="24" width="77.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23.7109375" customWidth="1"/>
     <col min="26" max="26" width="17.28515625" customWidth="1"/>
     <col min="27" max="27" width="11.28515625" customWidth="1"/>
@@ -1204,10 +1296,10 @@
     <col min="50" max="50" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="59.5703125" customWidth="1"/>
     <col min="52" max="52" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.85546875" customWidth="1"/>
+    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="27.85546875" customWidth="1"/>
     <col min="55" max="59" width="14" customWidth="1"/>
-    <col min="60" max="61" width="3.7109375" customWidth="1"/>
+    <col min="60" max="61" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1399,7 +1491,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
@@ -1587,7 +1679,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
@@ -1775,7 +1867,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -1963,7 +2055,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
@@ -2151,7 +2243,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
@@ -2339,7 +2431,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -2527,7 +2619,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
@@ -2715,7 +2807,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
@@ -2903,7 +2995,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
@@ -3091,7 +3183,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -3279,7 +3371,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>110</v>
       </c>
@@ -3467,7 +3559,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>131</v>
       </c>
@@ -3655,7 +3747,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>131</v>
       </c>
@@ -3843,7 +3935,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>110</v>
       </c>
@@ -4031,7 +4123,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>131</v>
       </c>
@@ -4219,7 +4311,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>110</v>
       </c>
@@ -4407,7 +4499,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>110</v>
       </c>
@@ -4595,7 +4687,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>110</v>
       </c>
@@ -4783,7 +4875,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>110</v>
       </c>
@@ -4971,7 +5063,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>153</v>
       </c>
@@ -5159,7 +5251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>153</v>
       </c>
@@ -5347,7 +5439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>153</v>
       </c>
@@ -5535,7 +5627,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>153</v>
       </c>
@@ -5723,7 +5815,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>153</v>
       </c>
@@ -5911,7 +6003,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>153</v>
       </c>
@@ -6099,7 +6191,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>181</v>
       </c>
@@ -6287,7 +6379,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>181</v>
       </c>
@@ -6475,7 +6567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>181</v>
       </c>
@@ -6663,7 +6755,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>181</v>
       </c>
@@ -6851,7 +6943,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:62" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" s="26" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>207</v>
       </c>
@@ -6885,14 +6977,18 @@
       <c r="K31" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="L31" s="27"/>
+      <c r="L31" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="M31" s="27" t="s">
         <v>209</v>
       </c>
       <c r="N31" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="O31" s="27"/>
+      <c r="O31" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="P31" s="27">
         <v>77</v>
       </c>
@@ -7035,7 +7131,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:62" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>207</v>
       </c>
@@ -7069,14 +7165,18 @@
       <c r="K32" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="L32" s="27"/>
+      <c r="L32" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="M32" s="27" t="s">
         <v>209</v>
       </c>
       <c r="N32" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="O32" s="27"/>
+      <c r="O32" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="P32" s="27">
         <v>77</v>
       </c>
@@ -7219,7 +7319,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:62" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>207</v>
       </c>
@@ -7253,14 +7353,18 @@
       <c r="K33" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="27"/>
+      <c r="L33" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="M33" s="27" t="s">
         <v>209</v>
       </c>
       <c r="N33" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="O33" s="27"/>
+      <c r="O33" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="P33" s="27">
         <v>77</v>
       </c>
@@ -7437,14 +7541,18 @@
       <c r="K34" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="L34" s="27"/>
+      <c r="L34" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="M34" s="27" t="s">
         <v>209</v>
       </c>
       <c r="N34" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="O34" s="27"/>
+      <c r="O34" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="P34" s="27">
         <v>77</v>
       </c>
@@ -7587,389 +7695,1133 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="8"/>
-      <c r="AN35" s="6"/>
-      <c r="AO35" s="6"/>
-      <c r="AP35" s="6"/>
-      <c r="AQ35" s="6"/>
-      <c r="AR35" s="6"/>
-      <c r="AS35" s="6"/>
-      <c r="AT35" s="6"/>
-      <c r="AU35" s="6"/>
-      <c r="AV35" s="6"/>
-      <c r="AW35" s="6"/>
-      <c r="AX35" s="6"/>
-      <c r="AY35" s="6"/>
-      <c r="AZ35" s="6"/>
-      <c r="BA35" s="6"/>
-      <c r="BB35" s="6"/>
-      <c r="BC35" s="6"/>
-      <c r="BD35" s="6"/>
-      <c r="BE35" s="6"/>
-      <c r="BF35" s="6"/>
-      <c r="BG35" s="6"/>
-      <c r="BH35" s="6"/>
-      <c r="BI35" s="6"/>
-      <c r="BJ35" s="6"/>
-    </row>
-    <row r="36" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="8"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="6"/>
-      <c r="AS36" s="6"/>
-      <c r="AT36" s="6"/>
-      <c r="AU36" s="6"/>
-      <c r="AV36" s="6"/>
-      <c r="AW36" s="6"/>
-      <c r="AX36" s="6"/>
-      <c r="AY36" s="6"/>
-      <c r="AZ36" s="6"/>
-      <c r="BA36" s="6"/>
-      <c r="BB36" s="6"/>
-      <c r="BC36" s="6"/>
-      <c r="BD36" s="6"/>
-      <c r="BE36" s="6"/>
-      <c r="BF36" s="6"/>
-      <c r="BG36" s="6"/>
-      <c r="BH36" s="6"/>
-      <c r="BI36" s="6"/>
-      <c r="BJ36" s="6"/>
-    </row>
-    <row r="37" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-      <c r="AH37" s="6"/>
-      <c r="AI37" s="6"/>
-      <c r="AJ37" s="6"/>
-      <c r="AK37" s="6"/>
-      <c r="AL37" s="6"/>
-      <c r="AM37" s="8"/>
-      <c r="AN37" s="6"/>
-      <c r="AO37" s="6"/>
-      <c r="AP37" s="6"/>
-      <c r="AQ37" s="6"/>
-      <c r="AR37" s="6"/>
-      <c r="AS37" s="6"/>
-      <c r="AT37" s="6"/>
-      <c r="AU37" s="6"/>
-      <c r="AV37" s="6"/>
-      <c r="AW37" s="6"/>
-      <c r="AX37" s="6"/>
-      <c r="AY37" s="6"/>
-      <c r="AZ37" s="6"/>
-      <c r="BA37" s="6"/>
-      <c r="BB37" s="6"/>
-      <c r="BC37" s="6"/>
-      <c r="BD37" s="6"/>
-      <c r="BE37" s="6"/>
-      <c r="BF37" s="6"/>
-      <c r="BG37" s="6"/>
-      <c r="BH37" s="6"/>
-      <c r="BI37" s="6"/>
-      <c r="BJ37" s="6"/>
-    </row>
-    <row r="38" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="8"/>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="6"/>
-      <c r="AQ38" s="6"/>
-      <c r="AR38" s="6"/>
-      <c r="AS38" s="6"/>
-      <c r="AT38" s="6"/>
-      <c r="AU38" s="6"/>
-      <c r="AV38" s="6"/>
-      <c r="AW38" s="6"/>
-      <c r="AX38" s="6"/>
-      <c r="AY38" s="6"/>
-      <c r="AZ38" s="6"/>
-      <c r="BA38" s="6"/>
-      <c r="BB38" s="6"/>
-      <c r="BC38" s="6"/>
-      <c r="BD38" s="6"/>
-      <c r="BE38" s="6"/>
-      <c r="BF38" s="6"/>
-      <c r="BG38" s="6"/>
-      <c r="BH38" s="6"/>
-      <c r="BI38" s="6"/>
-      <c r="BJ38" s="6"/>
-    </row>
-    <row r="39" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
-      <c r="AM39" s="8"/>
-      <c r="AN39" s="6"/>
-      <c r="AO39" s="6"/>
-      <c r="AP39" s="6"/>
-      <c r="AQ39" s="6"/>
-      <c r="AR39" s="6"/>
-      <c r="AS39" s="6"/>
-      <c r="AT39" s="6"/>
-      <c r="AU39" s="6"/>
-      <c r="AV39" s="6"/>
-      <c r="AW39" s="6"/>
-      <c r="AX39" s="6"/>
-      <c r="AY39" s="6"/>
-      <c r="AZ39" s="6"/>
-      <c r="BA39" s="6"/>
-      <c r="BB39" s="6"/>
-      <c r="BC39" s="6"/>
-      <c r="BD39" s="6"/>
-      <c r="BE39" s="6"/>
-      <c r="BF39" s="6"/>
-      <c r="BG39" s="6"/>
-      <c r="BH39" s="6"/>
-      <c r="BI39" s="6"/>
-      <c r="BJ39" s="6"/>
-    </row>
-    <row r="40" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
-      <c r="AM40" s="8"/>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6"/>
-      <c r="AP40" s="6"/>
-      <c r="AQ40" s="6"/>
-      <c r="AR40" s="6"/>
-      <c r="AS40" s="6"/>
-      <c r="AT40" s="6"/>
-      <c r="AU40" s="6"/>
-      <c r="AV40" s="6"/>
-      <c r="AW40" s="6"/>
-      <c r="AX40" s="6"/>
-      <c r="AY40" s="6"/>
-      <c r="AZ40" s="6"/>
-      <c r="BA40" s="6"/>
-      <c r="BB40" s="6"/>
-      <c r="BC40" s="6"/>
-      <c r="BD40" s="6"/>
-      <c r="BE40" s="6"/>
-      <c r="BF40" s="6"/>
-      <c r="BG40" s="6"/>
-      <c r="BH40" s="6"/>
-      <c r="BI40" s="6"/>
-      <c r="BJ40" s="6"/>
+    <row r="35" spans="1:62" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="20">
+        <v>2009</v>
+      </c>
+      <c r="C35" s="18">
+        <v>7</v>
+      </c>
+      <c r="D35" s="21">
+        <v>73502127</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="M35" s="16">
+        <v>34</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35" s="16">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>33</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="S35" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="T35" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="U35" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="V35" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="W35" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X35" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y35" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z35" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF35" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG35" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH35" s="16">
+        <v>10</v>
+      </c>
+      <c r="AI35" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK35" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL35" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM35" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO35" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP35" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ35" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR35" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS35" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT35" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU35" s="16">
+        <v>14</v>
+      </c>
+      <c r="AV35" s="16">
+        <v>4</v>
+      </c>
+      <c r="AW35" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX35" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ35" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="BA35" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="BB35" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC35" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD35" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE35" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF35" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG35" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH35" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BI35" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ35" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:62" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="20">
+        <v>2009</v>
+      </c>
+      <c r="C36" s="18">
+        <v>7</v>
+      </c>
+      <c r="D36" s="21">
+        <v>73502127</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="M36" s="16">
+        <v>34</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" s="16">
+        <v>40</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>33</v>
+      </c>
+      <c r="R36" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="S36" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="T36" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="U36" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="V36" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="W36" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X36" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y36" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z36" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA36" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF36" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG36" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH36" s="16">
+        <v>10</v>
+      </c>
+      <c r="AI36" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK36" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL36" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM36" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO36" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP36" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ36" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR36" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS36" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT36" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU36" s="16">
+        <v>14</v>
+      </c>
+      <c r="AV36" s="16">
+        <v>4</v>
+      </c>
+      <c r="AW36" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX36" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ36" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="BA36" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="BB36" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC36" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD36" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE36" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF36" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG36" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH36" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BI36" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ36" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="20">
+        <v>2009</v>
+      </c>
+      <c r="C37" s="18">
+        <v>7</v>
+      </c>
+      <c r="D37" s="21">
+        <v>73502127</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="M37" s="16">
+        <v>34</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P37" s="16">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>33</v>
+      </c>
+      <c r="R37" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="S37" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="T37" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="U37" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="V37" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="W37" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X37" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y37" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z37" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA37" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF37" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG37" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH37" s="16">
+        <v>10</v>
+      </c>
+      <c r="AI37" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK37" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL37" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM37" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO37" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP37" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ37" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR37" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="AS37" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT37" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU37" s="16">
+        <v>14</v>
+      </c>
+      <c r="AV37" s="16">
+        <v>4</v>
+      </c>
+      <c r="AW37" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX37" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ37" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="BA37" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="BB37" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC37" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD37" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE37" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF37" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG37" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH37" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BI37" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ37" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:62" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" s="20">
+        <v>2009</v>
+      </c>
+      <c r="C38" s="18">
+        <v>7</v>
+      </c>
+      <c r="D38" s="21">
+        <v>73502127</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P38" s="16">
+        <v>38</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>32</v>
+      </c>
+      <c r="R38" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="S38" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="T38" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="U38" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="V38" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="W38" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X38" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y38" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z38" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA38" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF38" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG38" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH38" s="16">
+        <v>10</v>
+      </c>
+      <c r="AI38" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK38" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL38" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM38" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO38" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP38" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ38" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR38" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS38" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT38" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU38" s="16">
+        <v>14</v>
+      </c>
+      <c r="AV38" s="16">
+        <v>4</v>
+      </c>
+      <c r="AW38" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX38" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ38" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="BA38" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="BB38" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC38" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD38" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE38" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF38" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG38" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH38" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BI38" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ38" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:62" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="20">
+        <v>2009</v>
+      </c>
+      <c r="C39" s="18">
+        <v>7</v>
+      </c>
+      <c r="D39" s="21">
+        <v>73502127</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="N39" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P39" s="16">
+        <v>38</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>32</v>
+      </c>
+      <c r="R39" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="S39" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="T39" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="U39" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="V39" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="W39" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X39" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y39" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z39" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA39" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF39" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG39" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH39" s="16">
+        <v>10</v>
+      </c>
+      <c r="AI39" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK39" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL39" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM39" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO39" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP39" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ39" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR39" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS39" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT39" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU39" s="16">
+        <v>14</v>
+      </c>
+      <c r="AV39" s="16">
+        <v>4</v>
+      </c>
+      <c r="AW39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX39" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ39" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA39" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="BB39" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC39" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD39" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE39" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF39" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG39" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH39" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BI39" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ39" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:62" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="20">
+        <v>2009</v>
+      </c>
+      <c r="C40" s="18">
+        <v>7</v>
+      </c>
+      <c r="D40" s="21">
+        <v>73502127</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="N40" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="O40" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P40" s="16">
+        <v>38</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>32</v>
+      </c>
+      <c r="R40" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="S40" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="T40" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="U40" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="V40" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="W40" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X40" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y40" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z40" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA40" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF40" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG40" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH40" s="16">
+        <v>10</v>
+      </c>
+      <c r="AI40" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK40" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL40" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM40" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO40" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP40" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ40" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR40" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="AS40" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT40" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU40" s="16">
+        <v>14</v>
+      </c>
+      <c r="AV40" s="16">
+        <v>4</v>
+      </c>
+      <c r="AW40" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX40" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ40" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="BA40" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="BB40" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC40" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD40" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE40" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF40" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BG40" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH40" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BI40" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ40" s="16" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="41" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>

--- a/ES calc/Descriptive coding scheme for group-based interventions (data).xlsx
+++ b/ES calc/Descriptive coding scheme for group-based interventions (data).xlsx
@@ -642,9 +642,6 @@
     <t>the recovery work book group intervention + treatment as usual</t>
   </si>
   <si>
-    <t>Not clear</t>
-  </si>
-  <si>
     <t>TAU -  assertive community treatment</t>
   </si>
   <si>
@@ -811,6 +808,9 @@
   </si>
   <si>
     <t>Moderate</t>
+  </si>
+  <si>
+    <t>Group psychoeducation</t>
   </si>
 </sst>
 </file>
@@ -1238,8 +1238,8 @@
   <dimension ref="A1:BJ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB38" sqref="BB38"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF29" sqref="AF29:AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1452,7 @@
         <v>41</v>
       </c>
       <c r="AX1" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>42</v>
@@ -1625,7 +1625,7 @@
         <v>78</v>
       </c>
       <c r="AS2" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT2" s="8" t="s">
         <v>80</v>
@@ -2001,7 +2001,7 @@
         <v>94</v>
       </c>
       <c r="AS4" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT4" s="8" t="s">
         <v>80</v>
@@ -2377,7 +2377,7 @@
         <v>98</v>
       </c>
       <c r="AS6" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT6" s="8" t="s">
         <v>80</v>
@@ -2753,7 +2753,7 @@
         <v>102</v>
       </c>
       <c r="AS8" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT8" s="8" t="s">
         <v>80</v>
@@ -3129,7 +3129,7 @@
         <v>107</v>
       </c>
       <c r="AS10" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT10" s="8" t="s">
         <v>80</v>
@@ -5009,7 +5009,7 @@
         <v>126</v>
       </c>
       <c r="AS20" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT20" s="8" t="s">
         <v>80</v>
@@ -5197,7 +5197,7 @@
         <v>164</v>
       </c>
       <c r="AS21" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT21" s="8" t="s">
         <v>80</v>
@@ -5573,7 +5573,7 @@
         <v>171</v>
       </c>
       <c r="AS23" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT23" s="8" t="s">
         <v>80</v>
@@ -5949,7 +5949,7 @@
         <v>176</v>
       </c>
       <c r="AS25" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT25" s="8" t="s">
         <v>80</v>
@@ -6191,7 +6191,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>181</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>194</v>
       </c>
       <c r="AF27" s="16" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="AG27" s="16">
         <v>8</v>
@@ -6304,13 +6304,13 @@
         <v>45</v>
       </c>
       <c r="AL27" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AM27" s="18">
         <v>1</v>
       </c>
       <c r="AN27" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AO27" s="16" t="s">
         <v>93</v>
@@ -6322,10 +6322,10 @@
         <v>77</v>
       </c>
       <c r="AR27" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AS27" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT27" s="12" t="s">
         <v>80</v>
@@ -6346,13 +6346,13 @@
         <v>82</v>
       </c>
       <c r="AZ27" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BA27" s="12" t="s">
         <v>84</v>
       </c>
       <c r="BB27" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BC27" s="10" t="s">
         <v>86</v>
@@ -6379,7 +6379,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>181</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>194</v>
       </c>
       <c r="AF28" s="16" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="AG28" s="16">
         <v>8</v>
@@ -6492,13 +6492,13 @@
         <v>45</v>
       </c>
       <c r="AL28" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AM28" s="18">
         <v>1</v>
       </c>
       <c r="AN28" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AO28" s="16" t="s">
         <v>75</v>
@@ -6510,10 +6510,10 @@
         <v>77</v>
       </c>
       <c r="AR28" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS28" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT28" s="12" t="s">
         <v>80</v>
@@ -6534,13 +6534,13 @@
         <v>82</v>
       </c>
       <c r="AZ28" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BA28" s="12" t="s">
         <v>84</v>
       </c>
       <c r="BB28" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BC28" s="10" t="s">
         <v>86</v>
@@ -6567,7 +6567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>181</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>194</v>
       </c>
       <c r="AF29" s="16" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="AG29" s="16">
         <v>8</v>
@@ -6680,13 +6680,13 @@
         <v>45</v>
       </c>
       <c r="AL29" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AM29" s="18">
         <v>1</v>
       </c>
       <c r="AN29" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO29" s="16" t="s">
         <v>101</v>
@@ -6698,10 +6698,10 @@
         <v>77</v>
       </c>
       <c r="AR29" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AS29" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT29" s="12" t="s">
         <v>80</v>
@@ -6722,13 +6722,13 @@
         <v>82</v>
       </c>
       <c r="AZ29" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BA29" s="12" t="s">
         <v>84</v>
       </c>
       <c r="BB29" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BC29" s="10" t="s">
         <v>86</v>
@@ -6755,7 +6755,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:62" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>181</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>194</v>
       </c>
       <c r="AF30" s="16" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="AG30" s="16">
         <v>8</v>
@@ -6868,16 +6868,16 @@
         <v>45</v>
       </c>
       <c r="AL30" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AM30" s="18">
         <v>1</v>
       </c>
       <c r="AN30" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AO30" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AP30" s="18" t="s">
         <v>76</v>
@@ -6886,10 +6886,10 @@
         <v>77</v>
       </c>
       <c r="AR30" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AS30" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT30" s="12" t="s">
         <v>80</v>
@@ -6910,13 +6910,13 @@
         <v>82</v>
       </c>
       <c r="AZ30" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA30" s="12" t="s">
         <v>84</v>
       </c>
       <c r="BB30" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BC30" s="10" t="s">
         <v>86</v>
@@ -6943,9 +6943,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:62" s="26" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" s="26" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" s="28">
         <v>2015</v>
@@ -6972,7 +6972,7 @@
         <v>180</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K31" s="27" t="s">
         <v>111</v>
@@ -6981,10 +6981,10 @@
         <v>89</v>
       </c>
       <c r="M31" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="N31" s="27" t="s">
         <v>209</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>210</v>
       </c>
       <c r="O31" s="16" t="s">
         <v>89</v>
@@ -6996,7 +6996,7 @@
         <v>82</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S31" s="30" t="s">
         <v>115</v>
@@ -7014,7 +7014,7 @@
         <v>67</v>
       </c>
       <c r="X31" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y31" s="27" t="s">
         <v>148</v>
@@ -7035,10 +7035,10 @@
         <v>1</v>
       </c>
       <c r="AE31" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF31" s="27" t="s">
         <v>213</v>
-      </c>
-      <c r="AF31" s="27" t="s">
-        <v>214</v>
       </c>
       <c r="AG31" s="27">
         <v>22</v>
@@ -7056,16 +7056,16 @@
         <v>45</v>
       </c>
       <c r="AL31" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM31" s="29">
         <v>1</v>
       </c>
       <c r="AN31" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AO31" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AP31" s="29" t="s">
         <v>76</v>
@@ -7074,10 +7074,10 @@
         <v>77</v>
       </c>
       <c r="AR31" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AS31" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT31" s="29" t="s">
         <v>80</v>
@@ -7098,13 +7098,13 @@
         <v>148</v>
       </c>
       <c r="AZ31" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BA31" s="29" t="s">
         <v>84</v>
       </c>
       <c r="BB31" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BC31" s="29" t="s">
         <v>88</v>
@@ -7131,9 +7131,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:62" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="28">
         <v>2015</v>
@@ -7160,7 +7160,7 @@
         <v>180</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K32" s="27" t="s">
         <v>111</v>
@@ -7169,10 +7169,10 @@
         <v>89</v>
       </c>
       <c r="M32" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="N32" s="27" t="s">
         <v>209</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>210</v>
       </c>
       <c r="O32" s="16" t="s">
         <v>89</v>
@@ -7184,7 +7184,7 @@
         <v>82</v>
       </c>
       <c r="R32" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S32" s="30" t="s">
         <v>115</v>
@@ -7202,7 +7202,7 @@
         <v>67</v>
       </c>
       <c r="X32" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y32" s="27" t="s">
         <v>148</v>
@@ -7223,10 +7223,10 @@
         <v>1</v>
       </c>
       <c r="AE32" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF32" s="27" t="s">
         <v>213</v>
-      </c>
-      <c r="AF32" s="27" t="s">
-        <v>214</v>
       </c>
       <c r="AG32" s="27">
         <v>22</v>
@@ -7244,28 +7244,28 @@
         <v>45</v>
       </c>
       <c r="AL32" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM32" s="29">
         <v>1</v>
       </c>
       <c r="AN32" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AO32" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AP32" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AQ32" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AR32" s="27" t="s">
         <v>148</v>
       </c>
       <c r="AS32" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT32" s="29" t="s">
         <v>80</v>
@@ -7280,19 +7280,19 @@
         <v>58</v>
       </c>
       <c r="AX32" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AY32" s="27" t="s">
         <v>148</v>
       </c>
       <c r="AZ32" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BA32" s="29" t="s">
         <v>84</v>
       </c>
       <c r="BB32" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BC32" s="29" t="s">
         <v>88</v>
@@ -7319,9 +7319,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:62" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B33" s="28">
         <v>2015</v>
@@ -7348,7 +7348,7 @@
         <v>180</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K33" s="27" t="s">
         <v>111</v>
@@ -7357,10 +7357,10 @@
         <v>89</v>
       </c>
       <c r="M33" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="N33" s="27" t="s">
         <v>209</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>210</v>
       </c>
       <c r="O33" s="16" t="s">
         <v>89</v>
@@ -7372,7 +7372,7 @@
         <v>82</v>
       </c>
       <c r="R33" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S33" s="30" t="s">
         <v>115</v>
@@ -7390,7 +7390,7 @@
         <v>67</v>
       </c>
       <c r="X33" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y33" s="27" t="s">
         <v>148</v>
@@ -7411,10 +7411,10 @@
         <v>1</v>
       </c>
       <c r="AE33" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF33" s="27" t="s">
         <v>213</v>
-      </c>
-      <c r="AF33" s="27" t="s">
-        <v>214</v>
       </c>
       <c r="AG33" s="27">
         <v>22</v>
@@ -7432,28 +7432,28 @@
         <v>45</v>
       </c>
       <c r="AL33" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM33" s="29">
         <v>1</v>
       </c>
       <c r="AN33" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AO33" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AP33" s="27" t="s">
         <v>151</v>
       </c>
       <c r="AQ33" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AR33" s="27" t="s">
         <v>148</v>
       </c>
       <c r="AS33" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT33" s="29" t="s">
         <v>80</v>
@@ -7468,19 +7468,19 @@
         <v>58</v>
       </c>
       <c r="AX33" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AY33" s="27" t="s">
         <v>148</v>
       </c>
       <c r="AZ33" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BA33" s="29" t="s">
         <v>84</v>
       </c>
       <c r="BB33" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BC33" s="29" t="s">
         <v>88</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="34" spans="1:62" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B34" s="28">
         <v>2015</v>
@@ -7536,7 +7536,7 @@
         <v>180</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K34" s="27" t="s">
         <v>111</v>
@@ -7545,10 +7545,10 @@
         <v>89</v>
       </c>
       <c r="M34" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="N34" s="27" t="s">
         <v>209</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>210</v>
       </c>
       <c r="O34" s="16" t="s">
         <v>89</v>
@@ -7560,7 +7560,7 @@
         <v>82</v>
       </c>
       <c r="R34" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S34" s="30" t="s">
         <v>115</v>
@@ -7578,7 +7578,7 @@
         <v>67</v>
       </c>
       <c r="X34" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y34" s="27" t="s">
         <v>148</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AE34" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF34" s="27" t="s">
         <v>213</v>
-      </c>
-      <c r="AF34" s="27" t="s">
-        <v>214</v>
       </c>
       <c r="AG34" s="27">
         <v>22</v>
@@ -7620,28 +7620,28 @@
         <v>45</v>
       </c>
       <c r="AL34" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM34" s="29">
         <v>1</v>
       </c>
       <c r="AN34" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AO34" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AP34" s="27" t="s">
         <v>151</v>
       </c>
       <c r="AQ34" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AR34" s="27" t="s">
         <v>148</v>
       </c>
       <c r="AS34" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT34" s="29" t="s">
         <v>80</v>
@@ -7656,19 +7656,19 @@
         <v>58</v>
       </c>
       <c r="AX34" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AY34" s="27" t="s">
         <v>148</v>
       </c>
       <c r="AZ34" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BA34" s="29" t="s">
         <v>84</v>
       </c>
       <c r="BB34" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BC34" s="29" t="s">
         <v>88</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="35" spans="1:62" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35" s="20">
         <v>2009</v>
@@ -7721,7 +7721,7 @@
         <v>57</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J35" s="16" t="s">
         <v>112</v>
@@ -7730,13 +7730,13 @@
         <v>60</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M35" s="16">
         <v>34</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>89</v>
@@ -7748,7 +7748,7 @@
         <v>33</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S35" s="30" t="s">
         <v>115</v>
@@ -7760,13 +7760,13 @@
         <v>193</v>
       </c>
       <c r="V35" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W35" s="16" t="s">
         <v>148</v>
       </c>
       <c r="X35" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y35" s="16" t="s">
         <v>148</v>
@@ -7787,13 +7787,13 @@
         <v>1</v>
       </c>
       <c r="AE35" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF35" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="AF35" s="16" t="s">
+      <c r="AG35" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AG35" s="16" t="s">
-        <v>235</v>
       </c>
       <c r="AH35" s="16">
         <v>10</v>
@@ -7805,10 +7805,10 @@
         <v>57</v>
       </c>
       <c r="AK35" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL35" s="16" t="s">
         <v>236</v>
-      </c>
-      <c r="AL35" s="16" t="s">
-        <v>237</v>
       </c>
       <c r="AM35" s="18">
         <v>1</v>
@@ -7826,10 +7826,10 @@
         <v>77</v>
       </c>
       <c r="AR35" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AS35" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT35" s="29" t="s">
         <v>80</v>
@@ -7850,16 +7850,16 @@
         <v>82</v>
       </c>
       <c r="AZ35" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BA35" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="BB35" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="BB35" s="16" t="s">
+      <c r="BC35" s="16" t="s">
         <v>249</v>
-      </c>
-      <c r="BC35" s="16" t="s">
-        <v>250</v>
       </c>
       <c r="BD35" s="29" t="s">
         <v>88</v>
@@ -7868,24 +7868,24 @@
         <v>88</v>
       </c>
       <c r="BF35" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BG35" s="16" t="s">
         <v>88</v>
       </c>
       <c r="BH35" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BI35" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BJ35" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:62" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="20">
         <v>2009</v>
@@ -7909,7 +7909,7 @@
         <v>57</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J36" s="16" t="s">
         <v>112</v>
@@ -7918,13 +7918,13 @@
         <v>60</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M36" s="16">
         <v>34</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O36" s="16" t="s">
         <v>89</v>
@@ -7936,7 +7936,7 @@
         <v>33</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S36" s="30" t="s">
         <v>115</v>
@@ -7948,13 +7948,13 @@
         <v>193</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W36" s="16" t="s">
         <v>148</v>
       </c>
       <c r="X36" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y36" s="16" t="s">
         <v>148</v>
@@ -7975,13 +7975,13 @@
         <v>1</v>
       </c>
       <c r="AE36" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF36" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="AF36" s="16" t="s">
+      <c r="AG36" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AG36" s="16" t="s">
-        <v>235</v>
       </c>
       <c r="AH36" s="16">
         <v>10</v>
@@ -7993,10 +7993,10 @@
         <v>57</v>
       </c>
       <c r="AK36" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL36" s="16" t="s">
         <v>236</v>
-      </c>
-      <c r="AL36" s="16" t="s">
-        <v>237</v>
       </c>
       <c r="AM36" s="18">
         <v>1</v>
@@ -8014,10 +8014,10 @@
         <v>77</v>
       </c>
       <c r="AR36" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AS36" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT36" s="29" t="s">
         <v>80</v>
@@ -8038,16 +8038,16 @@
         <v>82</v>
       </c>
       <c r="AZ36" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BA36" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="BB36" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="BB36" s="16" t="s">
+      <c r="BC36" s="16" t="s">
         <v>249</v>
-      </c>
-      <c r="BC36" s="16" t="s">
-        <v>250</v>
       </c>
       <c r="BD36" s="29" t="s">
         <v>88</v>
@@ -8056,24 +8056,24 @@
         <v>88</v>
       </c>
       <c r="BF36" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BG36" s="16" t="s">
         <v>88</v>
       </c>
       <c r="BH36" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BI36" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BJ36" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:62" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B37" s="20">
         <v>2009</v>
@@ -8097,7 +8097,7 @@
         <v>57</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>112</v>
@@ -8106,13 +8106,13 @@
         <v>60</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M37" s="16">
         <v>34</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O37" s="16" t="s">
         <v>89</v>
@@ -8124,7 +8124,7 @@
         <v>33</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S37" s="30" t="s">
         <v>115</v>
@@ -8136,13 +8136,13 @@
         <v>193</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W37" s="16" t="s">
         <v>148</v>
       </c>
       <c r="X37" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y37" s="16" t="s">
         <v>148</v>
@@ -8163,13 +8163,13 @@
         <v>1</v>
       </c>
       <c r="AE37" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF37" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="AF37" s="16" t="s">
+      <c r="AG37" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AG37" s="16" t="s">
-        <v>235</v>
       </c>
       <c r="AH37" s="16">
         <v>10</v>
@@ -8181,19 +8181,19 @@
         <v>57</v>
       </c>
       <c r="AK37" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL37" s="16" t="s">
         <v>236</v>
-      </c>
-      <c r="AL37" s="16" t="s">
-        <v>237</v>
       </c>
       <c r="AM37" s="18">
         <v>1</v>
       </c>
       <c r="AN37" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO37" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AP37" s="16" t="s">
         <v>76</v>
@@ -8202,10 +8202,10 @@
         <v>77</v>
       </c>
       <c r="AR37" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AS37" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT37" s="29" t="s">
         <v>80</v>
@@ -8226,16 +8226,16 @@
         <v>82</v>
       </c>
       <c r="AZ37" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BA37" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="BB37" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="BB37" s="16" t="s">
+      <c r="BC37" s="16" t="s">
         <v>249</v>
-      </c>
-      <c r="BC37" s="16" t="s">
-        <v>250</v>
       </c>
       <c r="BD37" s="29" t="s">
         <v>88</v>
@@ -8244,24 +8244,24 @@
         <v>88</v>
       </c>
       <c r="BF37" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BG37" s="16" t="s">
         <v>88</v>
       </c>
       <c r="BH37" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BI37" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BJ37" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:62" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B38" s="20">
         <v>2009</v>
@@ -8285,7 +8285,7 @@
         <v>57</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J38" s="16" t="s">
         <v>112</v>
@@ -8297,10 +8297,10 @@
         <v>89</v>
       </c>
       <c r="M38" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="N38" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="N38" s="16" t="s">
-        <v>229</v>
       </c>
       <c r="O38" s="16" t="s">
         <v>89</v>
@@ -8312,7 +8312,7 @@
         <v>32</v>
       </c>
       <c r="R38" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S38" s="30" t="s">
         <v>115</v>
@@ -8324,13 +8324,13 @@
         <v>193</v>
       </c>
       <c r="V38" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W38" s="16" t="s">
         <v>148</v>
       </c>
       <c r="X38" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y38" s="16" t="s">
         <v>148</v>
@@ -8351,13 +8351,13 @@
         <v>1</v>
       </c>
       <c r="AE38" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF38" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="AF38" s="16" t="s">
+      <c r="AG38" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AG38" s="16" t="s">
-        <v>235</v>
       </c>
       <c r="AH38" s="16">
         <v>10</v>
@@ -8369,10 +8369,10 @@
         <v>57</v>
       </c>
       <c r="AK38" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL38" s="16" t="s">
         <v>236</v>
-      </c>
-      <c r="AL38" s="16" t="s">
-        <v>237</v>
       </c>
       <c r="AM38" s="18">
         <v>1</v>
@@ -8390,10 +8390,10 @@
         <v>77</v>
       </c>
       <c r="AR38" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AS38" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT38" s="29" t="s">
         <v>80</v>
@@ -8414,16 +8414,16 @@
         <v>82</v>
       </c>
       <c r="AZ38" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BA38" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="BB38" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="BB38" s="16" t="s">
+      <c r="BC38" s="16" t="s">
         <v>249</v>
-      </c>
-      <c r="BC38" s="16" t="s">
-        <v>250</v>
       </c>
       <c r="BD38" s="29" t="s">
         <v>88</v>
@@ -8432,24 +8432,24 @@
         <v>88</v>
       </c>
       <c r="BF38" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BG38" s="16" t="s">
         <v>88</v>
       </c>
       <c r="BH38" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BI38" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BJ38" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:62" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B39" s="20">
         <v>2009</v>
@@ -8473,7 +8473,7 @@
         <v>57</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>112</v>
@@ -8485,10 +8485,10 @@
         <v>89</v>
       </c>
       <c r="M39" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="N39" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="N39" s="16" t="s">
-        <v>229</v>
       </c>
       <c r="O39" s="16" t="s">
         <v>89</v>
@@ -8500,7 +8500,7 @@
         <v>32</v>
       </c>
       <c r="R39" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S39" s="30" t="s">
         <v>115</v>
@@ -8512,13 +8512,13 @@
         <v>193</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W39" s="16" t="s">
         <v>148</v>
       </c>
       <c r="X39" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y39" s="16" t="s">
         <v>148</v>
@@ -8539,13 +8539,13 @@
         <v>1</v>
       </c>
       <c r="AE39" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF39" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="AF39" s="16" t="s">
+      <c r="AG39" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AG39" s="16" t="s">
-        <v>235</v>
       </c>
       <c r="AH39" s="16">
         <v>10</v>
@@ -8557,10 +8557,10 @@
         <v>57</v>
       </c>
       <c r="AK39" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL39" s="16" t="s">
         <v>236</v>
-      </c>
-      <c r="AL39" s="16" t="s">
-        <v>237</v>
       </c>
       <c r="AM39" s="18">
         <v>1</v>
@@ -8578,10 +8578,10 @@
         <v>77</v>
       </c>
       <c r="AR39" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AS39" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT39" s="29" t="s">
         <v>80</v>
@@ -8602,16 +8602,16 @@
         <v>82</v>
       </c>
       <c r="AZ39" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BA39" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="BB39" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="BB39" s="16" t="s">
+      <c r="BC39" s="16" t="s">
         <v>249</v>
-      </c>
-      <c r="BC39" s="16" t="s">
-        <v>250</v>
       </c>
       <c r="BD39" s="29" t="s">
         <v>88</v>
@@ -8620,24 +8620,24 @@
         <v>88</v>
       </c>
       <c r="BF39" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BG39" s="16" t="s">
         <v>88</v>
       </c>
       <c r="BH39" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BI39" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BJ39" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:62" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B40" s="20">
         <v>2009</v>
@@ -8661,7 +8661,7 @@
         <v>57</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J40" s="16" t="s">
         <v>112</v>
@@ -8673,10 +8673,10 @@
         <v>89</v>
       </c>
       <c r="M40" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="N40" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="N40" s="16" t="s">
-        <v>229</v>
       </c>
       <c r="O40" s="16" t="s">
         <v>89</v>
@@ -8688,7 +8688,7 @@
         <v>32</v>
       </c>
       <c r="R40" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S40" s="30" t="s">
         <v>115</v>
@@ -8700,13 +8700,13 @@
         <v>193</v>
       </c>
       <c r="V40" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W40" s="16" t="s">
         <v>148</v>
       </c>
       <c r="X40" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y40" s="16" t="s">
         <v>148</v>
@@ -8727,13 +8727,13 @@
         <v>1</v>
       </c>
       <c r="AE40" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF40" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="AF40" s="16" t="s">
+      <c r="AG40" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AG40" s="16" t="s">
-        <v>235</v>
       </c>
       <c r="AH40" s="16">
         <v>10</v>
@@ -8745,19 +8745,19 @@
         <v>57</v>
       </c>
       <c r="AK40" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL40" s="16" t="s">
         <v>236</v>
-      </c>
-      <c r="AL40" s="16" t="s">
-        <v>237</v>
       </c>
       <c r="AM40" s="18">
         <v>1</v>
       </c>
       <c r="AN40" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO40" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AP40" s="16" t="s">
         <v>76</v>
@@ -8766,10 +8766,10 @@
         <v>77</v>
       </c>
       <c r="AR40" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AS40" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT40" s="29" t="s">
         <v>80</v>
@@ -8790,16 +8790,16 @@
         <v>82</v>
       </c>
       <c r="AZ40" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA40" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="BA40" s="16" t="s">
+      <c r="BB40" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="BB40" s="16" t="s">
+      <c r="BC40" s="16" t="s">
         <v>249</v>
-      </c>
-      <c r="BC40" s="16" t="s">
-        <v>250</v>
       </c>
       <c r="BD40" s="29" t="s">
         <v>88</v>
@@ -8808,19 +8808,19 @@
         <v>88</v>
       </c>
       <c r="BF40" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BG40" s="16" t="s">
         <v>88</v>
       </c>
       <c r="BH40" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BI40" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BJ40" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
